--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merit\Documents\Machine Learning\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C076C0-CE84-4575-BBF6-F2AD64C58E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C081D-773D-477C-948C-7C7D4E746DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -314,8 +313,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -395,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,32 +408,18 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -445,29 +430,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -476,8 +456,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -504,27 +487,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,7 +1392,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1544,7 +1506,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1553,17 +1515,17 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2">
-            <v>8.3000000000000004E-2</v>
+            <v>982.78499999999997</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>2E-3</v>
+            <v>0.193</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>0</v>
+            <v>1.6E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -1573,32 +1535,32 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>2E-3</v>
+            <v>0.17599999999999999</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>0</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>0</v>
+            <v>-1.4999999999999999E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>1E-3</v>
+            <v>6.9000000000000006E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>2E-3</v>
+            <v>0.22500000000000001</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>4.0000000000000001E-3</v>
+            <v>0.40799999999999997</v>
           </cell>
         </row>
       </sheetData>
@@ -1608,7 +1570,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1652,7 +1614,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1661,17 +1623,17 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2">
-            <v>9.2999999999999999E-2</v>
+            <v>2108.8380000000002</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>1E-3</v>
+            <v>7.4999999999999997E-2</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>0</v>
+            <v>-1E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -1681,7 +1643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1817,7 +1779,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1861,7 +1823,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1997,93 +1959,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>0.056***</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>-5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>-0.001***</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>-1E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>-0.115</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>-0.14299999999999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.01</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>-8.0000000000000002E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>-0.0002**</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>-1E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>7.449***</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>-0.10100000000000001</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>9785</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.04</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2121,9 +2012,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2156,26 +2047,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2208,26 +2082,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2407,51 +2264,51 @@
       <selection activeCell="E7" sqref="E7:I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="5" t="str">
         <f>+[1]Sheet1!B8</f>
         <v>0.143***</v>
       </c>
@@ -2474,154 +2331,154 @@
         <v>0.19254107665082357</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <f>+[1]Sheet1!B9</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="5" t="str">
         <f>+[1]Sheet1!B10</f>
         <v>0.013***</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <f>+[1]Sheet1!B11</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="5" t="str">
         <f>+[1]Sheet1!B12</f>
         <v>-0.0002***</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <f>+[1]Sheet1!B13</f>
         <v>-2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="5" t="str">
         <f>+[1]Sheet1!B14</f>
         <v>0.132***</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
         <f>+[1]Sheet1!B15</f>
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="5" t="str">
         <f>+[1]Sheet1!B16</f>
         <v>0.008***</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
         <f>+[1]Sheet1!B17</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="5" t="str">
         <f>+[1]Sheet1!B18</f>
         <v>-0.012***</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
         <f>+[1]Sheet1!B19</f>
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="5" t="str">
         <f>+[1]Sheet1!B20</f>
         <v>0.054***</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
         <f>+[1]Sheet1!B21</f>
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="5" t="str">
         <f>+[1]Sheet1!B22</f>
         <v>0.165***</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
         <f>+[1]Sheet1!B23</f>
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="6" t="str">
+      <c r="B23" s="5" t="str">
         <f>+[1]Sheet1!B24</f>
         <v>0.282***</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
         <f>+[1]Sheet1!B25</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="6" t="str">
+      <c r="B25" s="5" t="str">
         <f>+[1]Sheet1!B26</f>
         <v>6.667***</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
         <f>+[1]Sheet1!B27</f>
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="36"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="28"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2629,7 +2486,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2637,17 +2494,17 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="35"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="B30" s="27"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2671,141 +2528,141 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <f>+[2]Sheet1!A2</f>
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>982.78499999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <f>+[2]Sheet1!A3</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <f>+[2]Sheet1!A4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <f>+[2]Sheet1!A5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <f>+[2]Sheet1!A6</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <f>+[2]Sheet1!A7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <f>+[2]Sheet1!A8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <f>+[2]Sheet1!A9</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <f>+[2]Sheet1!A10</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <f>+[2]Sheet1!A11</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+        <v>0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2825,101 +2682,101 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I7"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="5" t="str">
         <f>+[3]Sheet1!B8</f>
         <v>0.058***</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
         <f>+[3]Sheet1!B9</f>
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="5" t="str">
         <f>+[3]Sheet1!B10</f>
         <v>-0.001***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
         <f>+[3]Sheet1!B11</f>
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="5" t="str">
         <f>+[3]Sheet1!B12</f>
         <v>7.429***</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
         <f>+[3]Sheet1!B13</f>
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2927,7 +2784,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2935,17 +2792,17 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="35"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="B16" s="27"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2963,84 +2820,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B39C86-2D9C-4DAE-85C9-1B691C1D08E3}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>+[4]Sheet1!$A$3</f>
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>+[4]Sheet1!$A$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>+[4]Sheet1!$A$2</f>
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+        <v>2108.8380000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="28"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>7984.26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3063,41 +2925,41 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -3105,205 +2967,205 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="5" t="str">
         <f>+[5]Sheet1!B9</f>
         <v>-0.122***</v>
       </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
         <f>+[5]Sheet1!B10</f>
         <v>-1.2E-2</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="5" t="str">
         <f>+[5]Sheet1!B11</f>
         <v>0.046***</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
         <f>+[5]Sheet1!B12</f>
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="5" t="str">
         <f>+[5]Sheet1!B13</f>
         <v>-0.0004***</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
         <f>+[5]Sheet1!B14</f>
         <v>-4.0000000000000003E-5</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="5" t="str">
         <f>+[5]Sheet1!B15</f>
         <v>0.238***</v>
       </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
         <f>+[5]Sheet1!B16</f>
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="5" t="str">
         <f>+[5]Sheet1!B17</f>
         <v>0.016***</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
         <f>+[5]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="5" t="str">
         <f>+[5]Sheet1!B19</f>
         <v>-0.0002***</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
         <f>+[5]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="5" t="str">
         <f>+[5]Sheet1!B21</f>
         <v>0.063***</v>
       </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
         <f>+[5]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="5" t="str">
         <f>+[5]Sheet1!B23</f>
         <v>-0.013***</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
         <f>+[5]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6" t="str">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="str">
         <f>+[5]Sheet1!C25</f>
         <v>-0.122***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
         <f>+[5]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="6" t="str">
+      <c r="B26" s="5" t="str">
         <f>+[5]Sheet1!B27</f>
         <v>6.186***</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <f>+[5]Sheet1!C27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="5">
         <f>+[5]Sheet1!B28</f>
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>+[5]Sheet1!C28</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3316,32 +3178,32 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="23">
         <f>+[5]Sheet1!B31</f>
         <v>0.36099999999999999</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="23">
         <f>+[5]Sheet1!C31</f>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3363,109 +3225,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E742D563-C828-467C-B6A5-B75ED254EEE6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <f>+[6]Sheet1!A3</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <f>+[6]Sheet1!A4</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <f>+[6]Sheet1!A5</f>
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <f>+[6]Sheet1!A6</f>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <f>+[6]Sheet1!A7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>+[6]Sheet1!A2</f>
         <v>2150.3969999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3488,41 +3350,41 @@
       <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -3530,205 +3392,205 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11" t="str">
+      <c r="B8" s="8" t="str">
         <f>+[7]Sheet1!B9</f>
         <v>-0.136***</v>
       </c>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
         <f>+[7]Sheet1!B10</f>
         <v>-1.2E-2</v>
       </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="str">
+      <c r="B10" s="8" t="str">
         <f>+[7]Sheet1!B11</f>
         <v>0.050***</v>
       </c>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="8">
         <f>+[7]Sheet1!B12</f>
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="str">
+      <c r="B12" s="8" t="str">
         <f>+[7]Sheet1!B13</f>
         <v>-0.0005***</v>
       </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="11">
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
         <f>+[7]Sheet1!B14</f>
         <v>-4.0000000000000003E-5</v>
       </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="str">
+      <c r="B14" s="8" t="str">
         <f>+[7]Sheet1!B15</f>
         <v>0.247***</v>
       </c>
-      <c r="C14" s="11"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
         <f>+[7]Sheet1!B16</f>
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="str">
+      <c r="B16" s="8" t="str">
         <f>+[7]Sheet1!B17</f>
         <v>0.016***</v>
       </c>
-      <c r="C16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="8">
         <f>+[7]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="11" t="str">
+      <c r="B18" s="8" t="str">
         <f>+[7]Sheet1!B19</f>
         <v>-0.0002***</v>
       </c>
-      <c r="C18" s="11"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="8">
         <f>+[7]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
-      <c r="C19" s="11"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="11" t="str">
+      <c r="B20" s="8" t="str">
         <f>+[7]Sheet1!B21</f>
         <v>0.063***</v>
       </c>
-      <c r="C20" s="11"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
         <f>+[7]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
-      <c r="C21" s="11"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="11" t="str">
+      <c r="B22" s="8" t="str">
         <f>+[7]Sheet1!B23</f>
         <v>-0.014***</v>
       </c>
-      <c r="C22" s="11"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
         <f>+[7]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
-      <c r="C23" s="11"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11" t="str">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="str">
         <f>+[7]Sheet1!C25</f>
         <v>-0.136***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
         <f>+[7]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="11" t="str">
+      <c r="B26" s="8" t="str">
         <f>+[7]Sheet1!B27</f>
         <v>6.139***</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <f>+[7]Sheet1!C27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="11">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="8">
         <f>+[7]Sheet1!B28</f>
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <f>+[7]Sheet1!C28</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3741,41 +3603,41 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="43">
+      <c r="B30" s="23">
         <f>+[7]Sheet1!B31</f>
         <v>0.372</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="23">
         <f>+[7]Sheet1!C31</f>
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -3792,171 +3654,171 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="str">
+      <c r="B7" s="8">
         <f>+[8]Sheet1!B8</f>
-        <v>0.056***</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="8">
         <f>+[8]Sheet1!B9</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="str">
+      <c r="B9" s="8">
         <f>+[8]Sheet1!B10</f>
-        <v>-0.001***</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="8">
         <f>+[8]Sheet1!B11</f>
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <f>+[8]Sheet1!B12</f>
-        <v>-0.115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
         <f>+[8]Sheet1!B13</f>
-        <v>-0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <f>+[8]Sheet1!B14</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <f>+[8]Sheet1!B15</f>
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="11" t="str">
+      <c r="B15" s="8">
         <f>+[8]Sheet1!B16</f>
-        <v>-0.0002**</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="8">
         <f>+[8]Sheet1!B17</f>
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="str">
+      <c r="B17" s="8">
         <f>+[8]Sheet1!B18</f>
-        <v>7.449***</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
         <f>+[8]Sheet1!B19</f>
-        <v>-0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4">
         <f>+[8]Sheet1!B21</f>
-        <v>9785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <f>+[8]Sheet1!B22</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="33"/>
+      <c r="B23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3978,584 +3840,584 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="4">
         <v>9785</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="3">
         <v>49.942999999999998</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="3">
         <v>9.7080000000000002</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="3">
         <v>24</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="4">
         <v>9785</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="3">
         <v>5.1360000000000001</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="3">
         <v>1.0089999999999999</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="4">
         <v>9785</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="3">
         <v>36.438000000000002</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="3">
         <v>11.936999999999999</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="3">
         <v>19</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="4">
         <v>9785</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="3">
         <v>20.193000000000001</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="3">
         <v>15.813000000000001</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="4">
         <v>9785</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="3">
         <v>6.4390000000000001</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="3">
         <v>2.8719999999999999</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="4">
         <v>9785</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="3">
         <v>2.5129999999999999</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="3">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="5">
         <v>0.19053439999999999</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="5">
         <v>0.18761849999999999</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="5">
         <v>0.2011559</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="5">
         <v>3.6648645000000002</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="5">
         <v>3.7936697000000001</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="5">
         <v>3.9705585999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="5">
         <v>1.6223208</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="5">
         <v>1.7076298000000001</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="5">
         <v>1.7615902000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="5">
         <v>19.405860000000001</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="5">
         <v>20.626216400000001</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="5">
         <v>20.950764800000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="5">
         <v>4.8064391999999998</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="5">
         <v>4.9981816999999999</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="5">
         <v>5.0749202999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="24">
         <v>70.309981100000002</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="24">
         <v>68.686683799999997</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="24">
         <v>68.041010299999996</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="17">
         <v>8178.3837007790617</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="17">
         <v>1651645.12892057</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="17">
         <v>9042.8825719145789</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="17">
         <v>1845881.765029914</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="18">
         <v>7788.7467482753646</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="18">
         <v>1480209.2137435901</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="18">
         <v>8692.2894246356664</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="18">
         <v>1667633.6329799681</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="17">
         <v>5020.2669999999998</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="17">
         <v>969589.4</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="17">
         <v>1146842</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="20">
         <v>6</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="20">
         <v>2</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="4">
         <v>9</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="4">
         <v>2056</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="19">
         <v>6975.5259999999998</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="19">
         <v>1368351</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="19">
         <v>1605467</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="4">
         <v>6</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="4">
         <v>2</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="4">
         <v>9</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="4">
         <v>1738</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="19">
         <v>8772.84</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="19">
         <v>1743375.7</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="19">
         <v>2076154</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="4">
         <v>2</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="4">
         <v>9</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="4">
         <v>2694</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="19">
         <v>9575.7459999999992</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="19">
         <v>1904861.9</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="19">
         <v>2271153</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="4">
         <v>6</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="4">
         <v>9</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="4">
         <v>1785</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="19">
         <v>9742.3430000000008</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="19">
         <v>1891623.7</v>
       </c>
-      <c r="D37" s="26">
+      <c r="D37" s="19">
         <v>2328023</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="4">
         <v>6</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="4">
         <v>3</v>
       </c>
-      <c r="G37" s="29">
+      <c r="G37" s="4">
         <v>9</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="4">
         <v>1190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="18">
         <v>10437.092000000001</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="18">
         <v>1882181.9</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="18">
         <v>2723351</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="22">
         <v>5</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="22">
         <v>2</v>
       </c>
-      <c r="G38" s="31">
+      <c r="G38" s="22">
         <v>9</v>
       </c>
-      <c r="H38" s="48">
+      <c r="H38" s="22">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A30:H30"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A2:F2"/>
@@ -4564,7 +4426,6 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merit\Documents\Machine Learning\Taller_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54C081D-773D-477C-948C-7C7D4E746DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8EC86-3DEE-4BFE-A501-EC7F3BA4F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -22,9 +22,9 @@
     <sheet name="Reg4" sheetId="10" r:id="rId7"/>
     <sheet name="Reg5" sheetId="7" r:id="rId8"/>
     <sheet name="Tablas Stat" sheetId="9" r:id="rId9"/>
+    <sheet name="Reg6" sheetId="11" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
@@ -32,6 +32,8 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
   <si>
     <t>============================================</t>
   </si>
@@ -305,6 +307,9 @@
   </si>
   <si>
     <t>Universitaria</t>
+  </si>
+  <si>
+    <t>Tabla 1: Regresión 6</t>
   </si>
 </sst>
 </file>
@@ -394,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,6 +467,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -480,14 +491,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1392,7 +1403,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1506,7 +1517,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1570,7 +1581,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1614,7 +1625,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1643,7 +1654,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1779,7 +1790,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1823,7 +1834,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1959,22 +1970,137 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>0.056***</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>-0.001***</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>-1E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>-0.115</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>-0.14299999999999999</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.01</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>-8.0000000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>-0.0002**</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>-1E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>7.449***</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>-0.10100000000000001</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>9785</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.04</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>-0.047***</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>-1.4999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>8.648***</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>-0.01</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>9785</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>1E-3</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2012,9 +2138,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2047,9 +2173,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2082,9 +2225,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2260,51 +2420,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21463395-80CF-4F38-838F-D1FFAB4F2937}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2331,13 +2491,13 @@
         <v>0.19254107665082357</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>+[1]Sheet1!B9</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2346,13 +2506,13 @@
         <v>0.013***</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <f>+[1]Sheet1!B11</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2361,13 +2521,13 @@
         <v>-0.0002***</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f>+[1]Sheet1!B13</f>
         <v>-2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2376,13 +2536,13 @@
         <v>0.132***</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f>+[1]Sheet1!B15</f>
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2391,13 +2551,13 @@
         <v>0.008***</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f>+[1]Sheet1!B17</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2406,13 +2566,13 @@
         <v>-0.012***</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>+[1]Sheet1!B19</f>
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2421,13 +2581,13 @@
         <v>0.054***</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f>+[1]Sheet1!B21</f>
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2436,13 +2596,13 @@
         <v>0.165***</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f>+[1]Sheet1!B23</f>
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2451,13 +2611,13 @@
         <v>0.282***</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f>+[1]Sheet1!B25</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2466,19 +2626,19 @@
         <v>6.667***</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
         <f>+[1]Sheet1!B27</f>
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="28"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="30"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2486,7 +2646,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2494,17 +2654,17 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="27"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="B30" s="29"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="25"/>
+      <c r="B31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2520,6 +2680,134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839A8D81-4B18-435C-9BD5-ECA2C1190472}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="str">
+        <f>+[9]Sheet1!B8</f>
+        <v>-0.047***</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <f>+[9]Sheet1!B9</f>
+        <v>-1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="str">
+        <f>+[9]Sheet1!B10</f>
+        <v>8.648***</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <f>+[9]Sheet1!B11</f>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <f>+[9]Sheet1!B13</f>
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="23">
+        <f>+[9]Sheet1!B14</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="29"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360CECD0-C3BE-4ED3-B371-95639DB06682}">
   <dimension ref="A1:B17"/>
@@ -2528,47 +2816,47 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2577,7 +2865,7 @@
         <v>982.78499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2586,7 +2874,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2595,7 +2883,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2604,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2613,7 +2901,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2622,7 +2910,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2631,7 +2919,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2640,7 +2928,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -2649,7 +2937,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2658,11 +2946,11 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2685,47 +2973,47 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2734,13 +3022,13 @@
         <v>0.058***</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>+[3]Sheet1!B9</f>
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2749,13 +3037,13 @@
         <v>-0.001***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <f>+[3]Sheet1!B11</f>
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2764,19 +3052,19 @@
         <v>7.429***</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f>+[3]Sheet1!B13</f>
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="30"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2784,7 +3072,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2792,17 +3080,17 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="27"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2822,51 +3110,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B39C86-2D9C-4DAE-85C9-1B691C1D08E3}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2875,7 +3163,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2884,7 +3172,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2893,13 +3181,13 @@
         <v>2108.8380000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>7984.26</v>
       </c>
@@ -2921,45 +3209,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD71E75-2BDB-48CA-A7D2-F5A58344C4E1}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2967,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -2975,14 +3263,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -2992,14 +3280,14 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f>+[5]Sheet1!B10</f>
         <v>-1.2E-2</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3009,14 +3297,14 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f>+[5]Sheet1!B12</f>
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3026,14 +3314,14 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f>+[5]Sheet1!B14</f>
         <v>-4.0000000000000003E-5</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3043,14 +3331,14 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f>+[5]Sheet1!B16</f>
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3060,14 +3348,14 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f>+[5]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3077,14 +3365,14 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f>+[5]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3094,14 +3382,14 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f>+[5]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3111,14 +3399,14 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>+[5]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3128,14 +3416,14 @@
         <v>-0.122***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5">
         <f>+[5]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3148,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f>+[5]Sheet1!B28</f>
         <v>-7.1999999999999995E-2</v>
@@ -3158,14 +3446,14 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3178,7 +3466,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3191,19 +3479,19 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3229,47 +3517,47 @@
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="29"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="29"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3278,7 +3566,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3287,7 +3575,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3296,7 +3584,7 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3305,7 +3593,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -3314,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3323,11 +3611,11 @@
         <v>2150.3969999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3346,45 +3634,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="29"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="C3" s="31"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -3392,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3400,14 +3688,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3417,14 +3705,14 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <f>+[7]Sheet1!B10</f>
         <v>-1.2E-2</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3434,14 +3722,14 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f>+[7]Sheet1!B12</f>
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3451,14 +3739,14 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <f>+[7]Sheet1!B14</f>
         <v>-4.0000000000000003E-5</v>
       </c>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3468,14 +3756,14 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f>+[7]Sheet1!B16</f>
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3485,14 +3773,14 @@
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <f>+[7]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3502,14 +3790,14 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <f>+[7]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3519,14 +3807,14 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <f>+[7]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3536,14 +3824,14 @@
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <f>+[7]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3553,14 +3841,14 @@
         <v>-0.136***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8">
         <f>+[7]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3573,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f>+[7]Sheet1!B28</f>
         <v>-7.0999999999999994E-2</v>
@@ -3583,14 +3871,14 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3603,7 +3891,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3616,19 +3904,19 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3650,175 +3938,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="26"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="B1" s="28"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29"/>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="30"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="str">
         <f>+[8]Sheet1!B8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.056***</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <f>+[8]Sheet1!B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="str">
         <f>+[8]Sheet1!B10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.001***</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <f>+[8]Sheet1!B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8">
         <f>+[8]Sheet1!B12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <f>+[8]Sheet1!B13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="8">
         <f>+[8]Sheet1!B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f>+[8]Sheet1!B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="8" t="str">
         <f>+[8]Sheet1!B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-0.0002**</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <f>+[8]Sheet1!B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="8" t="str">
         <f>+[8]Sheet1!B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7.449***</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <f>+[8]Sheet1!B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+        <v>-0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="30"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="32"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4">
         <f>+[8]Sheet1!B21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+        <v>9785</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="8">
         <f>+[8]Sheet1!B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="25"/>
+      <c r="B23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3840,12 +4128,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>38</v>
       </c>
@@ -3855,17 +4143,17 @@
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
@@ -3885,17 +4173,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
@@ -3915,7 +4203,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -3935,7 +4223,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -3955,7 +4243,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +4263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -3995,7 +4283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -4015,17 +4303,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>56</v>
       </c>
@@ -4033,17 +4321,17 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4071,7 +4359,7 @@
         <v>0.2011559</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
@@ -4085,7 +4373,7 @@
         <v>3.9705585999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
@@ -4099,7 +4387,7 @@
         <v>1.7615902000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
@@ -4113,7 +4401,7 @@
         <v>20.950764800000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
@@ -4127,7 +4415,7 @@
         <v>5.0749202999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>80</v>
       </c>
@@ -4141,7 +4429,7 @@
         <v>68.041010299999996</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>74</v>
       </c>
@@ -4150,17 +4438,17 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>2</v>
       </c>
@@ -4177,7 +4465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
@@ -4194,7 +4482,7 @@
         <v>1845881.765029914</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -4211,7 +4499,7 @@
         <v>1667633.6329799681</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>75</v>
       </c>
@@ -4223,7 +4511,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>73</v>
       </c>
@@ -4233,7 +4521,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>62</v>
       </c>
@@ -4259,7 +4547,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>66</v>
       </c>
@@ -4285,7 +4573,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4311,7 +4599,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -4337,7 +4625,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -4363,7 +4651,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -4389,7 +4677,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>71</v>
       </c>

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC8EC86-3DEE-4BFE-A501-EC7F3BA4F39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BFDA7B-57A3-4EE8-B995-F1509A486BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Reg5" sheetId="7" r:id="rId8"/>
     <sheet name="Tablas Stat" sheetId="9" r:id="rId9"/>
     <sheet name="Reg6" sheetId="11" r:id="rId10"/>
+    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
@@ -34,6 +34,7 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
   <si>
     <t>============================================</t>
   </si>
@@ -310,6 +311,108 @@
   </si>
   <si>
     <t>Tabla 1: Regresión 6</t>
+  </si>
+  <si>
+    <t>Mod_Comparativos</t>
+  </si>
+  <si>
+    <t>lw_hora_Resid</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>-0.122***</t>
+  </si>
+  <si>
+    <t>-0.136***</t>
+  </si>
+  <si>
+    <t>0.046***</t>
+  </si>
+  <si>
+    <t>0.050***</t>
+  </si>
+  <si>
+    <t>Edad2</t>
+  </si>
+  <si>
+    <t>-0.0004***</t>
+  </si>
+  <si>
+    <t>-0.0005***</t>
+  </si>
+  <si>
+    <t>Educ</t>
+  </si>
+  <si>
+    <t>0.238***</t>
+  </si>
+  <si>
+    <t>0.247***</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>0.016***</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>-0.0002***</t>
+  </si>
+  <si>
+    <t>Tamaño_empresa</t>
+  </si>
+  <si>
+    <t>0.063***</t>
+  </si>
+  <si>
+    <t>-0.013***</t>
+  </si>
+  <si>
+    <t>-0.014***</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>6.186***</t>
+  </si>
+  <si>
+    <t>9,785           9,785</t>
+  </si>
+  <si>
+    <t>0.372           0.013</t>
+  </si>
+  <si>
+    <t>Nota 2: (1) y (2) con muestra única y (3) y (4) con Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.139***        </t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>==========================================================================</t>
+  </si>
+  <si>
+    <t>Nota 1: *p&lt;0.1; **p&lt;0.05; ***p&lt;0.01</t>
+  </si>
+  <si>
+    <t>======================================================================</t>
+  </si>
+  <si>
+    <t>-------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>-----------------------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
@@ -399,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +576,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -499,6 +608,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2420,7 +2533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21463395-80CF-4F38-838F-D1FFAB4F2937}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2431,16 +2544,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2448,10 +2561,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2459,10 +2572,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2633,10 +2746,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="32"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2655,16 +2768,16 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="29"/>
+      <c r="B30" s="31"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2695,16 +2808,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -2712,10 +2825,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2723,10 +2836,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2759,10 +2872,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="32"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2783,16 +2896,16 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="29"/>
+      <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27"/>
+      <c r="B15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2805,6 +2918,409 @@
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>-4.0000000000000003E-5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3">
+        <v>-4.0000000000000003E-5</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>-1E-3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>-1E-3</v>
+      </c>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>-2E-3</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>-2E-3</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>-1E-3</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>-1E-3</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="8">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="8">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="38">
+        <v>9785</v>
+      </c>
+      <c r="C30" s="38">
+        <v>9785</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A33:E33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7:E7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2823,16 +3339,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2840,10 +3356,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2851,10 +3367,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2947,10 +3463,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2980,16 +3496,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2997,10 +3513,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3008,10 +3524,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3059,10 +3575,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3081,16 +3597,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="29"/>
+      <c r="B16" s="31"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3121,16 +3637,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3138,10 +3654,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3149,10 +3665,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3182,10 +3698,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="32"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -3221,31 +3737,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3447,11 +3963,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3487,11 +4003,11 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3524,16 +4040,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3541,10 +4057,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3552,10 +4068,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3612,10 +4128,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3646,31 +4162,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3872,11 +4388,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -3912,11 +4428,11 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3949,16 +4465,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3966,10 +4482,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4073,10 +4589,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="32"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4103,10 +4619,10 @@
       <c r="B22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4134,24 +4650,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -4174,14 +4690,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4304,32 +4820,32 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -4430,23 +4946,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -4500,16 +5016,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BFDA7B-57A3-4EE8-B995-F1509A486BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCE074-0116-41ED-84C3-AC03646FD7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
   <si>
     <t>============================================</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>-0.0005***</t>
-  </si>
-  <si>
-    <t>Educ</t>
   </si>
   <si>
     <t>0.238***</t>
@@ -582,6 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,7 +607,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -2544,16 +2541,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2561,10 +2558,10 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2572,10 +2569,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2746,10 +2743,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="33"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2768,16 +2765,16 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="32"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2808,16 +2805,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
@@ -2825,10 +2822,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2836,10 +2833,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2872,10 +2869,10 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="33"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2896,16 +2893,16 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="32"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="29"/>
+      <c r="B15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2925,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,29 +2940,29 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="A3" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
@@ -2996,13 +2993,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="A8" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3075,14 +3072,14 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3098,14 +3095,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -3121,14 +3118,14 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -3144,14 +3141,14 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -3170,11 +3167,11 @@
         <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -3213,16 +3210,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -3243,26 +3240,26 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+      <c r="A29" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="29">
         <v>9785</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="29">
         <v>9785</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
@@ -3276,30 +3273,30 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -3339,16 +3336,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3356,10 +3353,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3367,10 +3364,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3463,10 +3460,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3496,16 +3493,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3513,10 +3510,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3524,10 +3521,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3575,10 +3572,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3597,16 +3594,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="32"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="29"/>
+      <c r="B17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3637,16 +3634,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3654,10 +3651,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3665,10 +3662,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3698,10 +3695,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -3737,31 +3734,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3963,11 +3960,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4003,11 +4000,11 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4040,16 +4037,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4057,10 +4054,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4068,10 +4065,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4128,10 +4125,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4162,31 +4159,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="34"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4388,11 +4385,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4428,11 +4425,11 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4465,16 +4462,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
     </row>
     <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4482,10 +4479,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4589,10 +4586,10 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="35"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -4619,10 +4616,10 @@
       <c r="B22"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4650,24 +4647,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -4690,14 +4687,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4820,32 +4817,32 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -4946,23 +4943,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -5016,16 +5013,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merit\Documents\Machine Learning\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCE074-0116-41ED-84C3-AC03646FD7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7E613-B53F-431B-A712-E81722D8CEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -566,18 +566,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1512,8 +1500,56 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563881</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>172373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA81B35C-8111-D962-19F9-B03248BBF0E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="33285"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2918461" y="289560"/>
+          <a:ext cx="2842259" cy="3921413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1627,7 +1663,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1691,7 +1727,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1735,7 +1771,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1764,7 +1800,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1900,7 +1936,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1944,7 +1980,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2080,7 +2116,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2164,7 +2200,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2208,9 +2244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2248,9 +2284,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2283,26 +2319,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2335,26 +2354,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2534,47 +2536,47 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2601,13 +2603,13 @@
         <v>0.19254107665082357</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f>+[1]Sheet1!B9</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2616,13 +2618,13 @@
         <v>0.013***</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>+[1]Sheet1!B11</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2631,13 +2633,13 @@
         <v>-0.0002***</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f>+[1]Sheet1!B13</f>
         <v>-2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2646,13 +2648,13 @@
         <v>0.132***</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f>+[1]Sheet1!B15</f>
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2661,13 +2663,13 @@
         <v>0.008***</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f>+[1]Sheet1!B17</f>
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2676,13 +2678,13 @@
         <v>-0.012***</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f>+[1]Sheet1!B19</f>
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2691,13 +2693,13 @@
         <v>0.054***</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f>+[1]Sheet1!B21</f>
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2706,13 +2708,13 @@
         <v>0.165***</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f>+[1]Sheet1!B23</f>
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2721,13 +2723,13 @@
         <v>0.282***</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <f>+[1]Sheet1!B25</f>
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2736,19 +2738,19 @@
         <v>6.667***</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <f>+[1]Sheet1!B27</f>
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="33"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2764,17 +2766,17 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="32"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="28"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2798,47 +2800,47 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2847,13 +2849,13 @@
         <v>-0.047***</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f>+[9]Sheet1!B9</f>
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2862,19 +2864,19 @@
         <v>8.648***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>+[9]Sheet1!B11</f>
         <v>-0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2892,17 +2894,17 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2922,63 +2924,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
@@ -2992,16 +2994,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3014,7 +3016,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>-1.2E-2</v>
       </c>
@@ -3024,7 +3026,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3039,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -3047,7 +3049,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -3060,7 +3062,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>-4.0000000000000003E-5</v>
       </c>
@@ -3070,7 +3072,7 @@
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3083,7 +3085,7 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>-6.0000000000000001E-3</v>
       </c>
@@ -3093,7 +3095,7 @@
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -3106,7 +3108,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>-1E-3</v>
       </c>
@@ -3116,7 +3118,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3129,7 +3131,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>-2.0000000000000002E-5</v>
       </c>
@@ -3139,7 +3141,7 @@
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -3152,7 +3154,7 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>-2E-3</v>
       </c>
@@ -3162,7 +3164,7 @@
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3175,7 +3177,7 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>-1E-3</v>
       </c>
@@ -3185,7 +3187,7 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3198,7 +3200,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="8">
         <v>-1.2E-2</v>
@@ -3208,7 +3210,7 @@
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>-7.1999999999999995E-2</v>
       </c>
@@ -3239,30 +3241,30 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="25">
         <v>9785</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="25">
         <v>9785</v>
       </c>
       <c r="D30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3276,32 +3278,32 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3329,47 +3331,47 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3378,7 +3380,7 @@
         <v>982.78499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3396,7 +3398,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3414,7 +3416,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3441,7 +3443,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3450,7 +3452,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3459,11 +3461,11 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3486,47 +3488,47 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3535,13 +3537,13 @@
         <v>0.058***</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f>+[3]Sheet1!B9</f>
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3550,13 +3552,13 @@
         <v>-0.001***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>+[3]Sheet1!B11</f>
         <v>-5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3565,19 +3567,19 @@
         <v>7.429***</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f>+[3]Sheet1!B13</f>
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3593,17 +3595,17 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="32"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="B16" s="28"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3627,47 +3629,47 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3685,7 +3687,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3694,13 +3696,13 @@
         <v>2108.8380000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>7984.26</v>
       </c>
@@ -3726,41 +3728,41 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -3768,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3776,14 +3778,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3793,14 +3795,14 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f>+[5]Sheet1!B10</f>
         <v>-1.2E-2</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3810,14 +3812,14 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f>+[5]Sheet1!B12</f>
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3827,14 +3829,14 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f>+[5]Sheet1!B14</f>
         <v>-4.0000000000000003E-5</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3844,14 +3846,14 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>+[5]Sheet1!B16</f>
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3861,14 +3863,14 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>+[5]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3878,14 +3880,14 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f>+[5]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3895,14 +3897,14 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f>+[5]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3912,14 +3914,14 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <f>+[5]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3929,14 +3931,14 @@
         <v>-0.122***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5">
         <f>+[5]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f>+[5]Sheet1!B28</f>
         <v>-7.1999999999999995E-2</v>
@@ -3959,14 +3961,14 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3992,19 +3994,19 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4030,47 +4032,47 @@
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>-0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -4124,11 +4126,11 @@
         <v>2150.3969999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4151,41 +4153,41 @@
       <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -4201,14 +4203,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4218,14 +4220,14 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <f>+[7]Sheet1!B10</f>
         <v>-1.2E-2</v>
       </c>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4235,14 +4237,14 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <f>+[7]Sheet1!B12</f>
         <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -4252,14 +4254,14 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="8">
         <f>+[7]Sheet1!B14</f>
         <v>-4.0000000000000003E-5</v>
       </c>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4269,14 +4271,14 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <f>+[7]Sheet1!B16</f>
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4286,14 +4288,14 @@
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B17" s="8">
         <f>+[7]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4303,14 +4305,14 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B19" s="8">
         <f>+[7]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -4320,14 +4322,14 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <f>+[7]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4337,14 +4339,14 @@
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <f>+[7]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4354,14 +4356,14 @@
         <v>-0.136***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="8">
         <f>+[7]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -4374,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <f>+[7]Sheet1!B28</f>
         <v>-7.0999999999999994E-2</v>
@@ -4384,14 +4386,14 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -4404,7 +4406,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4417,19 +4419,19 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4449,53 +4451,70 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
+      <c r="L4">
+        <f>+EXP(0.06)-1</f>
+        <v>6.1836546545359639E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f>+L4*100</f>
+        <v>6.1836546545359639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>+-0.0002</f>
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="L6">
+        <f>+L5/J11</f>
+        <v>7.7448062244164935E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4503,14 +4522,26 @@
         <f>+[8]Sheet1!B8</f>
         <v>0.056***</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>+EXP(J6)-1</f>
+        <v>-1.9998000133325533E-4</v>
+      </c>
+      <c r="L7">
+        <f>+L6*100</f>
+        <v>7.7448062244164936E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="8">
         <f>+[8]Sheet1!B9</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>+J7*100</f>
+        <v>-1.9998000133325533E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4519,13 +4550,13 @@
         <v>-0.001***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="8">
         <f>+[8]Sheet1!B11</f>
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -4533,14 +4564,21 @@
         <f>+[8]Sheet1!B12</f>
         <v>-0.115</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>7984.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <f>+[8]Sheet1!B13</f>
         <v>-0.14299999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>+J8/J11</f>
+        <v>-2.5046779705727936E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -4548,14 +4586,18 @@
         <f>+[8]Sheet1!B14</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>+J12*100</f>
+        <v>-2.5046779705727938E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="8">
         <f>+[8]Sheet1!B15</f>
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4564,13 +4606,13 @@
         <v>-0.0002**</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="8">
         <f>+[8]Sheet1!B17</f>
         <v>-1E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4579,19 +4621,19 @@
         <v>7.449***</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <f>+[8]Sheet1!B19</f>
         <v>-0.10100000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="35"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4600,7 +4642,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -4609,17 +4651,17 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4630,6 +4672,7 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4641,32 +4684,32 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>39</v>
       </c>
@@ -4686,17 +4729,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>42</v>
       </c>
@@ -4716,7 +4759,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -4736,7 +4779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>3</v>
       </c>
@@ -4756,7 +4799,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -4776,7 +4819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -4796,7 +4839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -4816,35 +4859,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>47</v>
       </c>
@@ -4858,7 +4901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4872,7 +4915,7 @@
         <v>0.2011559</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>76</v>
       </c>
@@ -4886,7 +4929,7 @@
         <v>3.9705585999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
@@ -4900,7 +4943,7 @@
         <v>1.7615902000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>78</v>
       </c>
@@ -4914,7 +4957,7 @@
         <v>20.950764800000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>79</v>
       </c>
@@ -4928,7 +4971,7 @@
         <v>5.0749202999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>80</v>
       </c>
@@ -4942,26 +4985,26 @@
         <v>68.041010299999996</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>2</v>
       </c>
@@ -4978,7 +5021,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
@@ -4995,7 +5038,7 @@
         <v>1845881.765029914</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>24</v>
       </c>
@@ -5012,19 +5055,19 @@
         <v>1667633.6329799681</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>73</v>
       </c>
@@ -5034,7 +5077,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>62</v>
       </c>
@@ -5060,7 +5103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>66</v>
       </c>
@@ -5086,7 +5129,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5112,7 +5155,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -5138,7 +5181,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -5164,7 +5207,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -5190,7 +5233,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
         <v>71</v>
       </c>

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merit\Documents\Machine Learning\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A7E613-B53F-431B-A712-E81722D8CEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B362587-75F0-4D37-A9EC-7FDBBC03CE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -2794,10 +2794,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839A8D81-4B18-435C-9BD5-ECA2C1190472}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2806,41 +2806,41 @@
     <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2848,14 +2848,22 @@
         <f>+[9]Sheet1!B8</f>
         <v>-0.047***</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>+EXP(-0.047)-1</f>
+        <v>-4.5912602409628911E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f>+[9]Sheet1!B9</f>
         <v>-1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>+D7*100</f>
+        <v>-4.5912602409628906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2863,20 +2871,32 @@
         <f>+[9]Sheet1!B10</f>
         <v>8.648***</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>+D8/'Reg3'!G18</f>
+        <v>-5.7503891919387525E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>+[9]Sheet1!B11</f>
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>+D9*100</f>
+        <v>-5.7503891919387526E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="29"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>+EXP(8.648)</f>
+        <v>5698.7378529697417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2894,13 +2914,13 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="28"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>18</v>
       </c>
@@ -2924,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -3327,7 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360CECD0-C3BE-4ED3-B371-95639DB06682}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3623,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B39C86-2D9C-4DAE-85C9-1B691C1D08E3}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3635,41 +3655,49 @@
     <col min="2" max="2" width="15.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>+EXP(0.058)-1</f>
+        <v>5.9714995710287599E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>+D5*100</f>
+        <v>5.9714995710287599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3677,8 +3705,12 @@
         <f>+[4]Sheet1!$A$3</f>
         <v>7.4999999999999997E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>+D6/'Reg3'!G18</f>
+        <v>7.4790895725198822E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3686,8 +3718,12 @@
         <f>+[4]Sheet1!$A$4</f>
         <v>-1E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>+D7*100</f>
+        <v>7.4790895725198828E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3696,16 +3732,11 @@
         <v>2108.8380000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="29"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>7984.26</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3722,10 +3753,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD71E75-2BDB-48CA-A7D2-F5A58344C4E1}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3863,14 +3894,14 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>+[5]Sheet1!B18</f>
         <v>-1E-3</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3879,15 +3910,18 @@
         <v>-0.0002***</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G18" s="3">
+        <v>7984.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f>+[5]Sheet1!B20</f>
         <v>-2.0000000000000002E-5</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3897,14 +3931,14 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f>+[5]Sheet1!B22</f>
         <v>-2E-3</v>
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3913,15 +3947,23 @@
         <v>-0.013***</v>
       </c>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <f>+EXP(-0.136)-1</f>
+        <v>-0.12715736751128071</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <f>+[5]Sheet1!B24</f>
         <v>-1E-3</v>
       </c>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <f>+H22*100</f>
+        <v>-12.71573675112807</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3930,15 +3972,27 @@
         <f>+[5]Sheet1!C25</f>
         <v>-0.122***</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <f>+H23/G18</f>
+        <v>-1.5926005354444956E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
       <c r="C25" s="5">
         <f>+[5]Sheet1!C26</f>
         <v>-1.2E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f>+EXP(-0.122)-1</f>
+        <v>-0.11485163149737287</v>
+      </c>
+      <c r="H25">
+        <f>+H24*100</f>
+        <v>-0.15926005354444955</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3950,8 +4004,12 @@
         <f>+[5]Sheet1!C27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <f>+E25*100</f>
+        <v>-11.485163149737287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f>+[5]Sheet1!B28</f>
         <v>-7.1999999999999995E-2</v>
@@ -3960,15 +4018,23 @@
         <f>+[5]Sheet1!C28</f>
         <v>-6.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <f>+E26/G18</f>
+        <v>-1.4384755944492399E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <f>+E27*100</f>
+        <v>-0.143847559444924</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +4047,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3994,19 +4060,19 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4149,7 +4215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:C32"/>
     </sheetView>
   </sheetViews>
@@ -4453,7 +4519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBCE074-0116-41ED-84C3-AC03646FD7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAF17A2-C49F-494B-8576-221A69B3E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="117">
   <si>
     <t>============================================</t>
   </si>
@@ -410,6 +411,12 @@
   </si>
   <si>
     <t>-----------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
   </si>
 </sst>
 </file>
@@ -499,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -580,6 +587,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1626,6 +1637,100 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="10">
+          <cell r="B10">
+            <v>-1.2E-2</v>
+          </cell>
+          <cell r="D10">
+            <v>-1.2E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>-3.0000000000000001E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>-3.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>-4.0000000000000003E-5</v>
+          </cell>
+          <cell r="D14">
+            <v>-4.0000000000000003E-5</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D16">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>-1E-3</v>
+          </cell>
+          <cell r="D18">
+            <v>-1E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>-2.0000000000000002E-5</v>
+          </cell>
+          <cell r="D20">
+            <v>-2.0000000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>-2E-3</v>
+          </cell>
+          <cell r="D22">
+            <v>-2E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>-1E-3</v>
+          </cell>
+          <cell r="D24">
+            <v>-1E-3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>-1.2E-2</v>
+          </cell>
+          <cell r="E26">
+            <v>-1.2E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+          <cell r="E28">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2036,11 +2141,6 @@
             <v>-0.136***</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="C26">
-            <v>-1.2E-2</v>
-          </cell>
-        </row>
         <row r="27">
           <cell r="B27" t="str">
             <v>6.139***</v>
@@ -2052,9 +2152,6 @@
         <row r="28">
           <cell r="B28">
             <v>-7.0999999999999994E-2</v>
-          </cell>
-          <cell r="C28">
-            <v>-6.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="30">
@@ -2089,7 +2186,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="B8" t="str">
-            <v>0.056***</v>
+            <v>0.062***</v>
           </cell>
         </row>
         <row r="9">
@@ -2109,27 +2206,27 @@
         </row>
         <row r="12">
           <cell r="B12">
-            <v>-0.115</v>
+            <v>8.9999999999999993E-3</v>
           </cell>
         </row>
         <row r="13">
           <cell r="B13">
-            <v>-0.14299999999999999</v>
+            <v>-0.13900000000000001</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>0.01</v>
+            <v>4.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15">
-            <v>-8.0000000000000002E-3</v>
+            <v>-7.0000000000000001E-3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16" t="str">
-            <v>-0.0002**</v>
+            <v>-0.0002*</v>
           </cell>
         </row>
         <row r="17">
@@ -2139,12 +2236,12 @@
         </row>
         <row r="18">
           <cell r="B18" t="str">
-            <v>7.449***</v>
+            <v>7.324***</v>
           </cell>
         </row>
         <row r="19">
           <cell r="B19">
-            <v>-0.10100000000000001</v>
+            <v>-9.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="21">
@@ -2154,7 +2251,7 @@
         </row>
         <row r="22">
           <cell r="B22">
-            <v>0.04</v>
+            <v>4.3999999999999997E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2528,10 +2625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21463395-80CF-4F38-838F-D1FFAB4F2937}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,41 +2637,41 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2582,32 +2679,28 @@
         <f>+[1]Sheet1!B8</f>
         <v>0.143***</v>
       </c>
-      <c r="E7">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F7">
-        <f>+EXP(E7)-1</f>
-        <v>0.15372980166601047</v>
-      </c>
-      <c r="G7">
-        <f>+F7*100</f>
-        <v>15.372980166601046</v>
-      </c>
-      <c r="H7">
-        <v>7984.26</v>
-      </c>
-      <c r="I7">
-        <f>+G7/H7*100</f>
-        <v>0.19254107665082357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <f>+[1]Sheet1!B9</f>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="str">
+        <f>+G8</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="D8" s="30" t="str">
+        <f>+MID([1]Sheet1!B9,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+E8&amp;D8&amp;F8</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2616,13 +2709,27 @@
         <v>0.013***</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <f>+[1]Sheet1!B11</f>
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="str">
+        <f>+G10</f>
+        <v>(0.001)</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f>+MID([1]Sheet1!B11,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="str">
+        <f>+E10&amp;D10&amp;F10</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2631,13 +2738,27 @@
         <v>-0.0002***</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <f>+[1]Sheet1!B13</f>
-        <v>-2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="str">
+        <f>+G12</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="D12" s="30" t="str">
+        <f>+MID([1]Sheet1!B13,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+E12&amp;D12&amp;F12</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2646,13 +2767,27 @@
         <v>0.132***</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="5">
-        <f>+[1]Sheet1!B15</f>
-        <v>-1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="str">
+        <f>+G14</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="D14" s="30" t="str">
+        <f>+MID([1]Sheet1!B15,2,5)</f>
+        <v>0.011</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="str">
+        <f>+E14&amp;D14&amp;F14</f>
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2661,13 +2796,27 @@
         <v>0.008***</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="5">
-        <f>+[1]Sheet1!B17</f>
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="str">
+        <f>+G16</f>
+        <v>(0.001)</v>
+      </c>
+      <c r="D16" s="30" t="str">
+        <f>+MID([1]Sheet1!B17,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="str">
+        <f>+E16&amp;D16&amp;F16</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2676,13 +2825,27 @@
         <v>-0.012***</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <f>+[1]Sheet1!B19</f>
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="str">
+        <f>+G18</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="D18" s="30" t="str">
+        <f>+MID([1]Sheet1!B19,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="str">
+        <f>+E18&amp;D18&amp;F18</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2691,13 +2854,27 @@
         <v>0.054***</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="5">
-        <f>+[1]Sheet1!B21</f>
-        <v>-2E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="str">
+        <f>+G20</f>
+        <v>(0.002)</v>
+      </c>
+      <c r="D20" s="30" t="str">
+        <f>+MID([1]Sheet1!B21,2,5)</f>
+        <v>0.002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="str">
+        <f>+E20&amp;D20&amp;F20</f>
+        <v>(0.002)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2706,13 +2883,27 @@
         <v>0.165***</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
-        <f>+[1]Sheet1!B23</f>
-        <v>-1.6E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="str">
+        <f>+G22</f>
+        <v>(0.016)</v>
+      </c>
+      <c r="D22" s="30" t="str">
+        <f>+MID([1]Sheet1!B23,2,5)</f>
+        <v>0.016</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" t="str">
+        <f>+E22&amp;D22&amp;F22</f>
+        <v>(0.016)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -2721,13 +2912,27 @@
         <v>0.282***</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
-        <f>+[1]Sheet1!B25</f>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="str">
+        <f>+G24</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="D24" s="30" t="str">
+        <f>+MID([1]Sheet1!B25,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="str">
+        <f>+E24&amp;D24&amp;F24</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2736,19 +2941,33 @@
         <v>6.667***</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
-        <f>+[1]Sheet1!B27</f>
-        <v>-4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="str">
+        <f>+G26</f>
+        <v>(0.049)</v>
+      </c>
+      <c r="D26" s="30" t="str">
+        <f>+MID([1]Sheet1!B27,2,5)</f>
+        <v>0.049</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="str">
+        <f>+E26&amp;D26&amp;F26</f>
+        <v>(0.049)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="33"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2756,7 +2975,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -2764,17 +2983,17 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="32"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="B30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2787,15 +3006,18 @@
     <mergeCell ref="A30:B30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:B25" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839A8D81-4B18-435C-9BD5-ECA2C1190472}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,41 +3026,41 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2847,13 +3069,27 @@
         <v>-0.047***</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <f>+[9]Sheet1!B9</f>
-        <v>-1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="str">
+        <f>+G8</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="D8" s="30" t="str">
+        <f>+MID([9]Sheet1!B9,2,5)</f>
+        <v>0.015</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+E8&amp;D8&amp;F8</f>
+        <v>(0.015)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2862,19 +3098,33 @@
         <v>8.648***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <f>+[9]Sheet1!B11</f>
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="str">
+        <f>+G10</f>
+        <v>(0.01)</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f>+MID([9]Sheet1!B11,2,5)</f>
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="str">
+        <f>+E10&amp;D10&amp;F10</f>
+        <v>(0.01)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -2883,7 +3133,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -2892,17 +3142,17 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="32"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="B14" s="34"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2915,15 +3165,18 @@
     <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,37 +3187,42 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="28" t="s">
         <v>1</v>
       </c>
@@ -2978,7 +3236,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
@@ -2992,16 +3250,16 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3014,17 +3272,47 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>-1.2E-2</v>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="str">
+        <f>+J10</f>
+        <v>(0.012)</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3">
-        <v>-1.2E-2</v>
+      <c r="D10" s="3" t="str">
+        <f>+P10</f>
+        <v>(0.012)</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="30" t="str">
+        <f>+MID([10]Sheet1!B10,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="str">
+        <f>+H10&amp;G10&amp;I10</f>
+        <v>(0.012)</v>
+      </c>
+      <c r="M10" s="30" t="str">
+        <f>+MID([10]Sheet1!D10,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="str">
+        <f>+N10&amp;M10&amp;O10</f>
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3037,17 +3325,47 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>-3.0000000000000001E-3</v>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="str">
+        <f>+J12</f>
+        <v>(0.003)</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3">
-        <v>-3.0000000000000001E-3</v>
+      <c r="D12" s="3" t="str">
+        <f>+P12</f>
+        <v>(0.003)</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="30" t="str">
+        <f>+MID([10]Sheet1!B12,2,5)</f>
+        <v>0.003</v>
+      </c>
+      <c r="H12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="str">
+        <f>+H12&amp;G12&amp;I12</f>
+        <v>(0.003)</v>
+      </c>
+      <c r="M12" s="30" t="str">
+        <f>+MID([10]Sheet1!D12,2,5)</f>
+        <v>0.003</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="str">
+        <f>+N12&amp;M12&amp;O12</f>
+        <v>(0.003)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -3060,17 +3378,47 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>-4.0000000000000003E-5</v>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="str">
+        <f>+J14</f>
+        <v>(0.000)</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3">
-        <v>-4.0000000000000003E-5</v>
+      <c r="D14" s="3" t="str">
+        <f>+P14</f>
+        <v>(0.000)</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="30" t="str">
+        <f>+MID([10]Sheet1!B14,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="str">
+        <f>+H14&amp;G14&amp;I14</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="M14" s="30" t="str">
+        <f>+MID([10]Sheet1!D14,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="N14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" t="str">
+        <f>+N14&amp;M14&amp;O14</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3083,17 +3431,47 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>-6.0000000000000001E-3</v>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="str">
+        <f>+J16</f>
+        <v>(0.006)</v>
       </c>
       <c r="C16" s="3"/>
-      <c r="D16" s="3">
-        <v>-6.0000000000000001E-3</v>
+      <c r="D16" s="3" t="str">
+        <f>+P16</f>
+        <v>(0.006)</v>
       </c>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="30" t="str">
+        <f>+MID([10]Sheet1!B16,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="str">
+        <f>+H16&amp;G16&amp;I16</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="M16" s="30" t="str">
+        <f>+MID([10]Sheet1!D16,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="N16" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" t="str">
+        <f>+N16&amp;M16&amp;O16</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -3106,17 +3484,47 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>-1E-3</v>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="str">
+        <f>+J18</f>
+        <v>(0.001)</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>-1E-3</v>
+      <c r="D18" s="3" t="str">
+        <f>+P18</f>
+        <v>(0.001)</v>
       </c>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="30" t="str">
+        <f>+MID([10]Sheet1!B18,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="str">
+        <f>+H18&amp;G18&amp;I18</f>
+        <v>(0.001)</v>
+      </c>
+      <c r="M18" s="30" t="str">
+        <f>+MID([10]Sheet1!D18,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="N18" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" t="str">
+        <f>+N18&amp;M18&amp;O18</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -3129,17 +3537,47 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>-2.0000000000000002E-5</v>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="str">
+        <f>+J20</f>
+        <v>(0.000)</v>
       </c>
       <c r="C20" s="3"/>
-      <c r="D20" s="3">
-        <v>-2.0000000000000002E-5</v>
+      <c r="D20" s="3" t="str">
+        <f>+P20</f>
+        <v>(0.000)</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="30" t="str">
+        <f>+MID([10]Sheet1!B20,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" t="str">
+        <f>+H20&amp;G20&amp;I20</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="M20" s="30" t="str">
+        <f>+MID([10]Sheet1!D20,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" t="str">
+        <f>+N20&amp;M20&amp;O20</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -3152,17 +3590,47 @@
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>-2E-3</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="str">
+        <f>+J22</f>
+        <v>(0.002)</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>-2E-3</v>
+      <c r="D22" s="3" t="str">
+        <f>+P22</f>
+        <v>(0.002)</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="30" t="str">
+        <f>+MID([10]Sheet1!B22,2,5)</f>
+        <v>0.002</v>
+      </c>
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" t="str">
+        <f>+H22&amp;G22&amp;I22</f>
+        <v>(0.002)</v>
+      </c>
+      <c r="M22" s="30" t="str">
+        <f>+MID([10]Sheet1!D22,2,5)</f>
+        <v>0.002</v>
+      </c>
+      <c r="N22" t="s">
+        <v>115</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="str">
+        <f>+N22&amp;M22&amp;O22</f>
+        <v>(0.002)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3175,17 +3643,47 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>-1E-3</v>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="str">
+        <f>+J24</f>
+        <v>(0.001)</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>-1E-3</v>
+      <c r="D24" s="3" t="str">
+        <f>+P24</f>
+        <v>(0.001)</v>
       </c>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="30" t="str">
+        <f>+MID([10]Sheet1!B24,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="H24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="str">
+        <f>+H24&amp;G24&amp;I24</f>
+        <v>(0.001)</v>
+      </c>
+      <c r="M24" s="30" t="str">
+        <f>+MID([10]Sheet1!D24,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" t="str">
+        <f>+N24&amp;M24&amp;O24</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -3198,17 +3696,47 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="8">
-        <v>-1.2E-2</v>
+      <c r="C26" s="3" t="str">
+        <f>+K26</f>
+        <v>(0.012)</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="8">
-        <v>-1.2E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="str">
+        <f>+Q26</f>
+        <v>(0.012)</v>
+      </c>
+      <c r="H26" s="30" t="str">
+        <f>+MID([10]Sheet1!C26,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" t="str">
+        <f>+I26&amp;H26&amp;J26</f>
+        <v>(0.012)</v>
+      </c>
+      <c r="N26" s="30" t="str">
+        <f>+MID([10]Sheet1!E26,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>+O26&amp;N26&amp;P26</f>
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3225,30 +3753,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="C28" s="8">
-        <v>-6.0000000000000001E-3</v>
+      <c r="C28" s="3" t="str">
+        <f>+K28</f>
+        <v>(0.006)</v>
       </c>
       <c r="D28" s="3">
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="E28" s="8">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
+      <c r="E28" s="3" t="str">
+        <f>+Q28</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="H28" s="30" t="str">
+        <f>+MID([10]Sheet1!C28,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="I28" t="s">
+        <v>115</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="str">
+        <f>+I28&amp;H28&amp;J28</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="N28" s="30" t="str">
+        <f>+MID([10]Sheet1!E28,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="O28" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>+O28&amp;N28&amp;P28</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3262,7 +3820,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3276,32 +3834,32 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3336,16 +3894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3353,10 +3911,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3364,10 +3922,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3460,10 +4018,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3480,10 +4038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,41 +4050,41 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3535,13 +4093,27 @@
         <v>0.058***</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <f>+[3]Sheet1!B9</f>
-        <v>-4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="str">
+        <f>+G8</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="D8" s="30" t="str">
+        <f>+MID([3]Sheet1!B9,2,5)</f>
+        <v>0.004</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+E8&amp;D8&amp;F8</f>
+        <v>(0.004)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3550,13 +4122,27 @@
         <v>-0.001***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <f>+[3]Sheet1!B11</f>
-        <v>-5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="str">
+        <f>+G10</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f>+MID([3]Sheet1!B11,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="str">
+        <f>+E10&amp;D10&amp;F10</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3565,19 +4151,33 @@
         <v>7.429***</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <f>+[3]Sheet1!B13</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="str">
+        <f>+G12</f>
+        <v>(0.07)</v>
+      </c>
+      <c r="D12" s="30" t="str">
+        <f>+MID([3]Sheet1!B13,2,5)</f>
+        <v>0.07</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+E12&amp;D12&amp;F12</f>
+        <v>(0.07)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -3585,7 +4185,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3593,17 +4193,17 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="34"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3616,6 +4216,9 @@
     <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:B12" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3634,16 +4237,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3651,10 +4254,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3662,10 +4265,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3695,10 +4298,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -3720,10 +4323,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD71E75-2BDB-48CA-A7D2-F5A58344C4E1}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,34 +4336,34 @@
     <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -3768,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -3776,14 +4379,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -3793,14 +4396,28 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <f>+[5]Sheet1!B10</f>
-        <v>-1.2E-2</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="str">
+        <f>+G9</f>
+        <v>(0.012)</v>
       </c>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="30" t="str">
+        <f>+MID([5]Sheet1!B10,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="str">
+        <f>+E9&amp;D9&amp;F9</f>
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3810,14 +4427,28 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <f>+[5]Sheet1!B12</f>
-        <v>-3.0000000000000001E-3</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="str">
+        <f>+G11</f>
+        <v>(0.003)</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="30" t="str">
+        <f>+MID([5]Sheet1!B12,2,5)</f>
+        <v>0.003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="str">
+        <f>+E11&amp;D11&amp;F11</f>
+        <v>(0.003)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -3827,14 +4458,28 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="5">
-        <f>+[5]Sheet1!B14</f>
-        <v>-4.0000000000000003E-5</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="str">
+        <f>+G13</f>
+        <v>(0.000)</v>
       </c>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="30" t="str">
+        <f>+MID([5]Sheet1!B14,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="str">
+        <f>+E13&amp;D13&amp;F13</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -3844,14 +4489,28 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="5">
-        <f>+[5]Sheet1!B16</f>
-        <v>-6.0000000000000001E-3</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="str">
+        <f>+G15</f>
+        <v>(0.006)</v>
       </c>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="30" t="str">
+        <f>+MID([5]Sheet1!B16,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="str">
+        <f>+E15&amp;D15&amp;F15</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3861,14 +4520,28 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="5">
-        <f>+[5]Sheet1!B18</f>
-        <v>-1E-3</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="str">
+        <f>+G17</f>
+        <v>(0.001)</v>
       </c>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="30" t="str">
+        <f>+MID([5]Sheet1!B18,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="str">
+        <f>+E17&amp;D17&amp;F17</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3878,14 +4551,28 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5">
-        <f>+[5]Sheet1!B20</f>
-        <v>-2.0000000000000002E-5</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="str">
+        <f>+G19</f>
+        <v>(0.000)</v>
       </c>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="30" t="str">
+        <f>+MID([5]Sheet1!B20,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="str">
+        <f>+E19&amp;D19&amp;F19</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -3895,14 +4582,28 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5">
-        <f>+[5]Sheet1!B22</f>
-        <v>-2E-3</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="str">
+        <f>+G21</f>
+        <v>(0.002)</v>
       </c>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="30" t="str">
+        <f>+MID([5]Sheet1!B22,2,5)</f>
+        <v>0.002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="str">
+        <f>+E21&amp;D21&amp;F21</f>
+        <v>(0.002)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3912,14 +4613,28 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
-        <f>+[5]Sheet1!B24</f>
-        <v>-1E-3</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="str">
+        <f>+G23</f>
+        <v>(0.001)</v>
       </c>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="30" t="str">
+        <f>+MID([5]Sheet1!B24,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="str">
+        <f>+E23&amp;D23&amp;F23</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3929,14 +4644,28 @@
         <v>-0.122***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="5">
-        <f>+[5]Sheet1!C26</f>
-        <v>-1.2E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="str">
+        <f>+H25</f>
+        <v>(0.012)</v>
+      </c>
+      <c r="E25" s="30" t="str">
+        <f>+MID([5]Sheet1!C26,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="str">
+        <f>+F25&amp;E25&amp;G25</f>
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -3949,24 +4678,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <f>+[5]Sheet1!B28</f>
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="C27" s="5">
-        <f>+[5]Sheet1!C28</f>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="C27" s="5" t="str">
+        <f>+H27</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="E27" s="30" t="str">
+        <f>+MID([5]Sheet1!C28,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="str">
+        <f>+F27&amp;E27&amp;G27</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -3979,7 +4722,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -3992,19 +4735,19 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4018,6 +4761,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B6:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A10:C29" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4037,16 +4781,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="33"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4054,10 +4798,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="34"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4065,10 +4809,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4125,10 +4869,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4145,10 +4889,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C32"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4158,34 +4902,34 @@
     <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-    </row>
-    <row r="3" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="34"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="36"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -4193,7 +4937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
@@ -4201,14 +4945,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -4218,14 +4962,28 @@
       </c>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
-        <f>+[7]Sheet1!B10</f>
-        <v>-1.2E-2</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="str">
+        <f>+G9</f>
+        <v>(0.012)</v>
       </c>
       <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="30" t="str">
+        <f>+MID([7]Sheet1!B10,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="str">
+        <f>+E9&amp;D9&amp;F9</f>
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4235,14 +4993,28 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
-        <f>+[7]Sheet1!B12</f>
-        <v>-3.0000000000000001E-3</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="str">
+        <f>+G11</f>
+        <v>(0.003)</v>
       </c>
       <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="30" t="str">
+        <f>+MID([7]Sheet1!B12,2,5)</f>
+        <v>0.003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="str">
+        <f>+E11&amp;D11&amp;F11</f>
+        <v>(0.003)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -4252,14 +5024,28 @@
       </c>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <f>+[7]Sheet1!B14</f>
-        <v>-4.0000000000000003E-5</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="str">
+        <f>+G13</f>
+        <v>(0.000)</v>
       </c>
       <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="30" t="str">
+        <f>+MID([7]Sheet1!B14,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="str">
+        <f>+E13&amp;D13&amp;F13</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -4269,14 +5055,28 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <f>+[7]Sheet1!B16</f>
-        <v>-6.0000000000000001E-3</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="str">
+        <f>+G15</f>
+        <v>(0.006)</v>
       </c>
       <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="30" t="str">
+        <f>+MID([7]Sheet1!B16,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" t="str">
+        <f>+E15&amp;D15&amp;F15</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4286,14 +5086,28 @@
       </c>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <f>+[7]Sheet1!B18</f>
-        <v>-1E-3</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="str">
+        <f>+G17</f>
+        <v>(0.001)</v>
       </c>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="30" t="str">
+        <f>+MID([7]Sheet1!B18,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" t="str">
+        <f>+E17&amp;D17&amp;F17</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4303,14 +5117,28 @@
       </c>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <f>+[7]Sheet1!B20</f>
-        <v>-2.0000000000000002E-5</v>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="str">
+        <f>+G19</f>
+        <v>(0.000)</v>
       </c>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="30" t="str">
+        <f>+MID([7]Sheet1!B20,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" t="str">
+        <f>+E19&amp;D19&amp;F19</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -4320,14 +5148,28 @@
       </c>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <f>+[7]Sheet1!B22</f>
-        <v>-2E-3</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="str">
+        <f>+G21</f>
+        <v>(0.002)</v>
       </c>
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="30" t="str">
+        <f>+MID([7]Sheet1!B22,2,5)</f>
+        <v>0.002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" t="str">
+        <f>+E21&amp;D21&amp;F21</f>
+        <v>(0.002)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4337,14 +5179,28 @@
       </c>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
-        <f>+[7]Sheet1!B24</f>
-        <v>-1E-3</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="str">
+        <f>+G23</f>
+        <v>(0.001)</v>
       </c>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="30" t="str">
+        <f>+MID([7]Sheet1!B24,2,5)</f>
+        <v>0.001</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G23" t="str">
+        <f>+E23&amp;D23&amp;F23</f>
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -4354,14 +5210,28 @@
         <v>-0.136***</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
-      <c r="C25" s="8">
-        <f>+[7]Sheet1!C26</f>
-        <v>-1.2E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="8" t="str">
+        <f>+H25</f>
+        <v>(0.012)</v>
+      </c>
+      <c r="E25" s="30" t="str">
+        <f>+MID([5]Sheet1!C26,2,5)</f>
+        <v>0.012</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" t="str">
+        <f>+F25&amp;E25&amp;G25</f>
+        <v>(0.012)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -4374,24 +5244,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <f>+[7]Sheet1!B28</f>
         <v>-7.0999999999999994E-2</v>
       </c>
-      <c r="C27" s="8">
-        <f>+[7]Sheet1!C28</f>
-        <v>-6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="C27" s="8" t="str">
+        <f>+H27</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="E27" s="30" t="str">
+        <f>+MID([5]Sheet1!C28,2,5)</f>
+        <v>0.006</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" t="str">
+        <f>+F27&amp;E27&amp;G27</f>
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -4404,7 +5288,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -4417,19 +5301,19 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4443,16 +5327,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B6:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="B10:D27" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4461,56 +5346,70 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="35"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>+[8]Sheet1!B8</f>
-        <v>0.056***</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
-        <f>+[8]Sheet1!B9</f>
-        <v>-5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.062***</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="str">
+        <f>+G8</f>
+        <v>(0.005)</v>
+      </c>
+      <c r="D8" s="30" t="str">
+        <f>+MID([8]Sheet1!B9,2,5)</f>
+        <v>0.005</v>
+      </c>
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+E8&amp;D8&amp;F8</f>
+        <v>(0.005)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -4519,79 +5418,149 @@
         <v>-0.001***</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <f>+[8]Sheet1!B11</f>
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="str">
+        <f>+G10</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="D10" s="30" t="str">
+        <f>+MID([8]Sheet1!B11,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="str">
+        <f>+E10&amp;D10&amp;F10</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="8">
         <f>+[8]Sheet1!B12</f>
-        <v>-0.115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <f>+[8]Sheet1!B13</f>
-        <v>-0.14299999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="str">
+        <f>+G12</f>
+        <v>(0.139)</v>
+      </c>
+      <c r="D12" s="30" t="str">
+        <f>+MID([8]Sheet1!B13,2,5)</f>
+        <v>0.139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+E12&amp;D12&amp;F12</f>
+        <v>(0.139)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="8">
         <f>+[8]Sheet1!B14</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <f>+[8]Sheet1!B15</f>
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="str">
+        <f>+G14</f>
+        <v>(0.007)</v>
+      </c>
+      <c r="D14" s="30" t="str">
+        <f>+MID([8]Sheet1!B15,2,5)</f>
+        <v>0.007</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="str">
+        <f>+E14&amp;D14&amp;F14</f>
+        <v>(0.007)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>+[8]Sheet1!B16</f>
-        <v>-0.0002**</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <f>+[8]Sheet1!B17</f>
-        <v>-1E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-0.0002*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="str">
+        <f>+G16</f>
+        <v>(0.000)</v>
+      </c>
+      <c r="D16" s="30" t="str">
+        <f>+MID([8]Sheet1!B17,2,5)</f>
+        <v>0.000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" t="str">
+        <f>+E16&amp;D16&amp;F16</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>+[8]Sheet1!B18</f>
-        <v>7.449***</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <f>+[8]Sheet1!B19</f>
-        <v>-0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+        <v>7.324***</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="str">
+        <f>+G18</f>
+        <v>(0.095)</v>
+      </c>
+      <c r="D18" s="30" t="str">
+        <f>+MID([8]Sheet1!B19,2,5)</f>
+        <v>0.095</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" t="str">
+        <f>+E18&amp;D18&amp;F18</f>
+        <v>(0.095)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="35"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="37"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -4600,26 +5569,26 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="8">
         <f>+[8]Sheet1!B22</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B22"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4630,6 +5599,9 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:B17" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4647,24 +5619,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -4687,14 +5659,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -4817,32 +5789,32 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -4943,23 +5915,23 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -5013,16 +5985,16 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+      <c r="A30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25DB6F0-98DB-4D15-835A-AD6B57939CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0256FECF-79D4-4D6E-8FA7-6E85B2033F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
-    <sheet name="T1" sheetId="2" r:id="rId2"/>
-    <sheet name="Reg2" sheetId="1" r:id="rId3"/>
-    <sheet name="T2" sheetId="4" r:id="rId4"/>
-    <sheet name="Reg3" sheetId="6" r:id="rId5"/>
-    <sheet name="T3" sheetId="8" r:id="rId6"/>
-    <sheet name="Reg4" sheetId="10" r:id="rId7"/>
-    <sheet name="Reg5" sheetId="7" r:id="rId8"/>
-    <sheet name="Tablas Stat" sheetId="9" r:id="rId9"/>
-    <sheet name="Reg6" sheetId="11" r:id="rId10"/>
-    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="13" r:id="rId2"/>
+    <sheet name="T1" sheetId="2" r:id="rId3"/>
+    <sheet name="Reg2" sheetId="1" r:id="rId4"/>
+    <sheet name="T2" sheetId="4" r:id="rId5"/>
+    <sheet name="Reg3" sheetId="6" r:id="rId6"/>
+    <sheet name="T3" sheetId="8" r:id="rId7"/>
+    <sheet name="Reg4" sheetId="10" r:id="rId8"/>
+    <sheet name="Reg5" sheetId="7" r:id="rId9"/>
+    <sheet name="Tablas Stat" sheetId="9" r:id="rId10"/>
+    <sheet name="Reg6" sheetId="11" r:id="rId11"/>
+    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
@@ -36,8 +36,10 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="135">
   <si>
     <t>============================================</t>
   </si>
@@ -185,9 +187,6 @@
     <t>Estadisticas Descriptivas Variables Seleccionadas</t>
   </si>
   <si>
-    <t>Statistic</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -263,9 +262,6 @@
     <t>Nivel Educativo Medio</t>
   </si>
   <si>
-    <t>Tamaño Empresas</t>
-  </si>
-  <si>
     <t>18-25</t>
   </si>
   <si>
@@ -417,18 +413,79 @@
   </si>
   <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>Lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>Miércoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>Viernes</t>
+  </si>
+  <si>
+    <t>Sábado</t>
+  </si>
+  <si>
+    <t>Ingreso Monetario 1</t>
+  </si>
+  <si>
+    <t>Ingreso Monetario 2</t>
+  </si>
+  <si>
+    <t>Rem. Adicionales en Especie</t>
+  </si>
+  <si>
+    <t>Rem. Adicionales Monetarias</t>
+  </si>
+  <si>
+    <t>Salario por Hora</t>
+  </si>
+  <si>
+    <t>Ingreso Laboral Mensual</t>
+  </si>
+  <si>
+    <t>Ingreso Laboral por Hora</t>
+  </si>
+  <si>
+    <t>=======================================================================================</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>--------------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>Estadisticas Descriptivas Variables de Ingreso</t>
+  </si>
+  <si>
+    <t>Ingresos</t>
+  </si>
+  <si>
+    <t>Tamaño Empresas Predominante</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +511,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,9 +625,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -591,6 +651,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,6 +675,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2625,10 +2697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21463395-80CF-4F38-838F-D1FFAB4F2937}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,41 +2709,41 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35"/>
+    </row>
+    <row r="3" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2680,27 +2752,27 @@
         <v>0.143***</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>+G8</f>
         <v>(0.006)</v>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="29" t="str">
         <f>+MID([1]Sheet1!B9,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
         <v>(0.006)</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2709,27 +2781,39 @@
         <v>0.013***</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="str">
         <f>+G10</f>
         <v>(0.001)</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="29" t="str">
         <f>+MID([1]Sheet1!B11,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
         <v>(0.001)</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2737,28 +2821,52 @@
         <f>+[1]Sheet1!B12</f>
         <v>-0.0002***</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="str">
         <f>+G12</f>
         <v>(0.000)</v>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="29" t="str">
         <f>+MID([1]Sheet1!B13,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
         <v>(0.000)</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2766,28 +2874,52 @@
         <f>+[1]Sheet1!B14</f>
         <v>0.132***</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="str">
         <f>+G14</f>
         <v>(0.011)</v>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>+MID([1]Sheet1!B15,2,5)</f>
         <v>0.011</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="str">
         <f>+E14&amp;D14&amp;F14</f>
         <v>(0.011)</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2795,21 +2927,33 @@
         <f>+[1]Sheet1!B16</f>
         <v>0.008***</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="str">
         <f>+G16</f>
         <v>(0.001)</v>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="29" t="str">
         <f>+MID([1]Sheet1!B17,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" t="str">
         <f>+E16&amp;D16&amp;F16</f>
@@ -2830,15 +2974,15 @@
         <f>+G18</f>
         <v>(0.000)</v>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="29" t="str">
         <f>+MID([1]Sheet1!B19,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" t="str">
         <f>+E18&amp;D18&amp;F18</f>
@@ -2859,15 +3003,15 @@
         <f>+G20</f>
         <v>(0.002)</v>
       </c>
-      <c r="D20" s="30" t="str">
+      <c r="D20" s="29" t="str">
         <f>+MID([1]Sheet1!B21,2,5)</f>
         <v>0.002</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" t="str">
         <f>+E20&amp;D20&amp;F20</f>
@@ -2888,15 +3032,15 @@
         <f>+G22</f>
         <v>(0.016)</v>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="29" t="str">
         <f>+MID([1]Sheet1!B23,2,5)</f>
         <v>0.016</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G22" t="str">
         <f>+E22&amp;D22&amp;F22</f>
@@ -2917,15 +3061,15 @@
         <f>+G24</f>
         <v>(0.006)</v>
       </c>
-      <c r="D24" s="30" t="str">
+      <c r="D24" s="29" t="str">
         <f>+MID([1]Sheet1!B25,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" t="str">
         <f>+E24&amp;D24&amp;F24</f>
@@ -2946,15 +3090,15 @@
         <f>+G26</f>
         <v>(0.049)</v>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="29" t="str">
         <f>+MID([1]Sheet1!B27,2,5)</f>
         <v>0.049</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G26" t="str">
         <f>+E26&amp;D26&amp;F26</f>
@@ -2962,10 +3106,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="36"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2984,16 +3128,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3005,6 +3149,7 @@
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B9:B25" formula="1"/>
@@ -3013,6 +3158,936 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0026F-8BC2-4ACC-8A10-6EEA70149009}">
+  <dimension ref="A2:N38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="H3" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="4">
+        <v>9785</v>
+      </c>
+      <c r="C6" s="3">
+        <v>49.942999999999998</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.7080000000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>72</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="19">
+        <v>9785</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1566234</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2158107</v>
+      </c>
+      <c r="L6" s="19">
+        <v>10000</v>
+      </c>
+      <c r="M6" s="19">
+        <v>34000000</v>
+      </c>
+      <c r="N6">
+        <f>+K6/J6</f>
+        <v>1.3778956401150786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>9785</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="19">
+        <v>9785</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1739064</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2314670</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>40000000</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N14" si="0">+K7/J7</f>
+        <v>1.3309860936687781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>9785</v>
+      </c>
+      <c r="C8" s="3">
+        <v>36.438000000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>11.936999999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
+        <v>86</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I8" s="19">
+        <v>9771</v>
+      </c>
+      <c r="J8" s="19">
+        <v>16861.5</v>
+      </c>
+      <c r="K8" s="19">
+        <v>216344.8</v>
+      </c>
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
+        <v>10000000</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>12.830697150312842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9785</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20.193000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>15.813000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>65</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="19">
+        <v>9785</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1884787</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2519838</v>
+      </c>
+      <c r="L9" s="19">
+        <v>40000</v>
+      </c>
+      <c r="M9" s="19">
+        <v>41333333</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1.3369351550069053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9785</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.4390000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2.8719999999999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="19">
+        <v>9740</v>
+      </c>
+      <c r="J10" s="19">
+        <v>85637.7</v>
+      </c>
+      <c r="K10" s="19">
+        <v>163287.79999999999</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>6300000</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1.9067279947966842</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>9785</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.5129999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="19">
+        <v>9767</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1139646</v>
+      </c>
+      <c r="K11" s="19">
+        <v>3285939</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19">
+        <v>130000000</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2.8832979714753528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="31">
+        <v>9785</v>
+      </c>
+      <c r="J12" s="31">
+        <v>7984.3</v>
+      </c>
+      <c r="K12" s="31">
+        <v>11629.4</v>
+      </c>
+      <c r="L12" s="31">
+        <v>151.9</v>
+      </c>
+      <c r="M12" s="31">
+        <v>291666.7</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1.4565334468895206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="31">
+        <v>9785</v>
+      </c>
+      <c r="J13" s="31">
+        <v>1757077</v>
+      </c>
+      <c r="K13" s="31">
+        <v>2413729</v>
+      </c>
+      <c r="L13" s="31">
+        <v>30000</v>
+      </c>
+      <c r="M13" s="31">
+        <v>60100000</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1.3737183970878908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="31">
+        <v>9785</v>
+      </c>
+      <c r="J14" s="31">
+        <v>8868.2000000000007</v>
+      </c>
+      <c r="K14" s="31">
+        <v>12917.1</v>
+      </c>
+      <c r="L14" s="31">
+        <v>326.7</v>
+      </c>
+      <c r="M14" s="31">
+        <v>350583.3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>1.4565639024830292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.19053439999999999</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.18761849999999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.2011559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.6648645000000002</v>
+      </c>
+      <c r="C18" s="5">
+        <v>3.7936697000000001</v>
+      </c>
+      <c r="D18" s="5">
+        <v>3.9705585999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.6223208</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.7076298000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.7615902000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="5">
+        <v>19.405860000000001</v>
+      </c>
+      <c r="C20" s="5">
+        <v>20.626216400000001</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20.950764800000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4.8064391999999998</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4.9981816999999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5.0749202999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="23">
+        <v>70.309981100000002</v>
+      </c>
+      <c r="C22" s="23">
+        <v>68.686683799999997</v>
+      </c>
+      <c r="D22" s="23">
+        <v>68.041010299999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="17">
+        <v>8178.3837007790617</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1651645.12892057</v>
+      </c>
+      <c r="D27" s="17">
+        <v>9042.8825719145789</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1845881.765029914</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18">
+        <v>7788.7467482753646</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1480209.2137435901</v>
+      </c>
+      <c r="D28" s="18">
+        <v>8692.2894246356664</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1667633.6329799681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+    </row>
+    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="17">
+        <v>5020.2669999999998</v>
+      </c>
+      <c r="C33" s="17">
+        <v>969589.4</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1146842</v>
+      </c>
+      <c r="E33" s="20">
+        <v>6</v>
+      </c>
+      <c r="F33" s="20">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>9</v>
+      </c>
+      <c r="H33" s="4">
+        <v>2056</v>
+      </c>
+      <c r="I33" s="44">
+        <f>+AVERAGE(18,25)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="19">
+        <v>6975.5259999999998</v>
+      </c>
+      <c r="C34" s="19">
+        <v>1368351</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1605467</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <v>9</v>
+      </c>
+      <c r="H34" s="4">
+        <v>1738</v>
+      </c>
+      <c r="I34" s="44">
+        <f>+AVERAGE(26,35)</f>
+        <v>30.5</v>
+      </c>
+      <c r="J34" s="29">
+        <f>+I34/I33*100-100</f>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="K34">
+        <f>+B34/B33*100-100</f>
+        <v>38.947310969715346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="19">
+        <v>8772.84</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1743375.7</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2076154</v>
+      </c>
+      <c r="E35" s="4">
+        <v>6</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2694</v>
+      </c>
+      <c r="I35" s="44">
+        <f>+AVERAGE(36,45)</f>
+        <v>40.5</v>
+      </c>
+      <c r="J35" s="29">
+        <f t="shared" ref="J35:J38" si="1">+I35/I34*100-100</f>
+        <v>32.78688524590163</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K38" si="2">+B35/B34*100-100</f>
+        <v>25.765999581967009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="19">
+        <v>9575.7459999999992</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1904861.9</v>
+      </c>
+      <c r="D36" s="19">
+        <v>2271153</v>
+      </c>
+      <c r="E36" s="4">
+        <v>6</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>9</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1785</v>
+      </c>
+      <c r="I36" s="44">
+        <f>+AVERAGE(46,55)</f>
+        <v>50.5</v>
+      </c>
+      <c r="J36" s="29">
+        <f t="shared" si="1"/>
+        <v>24.691358024691354</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>9.1521787699308135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="19">
+        <v>9742.3430000000008</v>
+      </c>
+      <c r="C37" s="19">
+        <v>1891623.7</v>
+      </c>
+      <c r="D37" s="19">
+        <v>2328023</v>
+      </c>
+      <c r="E37" s="4">
+        <v>6</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1190</v>
+      </c>
+      <c r="I37" s="44">
+        <f>+AVERAGE(56,65)</f>
+        <v>60.5</v>
+      </c>
+      <c r="J37" s="29">
+        <f t="shared" si="1"/>
+        <v>19.801980198019791</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>1.7397809006212412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="18">
+        <v>10437.092000000001</v>
+      </c>
+      <c r="C38" s="18">
+        <v>1882181.9</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2723351</v>
+      </c>
+      <c r="E38" s="21">
+        <v>5</v>
+      </c>
+      <c r="F38" s="21">
+        <v>2</v>
+      </c>
+      <c r="G38" s="21">
+        <v>9</v>
+      </c>
+      <c r="H38" s="21">
+        <v>322</v>
+      </c>
+      <c r="I38" s="44">
+        <f>+AVERAGE(66,90)</f>
+        <v>78</v>
+      </c>
+      <c r="J38" s="29">
+        <f t="shared" si="1"/>
+        <v>28.925619834710744</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>7.1312311627705895</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839A8D81-4B18-435C-9BD5-ECA2C1190472}">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -3026,28 +4101,28 @@
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="33"/>
+    <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3055,10 +4130,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3074,15 +4149,15 @@
         <f>+G8</f>
         <v>(0.015)</v>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="29" t="str">
         <f>+MID([9]Sheet1!B9,2,5)</f>
         <v>0.015</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -3103,15 +4178,15 @@
         <f>+G10</f>
         <v>(0.01)</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="29" t="str">
         <f>+MID([9]Sheet1!B11,2,5)</f>
         <v>0.01</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
@@ -3119,10 +4194,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3137,22 +4212,22 @@
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <f>+[9]Sheet1!B14</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3171,12 +4246,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3187,53 +4262,53 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+    <row r="1" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>83</v>
+      <c r="E6" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -3244,31 +4319,31 @@
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="A8" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3283,29 +4358,29 @@
         <v>(0.012)</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="29" t="str">
         <f>+MID([10]Sheet1!B10,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J10" t="str">
         <f>+H10&amp;G10&amp;I10</f>
         <v>(0.012)</v>
       </c>
-      <c r="M10" s="30" t="str">
+      <c r="M10" s="29" t="str">
         <f>+MID([10]Sheet1!D10,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P10" t="str">
         <f>+N10&amp;M10&amp;O10</f>
@@ -3317,11 +4392,11 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3336,29 +4411,29 @@
         <v>(0.003)</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="29" t="str">
         <f>+MID([10]Sheet1!B12,2,5)</f>
         <v>0.003</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J12" t="str">
         <f>+H12&amp;G12&amp;I12</f>
         <v>(0.003)</v>
       </c>
-      <c r="M12" s="30" t="str">
+      <c r="M12" s="29" t="str">
         <f>+MID([10]Sheet1!D12,2,5)</f>
         <v>0.003</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P12" t="str">
         <f>+N12&amp;M12&amp;O12</f>
@@ -3367,14 +4442,14 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3389,29 +4464,29 @@
         <v>(0.000)</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="30" t="str">
+      <c r="G14" s="29" t="str">
         <f>+MID([10]Sheet1!B14,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J14" t="str">
         <f>+H14&amp;G14&amp;I14</f>
         <v>(0.000)</v>
       </c>
-      <c r="M14" s="30" t="str">
+      <c r="M14" s="29" t="str">
         <f>+MID([10]Sheet1!D14,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P14" t="str">
         <f>+N14&amp;M14&amp;O14</f>
@@ -3423,11 +4498,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -3442,29 +4517,29 @@
         <v>(0.006)</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="G16" s="30" t="str">
+      <c r="G16" s="29" t="str">
         <f>+MID([10]Sheet1!B16,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="H16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J16" t="str">
         <f>+H16&amp;G16&amp;I16</f>
         <v>(0.006)</v>
       </c>
-      <c r="M16" s="30" t="str">
+      <c r="M16" s="29" t="str">
         <f>+MID([10]Sheet1!D16,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P16" t="str">
         <f>+N16&amp;M16&amp;O16</f>
@@ -3473,14 +4548,14 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -3495,29 +4570,29 @@
         <v>(0.001)</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="G18" s="30" t="str">
+      <c r="G18" s="29" t="str">
         <f>+MID([10]Sheet1!B18,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J18" t="str">
         <f>+H18&amp;G18&amp;I18</f>
         <v>(0.001)</v>
       </c>
-      <c r="M18" s="30" t="str">
+      <c r="M18" s="29" t="str">
         <f>+MID([10]Sheet1!D18,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P18" t="str">
         <f>+N18&amp;M18&amp;O18</f>
@@ -3526,14 +4601,14 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -3548,29 +4623,29 @@
         <v>(0.000)</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="G20" s="30" t="str">
+      <c r="G20" s="29" t="str">
         <f>+MID([10]Sheet1!B20,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J20" t="str">
         <f>+H20&amp;G20&amp;I20</f>
         <v>(0.000)</v>
       </c>
-      <c r="M20" s="30" t="str">
+      <c r="M20" s="29" t="str">
         <f>+MID([10]Sheet1!D20,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P20" t="str">
         <f>+N20&amp;M20&amp;O20</f>
@@ -3579,14 +4654,14 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -3601,29 +4676,29 @@
         <v>(0.002)</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="29" t="str">
         <f>+MID([10]Sheet1!B22,2,5)</f>
         <v>0.002</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J22" t="str">
         <f>+H22&amp;G22&amp;I22</f>
         <v>(0.002)</v>
       </c>
-      <c r="M22" s="30" t="str">
+      <c r="M22" s="29" t="str">
         <f>+MID([10]Sheet1!D22,2,5)</f>
         <v>0.002</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P22" t="str">
         <f>+N22&amp;M22&amp;O22</f>
@@ -3632,14 +4707,14 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -3654,29 +4729,29 @@
         <v>(0.001)</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="G24" s="30" t="str">
+      <c r="G24" s="29" t="str">
         <f>+MID([10]Sheet1!B24,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J24" t="str">
         <f>+H24&amp;G24&amp;I24</f>
         <v>(0.001)</v>
       </c>
-      <c r="M24" s="30" t="str">
+      <c r="M24" s="29" t="str">
         <f>+MID([10]Sheet1!D24,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P24" t="str">
         <f>+N24&amp;M24&amp;O24</f>
@@ -3689,11 +4764,11 @@
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -3707,29 +4782,29 @@
         <f>+Q26</f>
         <v>(0.012)</v>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="29" t="str">
         <f>+MID([10]Sheet1!C26,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K26" t="str">
         <f>+I26&amp;H26&amp;J26</f>
         <v>(0.012)</v>
       </c>
-      <c r="N26" s="30" t="str">
+      <c r="N26" s="29" t="str">
         <f>+MID([10]Sheet1!E26,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="O26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q26" t="str">
         <f>+O26&amp;N26&amp;P26</f>
@@ -3738,16 +4813,16 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C27" s="8">
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="8">
         <v>0</v>
@@ -3768,29 +4843,29 @@
         <f>+Q28</f>
         <v>(0.006)</v>
       </c>
-      <c r="H28" s="30" t="str">
+      <c r="H28" s="29" t="str">
         <f>+MID([10]Sheet1!C28,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K28" t="str">
         <f>+I28&amp;H28&amp;J28</f>
         <v>(0.006)</v>
       </c>
-      <c r="N28" s="30" t="str">
+      <c r="N28" s="29" t="str">
         <f>+MID([10]Sheet1!E28,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Q28" t="str">
         <f>+O28&amp;N28&amp;P28</f>
@@ -3798,26 +4873,26 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="A29" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="28">
         <v>9785</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>9785</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
@@ -3831,35 +4906,35 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="A32" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="A33" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="A34" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3880,6 +4955,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828A8A4-068C-40D4-A35D-6FBD9EB14B85}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360CECD0-C3BE-4ED3-B371-95639DB06682}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -3894,16 +4981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3911,10 +4998,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3922,10 +5009,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4018,10 +5105,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4036,7 +5123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -4051,16 +5138,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4068,10 +5155,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4079,10 +5166,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4098,15 +5185,15 @@
         <f>+G8</f>
         <v>(0.004)</v>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="29" t="str">
         <f>+MID([3]Sheet1!B9,2,5)</f>
         <v>0.004</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -4127,15 +5214,15 @@
         <f>+G10</f>
         <v>(0.000)</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="29" t="str">
         <f>+MID([3]Sheet1!B11,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
@@ -4156,15 +5243,15 @@
         <f>+G12</f>
         <v>(0.07)</v>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="29" t="str">
         <f>+MID([3]Sheet1!B13,2,5)</f>
         <v>0.07</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
@@ -4172,10 +5259,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4194,16 +5281,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="35"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4222,7 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B39C86-2D9C-4DAE-85C9-1B691C1D08E3}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -4237,16 +5324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4254,10 +5341,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4265,10 +5352,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4298,10 +5385,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -4321,7 +5408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD71E75-2BDB-48CA-A7D2-F5A58344C4E1}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -4337,31 +5424,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4402,15 +5489,15 @@
         <v>(0.012)</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="29" t="str">
         <f>+MID([5]Sheet1!B10,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" t="str">
         <f>+E9&amp;D9&amp;F9</f>
@@ -4433,15 +5520,15 @@
         <v>(0.003)</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="29" t="str">
         <f>+MID([5]Sheet1!B12,2,5)</f>
         <v>0.003</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" t="str">
         <f>+E11&amp;D11&amp;F11</f>
@@ -4464,15 +5551,15 @@
         <v>(0.000)</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="29" t="str">
         <f>+MID([5]Sheet1!B14,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" t="str">
         <f>+E13&amp;D13&amp;F13</f>
@@ -4495,15 +5582,15 @@
         <v>(0.006)</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="29" t="str">
         <f>+MID([5]Sheet1!B16,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" t="str">
         <f>+E15&amp;D15&amp;F15</f>
@@ -4526,15 +5613,15 @@
         <v>(0.001)</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="29" t="str">
         <f>+MID([5]Sheet1!B18,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" t="str">
         <f>+E17&amp;D17&amp;F17</f>
@@ -4557,15 +5644,15 @@
         <v>(0.000)</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="29" t="str">
         <f>+MID([5]Sheet1!B20,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" t="str">
         <f>+E19&amp;D19&amp;F19</f>
@@ -4588,15 +5675,15 @@
         <v>(0.002)</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="29" t="str">
         <f>+MID([5]Sheet1!B22,2,5)</f>
         <v>0.002</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" t="str">
         <f>+E21&amp;D21&amp;F21</f>
@@ -4619,15 +5706,15 @@
         <v>(0.001)</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="29" t="str">
         <f>+MID([5]Sheet1!B24,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23" t="str">
         <f>+E23&amp;D23&amp;F23</f>
@@ -4650,15 +5737,15 @@
         <f>+H25</f>
         <v>(0.012)</v>
       </c>
-      <c r="E25" s="30" t="str">
+      <c r="E25" s="29" t="str">
         <f>+MID([5]Sheet1!C26,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
@@ -4687,15 +5774,15 @@
         <f>+H27</f>
         <v>(0.006)</v>
       </c>
-      <c r="E27" s="30" t="str">
+      <c r="E27" s="29" t="str">
         <f>+MID([5]Sheet1!C28,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
@@ -4703,11 +5790,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4726,11 +5813,11 @@
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <f>+[5]Sheet1!B31</f>
         <v>0.36099999999999999</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f>+[5]Sheet1!C31</f>
         <v>1.0999999999999999E-2</v>
       </c>
@@ -4743,11 +5830,11 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4766,7 +5853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E742D563-C828-467C-B6A5-B75ED254EEE6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -4781,16 +5868,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4798,10 +5885,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4809,10 +5896,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="35"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4869,10 +5956,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4887,7 +5974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -4903,31 +5990,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="37"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4968,15 +6055,15 @@
         <v>(0.012)</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="30" t="str">
+      <c r="D9" s="29" t="str">
         <f>+MID([7]Sheet1!B10,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" t="str">
         <f>+E9&amp;D9&amp;F9</f>
@@ -4999,15 +6086,15 @@
         <v>(0.003)</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="29" t="str">
         <f>+MID([7]Sheet1!B12,2,5)</f>
         <v>0.003</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G11" t="str">
         <f>+E11&amp;D11&amp;F11</f>
@@ -5030,15 +6117,15 @@
         <v>(0.000)</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="30" t="str">
+      <c r="D13" s="29" t="str">
         <f>+MID([7]Sheet1!B14,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G13" t="str">
         <f>+E13&amp;D13&amp;F13</f>
@@ -5061,15 +6148,15 @@
         <v>(0.006)</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="30" t="str">
+      <c r="D15" s="29" t="str">
         <f>+MID([7]Sheet1!B16,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" t="str">
         <f>+E15&amp;D15&amp;F15</f>
@@ -5092,15 +6179,15 @@
         <v>(0.001)</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="30" t="str">
+      <c r="D17" s="29" t="str">
         <f>+MID([7]Sheet1!B18,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" t="str">
         <f>+E17&amp;D17&amp;F17</f>
@@ -5123,15 +6210,15 @@
         <v>(0.000)</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="29" t="str">
         <f>+MID([7]Sheet1!B20,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G19" t="str">
         <f>+E19&amp;D19&amp;F19</f>
@@ -5154,15 +6241,15 @@
         <v>(0.002)</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="29" t="str">
         <f>+MID([7]Sheet1!B22,2,5)</f>
         <v>0.002</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" t="str">
         <f>+E21&amp;D21&amp;F21</f>
@@ -5185,15 +6272,15 @@
         <v>(0.001)</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="29" t="str">
         <f>+MID([7]Sheet1!B24,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G23" t="str">
         <f>+E23&amp;D23&amp;F23</f>
@@ -5216,15 +6303,15 @@
         <f>+H25</f>
         <v>(0.012)</v>
       </c>
-      <c r="E25" s="30" t="str">
+      <c r="E25" s="29" t="str">
         <f>+MID([5]Sheet1!C26,2,5)</f>
         <v>0.012</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
@@ -5253,15 +6340,15 @@
         <f>+H27</f>
         <v>(0.006)</v>
       </c>
-      <c r="E27" s="30" t="str">
+      <c r="E27" s="29" t="str">
         <f>+MID([5]Sheet1!C28,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
@@ -5269,11 +6356,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -5292,11 +6379,11 @@
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <f>+[7]Sheet1!B31</f>
         <v>0.372</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f>+[7]Sheet1!C31</f>
         <v>1.2999999999999999E-2</v>
       </c>
@@ -5309,11 +6396,11 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5332,7 +6419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -5347,16 +6434,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -5364,10 +6451,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5394,15 +6481,15 @@
         <f>+G8</f>
         <v>(0.005)</v>
       </c>
-      <c r="D8" s="30" t="str">
+      <c r="D8" s="29" t="str">
         <f>+MID([8]Sheet1!B9,2,5)</f>
         <v>0.005</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -5423,15 +6510,15 @@
         <f>+G10</f>
         <v>(0.000)</v>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="29" t="str">
         <f>+MID([8]Sheet1!B11,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
@@ -5452,15 +6539,15 @@
         <f>+G12</f>
         <v>(0.139)</v>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="29" t="str">
         <f>+MID([8]Sheet1!B13,2,5)</f>
         <v>0.139</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
@@ -5481,15 +6568,15 @@
         <f>+G14</f>
         <v>(0.007)</v>
       </c>
-      <c r="D14" s="30" t="str">
+      <c r="D14" s="29" t="str">
         <f>+MID([8]Sheet1!B15,2,5)</f>
         <v>0.007</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G14" t="str">
         <f>+E14&amp;D14&amp;F14</f>
@@ -5510,15 +6597,15 @@
         <f>+G16</f>
         <v>(0.000)</v>
       </c>
-      <c r="D16" s="30" t="str">
+      <c r="D16" s="29" t="str">
         <f>+MID([8]Sheet1!B17,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G16" t="str">
         <f>+E16&amp;D16&amp;F16</f>
@@ -5539,15 +6626,15 @@
         <f>+G18</f>
         <v>(0.095)</v>
       </c>
-      <c r="D18" s="30" t="str">
+      <c r="D18" s="29" t="str">
         <f>+MID([8]Sheet1!B19,2,5)</f>
         <v>0.095</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G18" t="str">
         <f>+E18&amp;D18&amp;F18</f>
@@ -5555,10 +6642,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -5585,10 +6672,10 @@
       <c r="B22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5603,604 +6690,4 @@
     <ignoredError sqref="B9:B17" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0026F-8BC2-4ACC-8A10-6EEA70149009}">
-  <dimension ref="A2:H38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="4">
-        <v>9785</v>
-      </c>
-      <c r="C6" s="3">
-        <v>49.942999999999998</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.7080000000000002</v>
-      </c>
-      <c r="E6" s="3">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
-        <v>9785</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5.1360000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>9785</v>
-      </c>
-      <c r="C8" s="3">
-        <v>36.438000000000002</v>
-      </c>
-      <c r="D8" s="3">
-        <v>11.936999999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4">
-        <v>9785</v>
-      </c>
-      <c r="C9" s="3">
-        <v>20.193000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15.813000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9785</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.4390000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2.8719999999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4">
-        <v>9785</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2.5129999999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.19053439999999999</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0.18761849999999999</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.2011559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3.6648645000000002</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3.7936697000000001</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3.9705585999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1.6223208</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1.7076298000000001</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1.7615902000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="5">
-        <v>19.405860000000001</v>
-      </c>
-      <c r="C20" s="5">
-        <v>20.626216400000001</v>
-      </c>
-      <c r="D20" s="5">
-        <v>20.950764800000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4.8064391999999998</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.9981816999999999</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5.0749202999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="24">
-        <v>70.309981100000002</v>
-      </c>
-      <c r="C22" s="24">
-        <v>68.686683799999997</v>
-      </c>
-      <c r="D22" s="24">
-        <v>68.041010299999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="17">
-        <v>8178.3837007790617</v>
-      </c>
-      <c r="C27" s="17">
-        <v>1651645.12892057</v>
-      </c>
-      <c r="D27" s="17">
-        <v>9042.8825719145789</v>
-      </c>
-      <c r="E27" s="17">
-        <v>1845881.765029914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="18">
-        <v>7788.7467482753646</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1480209.2137435901</v>
-      </c>
-      <c r="D28" s="18">
-        <v>8692.2894246356664</v>
-      </c>
-      <c r="E28" s="18">
-        <v>1667633.6329799681</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="17">
-        <v>5020.2669999999998</v>
-      </c>
-      <c r="C33" s="17">
-        <v>969589.4</v>
-      </c>
-      <c r="D33" s="17">
-        <v>1146842</v>
-      </c>
-      <c r="E33" s="20">
-        <v>6</v>
-      </c>
-      <c r="F33" s="20">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>9</v>
-      </c>
-      <c r="H33" s="4">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="19">
-        <v>6975.5259999999998</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1368351</v>
-      </c>
-      <c r="D34" s="19">
-        <v>1605467</v>
-      </c>
-      <c r="E34" s="4">
-        <v>6</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4">
-        <v>9</v>
-      </c>
-      <c r="H34" s="4">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="19">
-        <v>8772.84</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1743375.7</v>
-      </c>
-      <c r="D35" s="19">
-        <v>2076154</v>
-      </c>
-      <c r="E35" s="4">
-        <v>6</v>
-      </c>
-      <c r="F35" s="4">
-        <v>2</v>
-      </c>
-      <c r="G35" s="4">
-        <v>9</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2694</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="19">
-        <v>9575.7459999999992</v>
-      </c>
-      <c r="C36" s="19">
-        <v>1904861.9</v>
-      </c>
-      <c r="D36" s="19">
-        <v>2271153</v>
-      </c>
-      <c r="E36" s="4">
-        <v>6</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>9</v>
-      </c>
-      <c r="H36" s="4">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="19">
-        <v>9742.3430000000008</v>
-      </c>
-      <c r="C37" s="19">
-        <v>1891623.7</v>
-      </c>
-      <c r="D37" s="19">
-        <v>2328023</v>
-      </c>
-      <c r="E37" s="4">
-        <v>6</v>
-      </c>
-      <c r="F37" s="4">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4">
-        <v>9</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="18">
-        <v>10437.092000000001</v>
-      </c>
-      <c r="C38" s="18">
-        <v>1882181.9</v>
-      </c>
-      <c r="D38" s="18">
-        <v>2723351</v>
-      </c>
-      <c r="E38" s="22">
-        <v>5</v>
-      </c>
-      <c r="F38" s="22">
-        <v>2</v>
-      </c>
-      <c r="G38" s="22">
-        <v>9</v>
-      </c>
-      <c r="H38" s="22">
-        <v>322</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A14:D14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0256FECF-79D4-4D6E-8FA7-6E85B2033F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5E222-B2A8-4BF7-8DF1-E9119F62B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="Reg2" sheetId="1" r:id="rId4"/>
     <sheet name="T2" sheetId="4" r:id="rId5"/>
     <sheet name="Reg3" sheetId="6" r:id="rId6"/>
-    <sheet name="T3" sheetId="8" r:id="rId7"/>
-    <sheet name="Reg4" sheetId="10" r:id="rId8"/>
-    <sheet name="Reg5" sheetId="7" r:id="rId9"/>
-    <sheet name="Tablas Stat" sheetId="9" r:id="rId10"/>
-    <sheet name="Reg6" sheetId="11" r:id="rId11"/>
-    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId12"/>
+    <sheet name="T3" sheetId="14" r:id="rId7"/>
+    <sheet name="T4" sheetId="8" r:id="rId8"/>
+    <sheet name="Reg4" sheetId="10" r:id="rId9"/>
+    <sheet name="Reg5" sheetId="7" r:id="rId10"/>
+    <sheet name="Tablas Stat" sheetId="9" r:id="rId11"/>
+    <sheet name="Reg6" sheetId="11" r:id="rId12"/>
+    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
@@ -37,9 +37,9 @@
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="138">
   <si>
     <t>============================================</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Rango de Edad</t>
   </si>
   <si>
-    <t>Numero de Individuos</t>
-  </si>
-  <si>
     <t>Nivel Educativo Medio</t>
   </si>
   <si>
@@ -473,6 +470,18 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>% de Individuos</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>log(w_hora)</t>
+  </si>
+  <si>
+    <t>---------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,6 +666,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -689,9 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1716,88 +1752,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="10">
-          <cell r="B10">
-            <v>-1.2E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>-1.2E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-          <cell r="D12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>-4.0000000000000003E-5</v>
-          </cell>
-          <cell r="D14">
-            <v>-4.0000000000000003E-5</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-          <cell r="D16">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="D18">
-            <v>-1E-3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-2.0000000000000002E-5</v>
-          </cell>
-          <cell r="D20">
-            <v>-2.0000000000000002E-5</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>-2E-3</v>
-          </cell>
-          <cell r="D22">
-            <v>-2E-3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>-1E-3</v>
-          </cell>
-          <cell r="D24">
-            <v>-1E-3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>-1.2E-2</v>
-          </cell>
-          <cell r="E26">
-            <v>-1.2E-2</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-          <cell r="E28">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1874,38 +1829,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>0.058***</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>-4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>-0.001***</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>-5.0000000000000002E-5</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>7.429***</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>-7.0000000000000007E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1950,17 +1874,17 @@
       <sheetData sheetId="0">
         <row r="9">
           <cell r="B9" t="str">
-            <v>-0.122***</v>
+            <v>-0.139***</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>-1.2E-2</v>
+            <v>-1.0999999999999999E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.046***</v>
+            <v>0.041***</v>
           </cell>
         </row>
         <row r="12">
@@ -1975,12 +1899,12 @@
         </row>
         <row r="14">
           <cell r="B14">
-            <v>-4.0000000000000003E-5</v>
+            <v>-3.0000000000000001E-5</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>0.238***</v>
+            <v>0.140***</v>
           </cell>
         </row>
         <row r="16">
@@ -1990,7 +1914,7 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.016***</v>
+            <v>0.012***</v>
           </cell>
         </row>
         <row r="18">
@@ -2010,7 +1934,7 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>0.063***</v>
+            <v>0.053***</v>
           </cell>
         </row>
         <row r="22">
@@ -2025,49 +1949,61 @@
         </row>
         <row r="24">
           <cell r="B24">
-            <v>-1E-3</v>
+            <v>-5.0000000000000001E-4</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="C25" t="str">
-            <v>-0.122***</v>
+          <cell r="B25" t="str">
+            <v>0.150***</v>
           </cell>
         </row>
         <row r="26">
-          <cell r="C26">
-            <v>-1.2E-2</v>
+          <cell r="B26">
+            <v>-1.6E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>6.186***</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
+            <v>0.284***</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>-7.1999999999999995E-2</v>
-          </cell>
-          <cell r="C28">
             <v>-6.0000000000000001E-3</v>
           </cell>
         </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>-0.139***</v>
+          </cell>
+        </row>
         <row r="30">
-          <cell r="B30">
+          <cell r="C30">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>-6.5000000000000002E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
             <v>9785</v>
           </cell>
-          <cell r="C30">
+          <cell r="C34">
             <v>9785</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0.36099999999999999</v>
-          </cell>
-          <cell r="C31">
-            <v>1.0999999999999999E-2</v>
+        <row r="35">
+          <cell r="B35">
+            <v>0.49199999999999999</v>
+          </cell>
+          <cell r="C35">
+            <v>1.7000000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2086,32 +2022,57 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2">
-            <v>2150.3969999999999</v>
+            <v>660.12599999999998</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>7.1999999999999995E-2</v>
+            <v>-0.16300000000000001</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>-1E-3</v>
+            <v>5.2999999999999999E-2</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>-0.13600000000000001</v>
+            <v>-1E-3</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>1.2999999999999999E-2</v>
+            <v>0.189</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
             <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>6.8000000000000005E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>-1.6E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>0.20300000000000001</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>0.41099999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -2130,17 +2091,17 @@
       <sheetData sheetId="0">
         <row r="9">
           <cell r="B9" t="str">
-            <v>-0.136***</v>
+            <v>-0.142***</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>-1.2E-2</v>
+            <v>-1.0999999999999999E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
-            <v>0.050***</v>
+            <v>0.042***</v>
           </cell>
         </row>
         <row r="12">
@@ -2150,17 +2111,17 @@
         </row>
         <row r="13">
           <cell r="B13" t="str">
-            <v>-0.0005***</v>
+            <v>-0.0004***</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>-4.0000000000000003E-5</v>
+            <v>-3.0000000000000001E-5</v>
           </cell>
         </row>
         <row r="15">
           <cell r="B15" t="str">
-            <v>0.247***</v>
+            <v>0.147***</v>
           </cell>
         </row>
         <row r="16">
@@ -2170,7 +2131,7 @@
         </row>
         <row r="17">
           <cell r="B17" t="str">
-            <v>0.016***</v>
+            <v>0.012***</v>
           </cell>
         </row>
         <row r="18">
@@ -2190,7 +2151,7 @@
         </row>
         <row r="21">
           <cell r="B21" t="str">
-            <v>0.063***</v>
+            <v>0.053***</v>
           </cell>
         </row>
         <row r="22">
@@ -2205,41 +2166,69 @@
         </row>
         <row r="24">
           <cell r="B24">
-            <v>-1E-3</v>
+            <v>-5.0000000000000001E-4</v>
           </cell>
         </row>
         <row r="25">
-          <cell r="C25" t="str">
-            <v>-0.136***</v>
+          <cell r="B25" t="str">
+            <v>0.151***</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>-1.6E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="B27" t="str">
-            <v>6.139***</v>
-          </cell>
-          <cell r="C27">
-            <v>0</v>
+            <v>0.277***</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>-7.0999999999999994E-2</v>
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>-0.142***</v>
           </cell>
         </row>
         <row r="30">
-          <cell r="B30">
+          <cell r="C30">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>6.277***</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>-6.5000000000000002E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
             <v>9785</v>
           </cell>
-          <cell r="C30">
+          <cell r="C34">
             <v>9785</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0.372</v>
-          </cell>
-          <cell r="C31">
-            <v>1.2999999999999999E-2</v>
+        <row r="35">
+          <cell r="B35">
+            <v>0.49299999999999999</v>
+          </cell>
+          <cell r="C35">
+            <v>1.7999999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2255,78 +2244,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>0.062***</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>-5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>-0.001***</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>-1E-4</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>8.9999999999999993E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>-0.13900000000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>4.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>-7.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>-0.0002*</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>-1E-4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>7.324***</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>-9.5000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>9785</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2339,38 +2257,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>-0.047***</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>-1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>8.648***</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>-0.01</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>9785</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>1E-3</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2699,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21463395-80CF-4F38-838F-D1FFAB4F2937}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:N15"/>
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2710,16 +2597,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2727,10 +2614,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2738,10 +2625,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2762,10 +2649,10 @@
         <v>0.006</v>
       </c>
       <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -2791,17 +2678,17 @@
         <v>0.001</v>
       </c>
       <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
         <v>113</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
         <v>(0.001)</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -2822,7 +2709,7 @@
         <v>-0.0002***</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -2844,17 +2731,17 @@
         <v>0.000</v>
       </c>
       <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
         <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
         <v>(0.000)</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -2875,7 +2762,7 @@
         <v>0.132***</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -2897,17 +2784,17 @@
         <v>0.011</v>
       </c>
       <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
         <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
       </c>
       <c r="G14" t="str">
         <f>+E14&amp;D14&amp;F14</f>
         <v>(0.011)</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -2928,7 +2815,7 @@
         <v>0.008***</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15">
         <v>8</v>
@@ -2950,10 +2837,10 @@
         <v>0.001</v>
       </c>
       <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
         <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
       </c>
       <c r="G16" t="str">
         <f>+E16&amp;D16&amp;F16</f>
@@ -2979,10 +2866,10 @@
         <v>0.000</v>
       </c>
       <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
         <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
       </c>
       <c r="G18" t="str">
         <f>+E18&amp;D18&amp;F18</f>
@@ -3008,10 +2895,10 @@
         <v>0.002</v>
       </c>
       <c r="E20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" t="s">
-        <v>114</v>
       </c>
       <c r="G20" t="str">
         <f>+E20&amp;D20&amp;F20</f>
@@ -3037,10 +2924,10 @@
         <v>0.016</v>
       </c>
       <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" t="s">
-        <v>114</v>
       </c>
       <c r="G22" t="str">
         <f>+E22&amp;D22&amp;F22</f>
@@ -3066,10 +2953,10 @@
         <v>0.006</v>
       </c>
       <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" t="s">
         <v>113</v>
-      </c>
-      <c r="F24" t="s">
-        <v>114</v>
       </c>
       <c r="G24" t="str">
         <f>+E24&amp;D24&amp;F24</f>
@@ -3095,10 +2982,10 @@
         <v>0.049</v>
       </c>
       <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
         <v>113</v>
-      </c>
-      <c r="F26" t="s">
-        <v>114</v>
       </c>
       <c r="G26" t="str">
         <f>+E26&amp;D26&amp;F26</f>
@@ -3106,10 +2993,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="46"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3124,20 +3011,20 @@
         <v>17</v>
       </c>
       <c r="B29" s="3">
-        <v>0.47899999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="45"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3158,11 +3045,284 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8">
+        <f>+[8]Sheet1!B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="str">
+        <f>+G8</f>
+        <v>()</v>
+      </c>
+      <c r="D8" s="29" t="str">
+        <f>+MID([8]Sheet1!B9,2,5)</f>
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="str">
+        <f>+E8&amp;D8&amp;F8</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8">
+        <f>+[8]Sheet1!B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="str">
+        <f>+G10</f>
+        <v>()</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f>+MID([8]Sheet1!B11,2,5)</f>
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="str">
+        <f>+E10&amp;D10&amp;F10</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="8">
+        <f>+[8]Sheet1!B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="str">
+        <f>+G12</f>
+        <v>()</v>
+      </c>
+      <c r="D12" s="29" t="str">
+        <f>+MID([8]Sheet1!B13,2,5)</f>
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="str">
+        <f>+E12&amp;D12&amp;F12</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <f>+[8]Sheet1!B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="str">
+        <f>+G14</f>
+        <v>()</v>
+      </c>
+      <c r="D14" s="29" t="str">
+        <f>+MID([8]Sheet1!B15,2,5)</f>
+        <v/>
+      </c>
+      <c r="E14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="str">
+        <f>+E14&amp;D14&amp;F14</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="8">
+        <f>+[8]Sheet1!B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="str">
+        <f>+G16</f>
+        <v>()</v>
+      </c>
+      <c r="D16" s="29" t="str">
+        <f>+MID([8]Sheet1!B17,2,5)</f>
+        <v/>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="str">
+        <f>+E16&amp;D16&amp;F16</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <f>+[8]Sheet1!B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="str">
+        <f>+G18</f>
+        <v>()</v>
+      </c>
+      <c r="D18" s="29" t="str">
+        <f>+MID([8]Sheet1!B19,2,5)</f>
+        <v/>
+      </c>
+      <c r="E18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="str">
+        <f>+E18&amp;D18&amp;F18</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="48"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <f>+[8]Sheet1!B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8">
+        <f>+[8]Sheet1!B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B9:B17" formula="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0026F-8BC2-4ACC-8A10-6EEA70149009}">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +3330,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -3180,44 +3340,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="H2" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="H3" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="H3" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>39</v>
@@ -3235,7 +3395,7 @@
         <v>44</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>39</v>
@@ -3254,22 +3414,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="H5" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="H5" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3279,13 +3439,13 @@
         <v>9785</v>
       </c>
       <c r="C6" s="3">
-        <v>49.942999999999998</v>
+        <v>47.988999999999997</v>
       </c>
       <c r="D6" s="3">
-        <v>9.7080000000000002</v>
+        <v>10.928000000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
@@ -3321,19 +3481,19 @@
         <v>9785</v>
       </c>
       <c r="C7" s="3">
-        <v>5.1360000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.0089999999999999</v>
+        <v>6.0979999999999999</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1.1100000000000001</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I7" s="19">
         <v>9785</v>
@@ -3375,7 +3535,7 @@
         <v>86</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="19">
         <v>9771</v>
@@ -3405,16 +3565,16 @@
         <v>9785</v>
       </c>
       <c r="C9" s="3">
-        <v>20.193000000000001</v>
+        <v>20.248999999999999</v>
       </c>
       <c r="D9" s="3">
-        <v>15.813000000000001</v>
+        <v>15.904</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>49</v>
@@ -3459,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="19">
         <v>9740</v>
@@ -3501,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" s="19">
         <v>9767</v>
@@ -3524,16 +3684,16 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
       <c r="H12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I12" s="31">
         <v>9785</v>
@@ -3557,7 +3717,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="31">
         <v>9785</v>
@@ -3580,14 +3740,14 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I14" s="31">
         <v>9785</v>
@@ -3610,22 +3770,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="H15" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
+      <c r="H15" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -3657,7 +3817,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5">
         <v>3.6648645000000002</v>
@@ -3671,7 +3831,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5">
         <v>1.6223208</v>
@@ -3685,7 +3845,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="5">
         <v>19.405860000000001</v>
@@ -3699,7 +3859,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5">
         <v>4.8064391999999998</v>
@@ -3713,7 +3873,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="23">
         <v>70.309981100000002</v>
@@ -3726,22 +3886,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
+      <c r="A24" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3760,6 +3920,9 @@
       <c r="E26" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="F26" s="35" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
@@ -3777,6 +3940,9 @@
       <c r="E27" s="17">
         <v>1845881.765029914</v>
       </c>
+      <c r="F27" s="36">
+        <v>4910</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
@@ -3794,30 +3960,33 @@
       <c r="E28" s="18">
         <v>1667633.6329799681</v>
       </c>
+      <c r="F28" s="37">
+        <v>4875</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
+      <c r="A30" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="A31" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
@@ -3833,21 +4002,21 @@
         <v>49</v>
       </c>
       <c r="E32" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="B33" s="17">
         <v>5020.2669999999998</v>
@@ -3867,17 +4036,14 @@
       <c r="G33" s="4">
         <v>9</v>
       </c>
-      <c r="H33" s="4">
-        <v>2056</v>
-      </c>
-      <c r="I33" s="44">
-        <f>+AVERAGE(18,25)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H33" s="19">
+        <v>22.1</v>
+      </c>
+      <c r="I33" s="33"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="19">
         <v>6975.5259999999998</v>
@@ -3897,25 +4063,15 @@
       <c r="G34" s="4">
         <v>9</v>
       </c>
-      <c r="H34" s="4">
-        <v>1738</v>
-      </c>
-      <c r="I34" s="44">
-        <f>+AVERAGE(26,35)</f>
-        <v>30.5</v>
-      </c>
-      <c r="J34" s="29">
-        <f>+I34/I33*100-100</f>
-        <v>41.860465116279073</v>
-      </c>
-      <c r="K34">
-        <f>+B34/B33*100-100</f>
-        <v>38.947310969715346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H34" s="19">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="19">
         <v>8772.84</v>
@@ -3935,25 +4091,15 @@
       <c r="G35" s="4">
         <v>9</v>
       </c>
-      <c r="H35" s="4">
-        <v>2694</v>
-      </c>
-      <c r="I35" s="44">
-        <f>+AVERAGE(36,45)</f>
-        <v>40.5</v>
-      </c>
-      <c r="J35" s="29">
-        <f t="shared" ref="J35:J38" si="1">+I35/I34*100-100</f>
-        <v>32.78688524590163</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ref="K35:K38" si="2">+B35/B34*100-100</f>
-        <v>25.765999581967009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H35" s="19">
+        <v>27.2</v>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="19">
         <v>9575.7459999999992</v>
@@ -3973,25 +4119,15 @@
       <c r="G36" s="4">
         <v>9</v>
       </c>
-      <c r="H36" s="4">
-        <v>1785</v>
-      </c>
-      <c r="I36" s="44">
-        <f>+AVERAGE(46,55)</f>
-        <v>50.5</v>
-      </c>
-      <c r="J36" s="29">
-        <f t="shared" si="1"/>
-        <v>24.691358024691354</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="2"/>
-        <v>9.1521787699308135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H36" s="19">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="19">
         <v>9742.3430000000008</v>
@@ -4011,25 +4147,15 @@
       <c r="G37" s="4">
         <v>9</v>
       </c>
-      <c r="H37" s="4">
-        <v>1190</v>
-      </c>
-      <c r="I37" s="44">
-        <f>+AVERAGE(56,65)</f>
-        <v>60.5</v>
-      </c>
-      <c r="J37" s="29">
-        <f t="shared" si="1"/>
-        <v>19.801980198019791</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="2"/>
-        <v>1.7397809006212412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H37" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" s="18">
         <v>10437.092000000001</v>
@@ -4049,24 +4175,14 @@
       <c r="G38" s="21">
         <v>9</v>
       </c>
-      <c r="H38" s="21">
-        <v>322</v>
-      </c>
-      <c r="I38" s="44">
-        <f>+AVERAGE(66,90)</f>
-        <v>78</v>
-      </c>
-      <c r="J38" s="29">
-        <f t="shared" si="1"/>
-        <v>28.925619834710744</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="2"/>
-        <v>7.1312311627705895</v>
-      </c>
+      <c r="H38" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A31:H31"/>
     <mergeCell ref="A30:H30"/>
     <mergeCell ref="A24:E24"/>
@@ -4080,19 +4196,18 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839A8D81-4B18-435C-9BD5-ECA2C1190472}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4102,102 +4217,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="5">
         <f>+[9]Sheet1!B8</f>
-        <v>-0.047***</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>+G8</f>
-        <v>(0.015)</v>
+        <v>()</v>
       </c>
       <c r="D8" s="29" t="str">
         <f>+MID([9]Sheet1!B9,2,5)</f>
-        <v>0.015</v>
+        <v/>
       </c>
       <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
-        <v>(0.015)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="5">
         <f>+[9]Sheet1!B10</f>
-        <v>8.648***</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="str">
         <f>+G10</f>
-        <v>(0.01)</v>
+        <v>()</v>
       </c>
       <c r="D10" s="29" t="str">
         <f>+MID([9]Sheet1!B11,2,5)</f>
-        <v>0.01</v>
+        <v/>
       </c>
       <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
         <v>113</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
-        <v>(0.01)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4205,7 +4320,7 @@
       </c>
       <c r="B12" s="4">
         <f>+[9]Sheet1!B13</f>
-        <v>9785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -4214,20 +4329,20 @@
       </c>
       <c r="B13" s="22">
         <f>+[9]Sheet1!B14</f>
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4246,12 +4361,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4379,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -4273,42 +4388,42 @@
       <c r="Q1" s="30"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="A3" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4319,72 +4434,72 @@
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="A8" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>+J10</f>
-        <v>(0.012)</v>
+        <v>()</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="str">
         <f>+P10</f>
-        <v>(0.012)</v>
+        <v>()</v>
       </c>
       <c r="E10" s="3"/>
       <c r="G10" s="29" t="str">
         <f>+MID([10]Sheet1!B10,2,5)</f>
-        <v>0.012</v>
+        <v/>
       </c>
       <c r="H10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" t="s">
         <v>113</v>
-      </c>
-      <c r="I10" t="s">
-        <v>114</v>
       </c>
       <c r="J10" t="str">
         <f>+H10&amp;G10&amp;I10</f>
-        <v>(0.012)</v>
+        <v>()</v>
       </c>
       <c r="M10" s="29" t="str">
         <f>+MID([10]Sheet1!D10,2,5)</f>
-        <v>0.012</v>
+        <v/>
       </c>
       <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
         <v>113</v>
-      </c>
-      <c r="O10" t="s">
-        <v>114</v>
       </c>
       <c r="P10" t="str">
         <f>+N10&amp;M10&amp;O10</f>
-        <v>(0.012)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -4392,105 +4507,105 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>+J12</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="str">
         <f>+P12</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
       <c r="E12" s="3"/>
       <c r="G12" s="29" t="str">
         <f>+MID([10]Sheet1!B12,2,5)</f>
-        <v>0.003</v>
+        <v/>
       </c>
       <c r="H12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" t="s">
         <v>113</v>
-      </c>
-      <c r="I12" t="s">
-        <v>114</v>
       </c>
       <c r="J12" t="str">
         <f>+H12&amp;G12&amp;I12</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
       <c r="M12" s="29" t="str">
         <f>+MID([10]Sheet1!D12,2,5)</f>
-        <v>0.003</v>
+        <v/>
       </c>
       <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
         <v>113</v>
-      </c>
-      <c r="O12" t="s">
-        <v>114</v>
       </c>
       <c r="P12" t="str">
         <f>+N12&amp;M12&amp;O12</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="str">
         <f>+J14</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="str">
         <f>+P14</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="E14" s="3"/>
       <c r="G14" s="29" t="str">
         <f>+MID([10]Sheet1!B14,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="H14" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" t="s">
         <v>113</v>
-      </c>
-      <c r="I14" t="s">
-        <v>114</v>
       </c>
       <c r="J14" t="str">
         <f>+H14&amp;G14&amp;I14</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="M14" s="29" t="str">
         <f>+MID([10]Sheet1!D14,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="N14" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" t="s">
         <v>113</v>
-      </c>
-      <c r="O14" t="s">
-        <v>114</v>
       </c>
       <c r="P14" t="str">
         <f>+N14&amp;M14&amp;O14</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -4498,211 +4613,211 @@
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>+J16</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="str">
         <f>+P16</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="E16" s="3"/>
       <c r="G16" s="29" t="str">
         <f>+MID([10]Sheet1!B16,2,5)</f>
-        <v>0.006</v>
+        <v/>
       </c>
       <c r="H16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I16" t="s">
         <v>113</v>
-      </c>
-      <c r="I16" t="s">
-        <v>114</v>
       </c>
       <c r="J16" t="str">
         <f>+H16&amp;G16&amp;I16</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="M16" s="29" t="str">
         <f>+MID([10]Sheet1!D16,2,5)</f>
-        <v>0.006</v>
+        <v/>
       </c>
       <c r="N16" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" t="s">
         <v>113</v>
-      </c>
-      <c r="O16" t="s">
-        <v>114</v>
       </c>
       <c r="P16" t="str">
         <f>+N16&amp;M16&amp;O16</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>+J18</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="str">
         <f>+P18</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="E18" s="3"/>
       <c r="G18" s="29" t="str">
         <f>+MID([10]Sheet1!B18,2,5)</f>
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
         <v>113</v>
-      </c>
-      <c r="I18" t="s">
-        <v>114</v>
       </c>
       <c r="J18" t="str">
         <f>+H18&amp;G18&amp;I18</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="M18" s="29" t="str">
         <f>+MID([10]Sheet1!D18,2,5)</f>
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="N18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O18" t="s">
         <v>113</v>
-      </c>
-      <c r="O18" t="s">
-        <v>114</v>
       </c>
       <c r="P18" t="str">
         <f>+N18&amp;M18&amp;O18</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>+J20</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="str">
         <f>+P20</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="E20" s="3"/>
       <c r="G20" s="29" t="str">
         <f>+MID([10]Sheet1!B20,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="H20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I20" t="s">
         <v>113</v>
-      </c>
-      <c r="I20" t="s">
-        <v>114</v>
       </c>
       <c r="J20" t="str">
         <f>+H20&amp;G20&amp;I20</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="M20" s="29" t="str">
         <f>+MID([10]Sheet1!D20,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="N20" t="s">
+        <v>112</v>
+      </c>
+      <c r="O20" t="s">
         <v>113</v>
-      </c>
-      <c r="O20" t="s">
-        <v>114</v>
       </c>
       <c r="P20" t="str">
         <f>+N20&amp;M20&amp;O20</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>+J22</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="str">
         <f>+P22</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="29" t="str">
         <f>+MID([10]Sheet1!B22,2,5)</f>
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="H22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" t="s">
         <v>113</v>
-      </c>
-      <c r="I22" t="s">
-        <v>114</v>
       </c>
       <c r="J22" t="str">
         <f>+H22&amp;G22&amp;I22</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
       <c r="M22" s="29" t="str">
         <f>+MID([10]Sheet1!D22,2,5)</f>
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="N22" t="s">
+        <v>112</v>
+      </c>
+      <c r="O22" t="s">
         <v>113</v>
-      </c>
-      <c r="O22" t="s">
-        <v>114</v>
       </c>
       <c r="P22" t="str">
         <f>+N22&amp;M22&amp;O22</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -4710,242 +4825,348 @@
         <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>+J24</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="str">
         <f>+P24</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="29" t="str">
         <f>+MID([10]Sheet1!B24,2,5)</f>
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="H24" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" t="s">
         <v>113</v>
-      </c>
-      <c r="I24" t="s">
-        <v>114</v>
       </c>
       <c r="J24" t="str">
         <f>+H24&amp;G24&amp;I24</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="M24" s="29" t="str">
         <f>+MID([10]Sheet1!D24,2,5)</f>
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="N24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O24" t="s">
         <v>113</v>
-      </c>
-      <c r="O24" t="s">
-        <v>114</v>
       </c>
       <c r="P24" t="str">
         <f>+N24&amp;M24&amp;O24</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="8" t="s">
-        <v>85</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="str">
-        <f>+K26</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="str">
-        <f>+Q26</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="H26" s="29" t="str">
-        <f>+MID([10]Sheet1!C26,2,5)</f>
-        <v>0.012</v>
+      <c r="B26" s="3" t="str">
+        <f>+J26</f>
+        <v>()</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="str">
+        <f>+P26</f>
+        <v>()</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="G26" s="29" t="str">
+        <f>+MID([10]Sheet1!B26,2,5)</f>
+        <v/>
+      </c>
+      <c r="H26" t="s">
+        <v>112</v>
       </c>
       <c r="I26" t="s">
         <v>113</v>
       </c>
-      <c r="J26" t="s">
-        <v>114</v>
-      </c>
-      <c r="K26" t="str">
-        <f>+I26&amp;H26&amp;J26</f>
-        <v>(0.012)</v>
-      </c>
-      <c r="N26" s="29" t="str">
-        <f>+MID([10]Sheet1!E26,2,5)</f>
-        <v>0.012</v>
+      <c r="J26" t="str">
+        <f>+H26&amp;G26&amp;I26</f>
+        <v>()</v>
+      </c>
+      <c r="M26" s="29" t="str">
+        <f>+MID([10]Sheet1!D26,2,5)</f>
+        <v/>
+      </c>
+      <c r="N26" t="s">
+        <v>112</v>
       </c>
       <c r="O26" t="s">
         <v>113</v>
       </c>
-      <c r="P26" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" t="str">
-        <f>+O26&amp;N26&amp;P26</f>
-        <v>(0.012)</v>
+      <c r="P26" t="str">
+        <f>+N26&amp;M26&amp;O26</f>
+        <v>()</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="C28" s="3" t="str">
-        <f>+K28</f>
-        <v>(0.006)</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="E28" s="3" t="str">
-        <f>+Q28</f>
-        <v>(0.006)</v>
-      </c>
-      <c r="H28" s="29" t="str">
-        <f>+MID([10]Sheet1!C28,2,5)</f>
-        <v>0.006</v>
+      <c r="B28" s="3" t="str">
+        <f>+J28</f>
+        <v>()</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="str">
+        <f>+P28</f>
+        <v>()</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="G28" s="29" t="str">
+        <f>+MID([10]Sheet1!B28,2,5)</f>
+        <v/>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
       </c>
       <c r="I28" t="s">
         <v>113</v>
       </c>
-      <c r="J28" t="s">
-        <v>114</v>
-      </c>
-      <c r="K28" t="str">
-        <f>+I28&amp;H28&amp;J28</f>
-        <v>(0.006)</v>
-      </c>
-      <c r="N28" s="29" t="str">
-        <f>+MID([10]Sheet1!E28,2,5)</f>
-        <v>0.006</v>
+      <c r="J28" t="str">
+        <f>+H28&amp;G28&amp;I28</f>
+        <v>()</v>
+      </c>
+      <c r="M28" s="29" t="str">
+        <f>+MID([10]Sheet1!D28,2,5)</f>
+        <v/>
+      </c>
+      <c r="N28" t="s">
+        <v>112</v>
       </c>
       <c r="O28" t="s">
         <v>113</v>
       </c>
-      <c r="P28" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q28" t="str">
-        <f>+O28&amp;N28&amp;P28</f>
-        <v>(0.006)</v>
+      <c r="P28" t="str">
+        <f>+N28&amp;M28&amp;O28</f>
+        <v>()</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="str">
+        <f>+K30</f>
+        <v>()</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="str">
+        <f>+Q30</f>
+        <v>()</v>
+      </c>
+      <c r="H30" s="29" t="str">
+        <f>+MID([10]Sheet1!C26,2,5)</f>
+        <v/>
+      </c>
+      <c r="I30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J30" t="s">
+        <v>113</v>
+      </c>
+      <c r="K30" t="str">
+        <f>+I30&amp;H30&amp;J30</f>
+        <v>()</v>
+      </c>
+      <c r="N30" s="29" t="str">
+        <f>+MID([10]Sheet1!E26,2,5)</f>
+        <v/>
+      </c>
+      <c r="O30" t="s">
+        <v>112</v>
+      </c>
+      <c r="P30" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>+O30&amp;N30&amp;P30</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f>+K32</f>
+        <v>()</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f>+Q32</f>
+        <v>()</v>
+      </c>
+      <c r="H32" s="29" t="str">
+        <f>+MID([10]Sheet1!C28,2,5)</f>
+        <v/>
+      </c>
+      <c r="I32" t="s">
+        <v>112</v>
+      </c>
+      <c r="J32" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" t="str">
+        <f>+I32&amp;H32&amp;J32</f>
+        <v>()</v>
+      </c>
+      <c r="N32" s="29" t="str">
+        <f>+MID([10]Sheet1!E28,2,5)</f>
+        <v/>
+      </c>
+      <c r="O32" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>+O32&amp;N32&amp;P32</f>
+        <v>()</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="28">
+        <v>9785</v>
+      </c>
+      <c r="C34" s="28">
+        <v>9785</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C35">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="28">
-        <v>9785</v>
-      </c>
-      <c r="C30" s="28">
-        <v>9785</v>
-      </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C31">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -4981,16 +5202,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -4998,10 +5219,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5009,10 +5230,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5105,10 +5326,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="36"/>
+      <c r="B17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5128,7 +5349,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,131 +5359,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="5">
         <f>+[3]Sheet1!B8</f>
-        <v>0.058***</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="str">
         <f>+G8</f>
-        <v>(0.004)</v>
+        <v>()</v>
       </c>
       <c r="D8" s="29" t="str">
         <f>+MID([3]Sheet1!B9,2,5)</f>
-        <v>0.004</v>
+        <v/>
       </c>
       <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
         <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
-        <v>(0.004)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="5">
         <f>+[3]Sheet1!B10</f>
-        <v>-0.001***</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="str">
         <f>+G10</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="D10" s="29" t="str">
         <f>+MID([3]Sheet1!B11,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
         <v>113</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="5">
         <f>+[3]Sheet1!B12</f>
-        <v>7.429***</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="str">
         <f>+G12</f>
-        <v>(0.07)</v>
+        <v>()</v>
       </c>
       <c r="D12" s="29" t="str">
         <f>+MID([3]Sheet1!B13,2,5)</f>
-        <v>0.07</v>
+        <v/>
       </c>
       <c r="E12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" t="s">
         <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
-        <v>(0.07)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="46"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5281,16 +5502,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5324,16 +5545,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -5341,10 +5562,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5352,10 +5573,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5385,10 +5606,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="46"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -5410,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD71E75-2BDB-48CA-A7D2-F5A58344C4E1}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:H28"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,36 +5642,41 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5458,84 +5684,90 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>+[5]Sheet1!B9</f>
-        <v>-0.122***</v>
+        <v>-0.139***</v>
       </c>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
-        <f>+G9</f>
-        <v>(0.012)</v>
+        <f>+H9</f>
+        <v>(0.011)</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="5"/>
+      <c r="E9" s="29" t="str">
         <f>+MID([5]Sheet1!B10,2,5)</f>
-        <v>0.012</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0.011</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" t="str">
-        <f>+E9&amp;D9&amp;F9</f>
-        <v>(0.012)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f>+F9&amp;E9&amp;G9</f>
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>+[5]Sheet1!B11</f>
-        <v>0.046***</v>
+        <v>0.041***</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
-        <f>+G11</f>
+        <f>+H11</f>
         <v>(0.003)</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="5"/>
+      <c r="E11" s="29" t="str">
         <f>+MID([5]Sheet1!B12,2,5)</f>
         <v>0.003</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" t="str">
-        <f>+E11&amp;D11&amp;F11</f>
+      <c r="H11" t="str">
+        <f>+F11&amp;E11&amp;G11</f>
         <v>(0.003)</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -5544,91 +5776,97 @@
         <v>-0.0004***</v>
       </c>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="str">
-        <f>+G13</f>
+        <f>+H13</f>
         <v>(0.000)</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="5"/>
+      <c r="E13" s="29" t="str">
         <f>+MID([5]Sheet1!B14,2,5)</f>
         <v>0.000</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="str">
-        <f>+E13&amp;D13&amp;F13</f>
+      <c r="H13" t="str">
+        <f>+F13&amp;E13&amp;G13</f>
         <v>(0.000)</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="str">
         <f>+[5]Sheet1!B15</f>
-        <v>0.238***</v>
+        <v>0.140***</v>
       </c>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="str">
-        <f>+G15</f>
+        <f>+H15</f>
         <v>(0.006)</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="5"/>
+      <c r="E15" s="29" t="str">
         <f>+MID([5]Sheet1!B16,2,5)</f>
         <v>0.006</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" t="str">
-        <f>+E15&amp;D15&amp;F15</f>
+      <c r="H15" t="str">
+        <f>+F15&amp;E15&amp;G15</f>
         <v>(0.006)</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="str">
         <f>+[5]Sheet1!B17</f>
-        <v>0.016***</v>
+        <v>0.012***</v>
       </c>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
-        <f>+G17</f>
+        <f>+H17</f>
         <v>(0.001)</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="5"/>
+      <c r="E17" s="29" t="str">
         <f>+MID([5]Sheet1!B18,2,5)</f>
         <v>0.001</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+E17&amp;D17&amp;F17</f>
+      <c r="H17" t="str">
+        <f>+F17&amp;E17&amp;G17</f>
         <v>(0.001)</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5637,60 +5875,64 @@
         <v>-0.0002***</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
-        <f>+G19</f>
+        <f>+H19</f>
         <v>(0.000)</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="5"/>
+      <c r="E19" s="29" t="str">
         <f>+MID([5]Sheet1!B20,2,5)</f>
         <v>0.000</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" t="str">
-        <f>+E19&amp;D19&amp;F19</f>
+      <c r="H19" t="str">
+        <f>+F19&amp;E19&amp;G19</f>
         <v>(0.000)</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>+[5]Sheet1!B21</f>
-        <v>0.063***</v>
+        <v>0.053***</v>
       </c>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="str">
-        <f>+G21</f>
+        <f>+H21</f>
         <v>(0.002)</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="5"/>
+      <c r="E21" s="29" t="str">
         <f>+MID([5]Sheet1!B22,2,5)</f>
         <v>0.002</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
         <v>113</v>
       </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" t="str">
-        <f>+E21&amp;D21&amp;F21</f>
+      <c r="H21" t="str">
+        <f>+F21&amp;E21&amp;G21</f>
         <v>(0.002)</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5699,166 +5941,492 @@
         <v>-0.013***</v>
       </c>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="str">
-        <f>+G23</f>
-        <v>(0.001)</v>
+        <f>+H23</f>
+        <v>(0.000)</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="5"/>
+      <c r="E23" s="29" t="str">
         <f>+MID([5]Sheet1!B24,2,5)</f>
-        <v>0.001</v>
-      </c>
-      <c r="E23" t="s">
+        <v>0.000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
         <v>113</v>
       </c>
-      <c r="F23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" t="str">
-        <f>+E23&amp;D23&amp;F23</f>
-        <v>(0.001)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>+F23&amp;E23&amp;G23</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="str">
-        <f>+[5]Sheet1!C25</f>
-        <v>-0.122***</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="str">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="str">
+        <f>+[5]Sheet1!B25</f>
+        <v>0.150***</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="str">
         <f>+H25</f>
-        <v>(0.012)</v>
-      </c>
+        <v>(0.016)</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="29" t="str">
-        <f>+MID([5]Sheet1!C26,2,5)</f>
-        <v>0.012</v>
+        <f>+MID([5]Sheet1!B26,2,5)</f>
+        <v>0.016</v>
       </c>
       <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" t="s">
-        <v>114</v>
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
-        <v>(0.012)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>(0.016)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B26" s="5" t="str">
         <f>+[5]Sheet1!B27</f>
-        <v>6.186***</v>
-      </c>
-      <c r="C26" s="5">
-        <f>+[5]Sheet1!C27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
-        <f>+[5]Sheet1!B28</f>
-        <v>-7.1999999999999995E-2</v>
-      </c>
-      <c r="C27" s="5" t="str">
+        <v>0.284***</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="str">
         <f>+H27</f>
         <v>(0.006)</v>
       </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="29" t="str">
-        <f>+MID([5]Sheet1!C28,2,5)</f>
+        <f>+MID([5]Sheet1!B28,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>114</v>
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
         <v>(0.006)</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="str">
+        <f>+[5]Sheet1!C29</f>
+        <v>-0.139***</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="str">
+        <f>+I29</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="F29" s="29" t="str">
+        <f>+MID([5]Sheet1!C30,2,5)</f>
+        <v>0.011</v>
+      </c>
+      <c r="G29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="str">
+        <f>+G29&amp;F29&amp;H29</f>
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="5" t="str">
+        <f>+[5]Sheet1!B27</f>
+        <v>0.284***</v>
+      </c>
+      <c r="C30" s="5">
+        <f>+[5]Sheet1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="str">
+        <f>+I31</f>
+        <v>(0.065)</v>
+      </c>
+      <c r="C31" s="5" t="str">
+        <f>+N31</f>
+        <v>(0.005)</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="F31" s="29" t="str">
+        <f>+MID([5]Sheet1!B32,2,5)</f>
+        <v>0.065</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" t="str">
+        <f>+G31&amp;F31&amp;H31</f>
+        <v>(0.065)</v>
+      </c>
+      <c r="K31" s="29" t="str">
+        <f>+MID([5]Sheet1!C32,2,5)</f>
+        <v>0.005</v>
+      </c>
+      <c r="L31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" t="str">
+        <f>+L31&amp;K31&amp;M31</f>
+        <v>(0.005)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4">
-        <f>+[5]Sheet1!B30</f>
+      <c r="B33" s="4">
+        <f>+[5]Sheet1!B34</f>
         <v>9785</v>
       </c>
-      <c r="C29" s="4">
-        <f>+[5]Sheet1!C30</f>
+      <c r="C33" s="4">
+        <f>+[5]Sheet1!C34</f>
         <v>9785</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="22">
-        <f>+[5]Sheet1!B31</f>
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C30" s="22">
-        <f>+[5]Sheet1!C31</f>
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B34" s="22">
+        <f>+[5]Sheet1!B35</f>
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C34" s="22">
+        <f>+[5]Sheet1!C35</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B6:C6" numberStoredAsText="1"/>
-    <ignoredError sqref="A10:C29" formula="1"/>
+    <ignoredError sqref="A29:C30 A10:C23 B24:B26 A28:B28 A33 A32:C32 A31" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A5A78B-93AF-4359-B79E-5633C8A3A2DB}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <f>+[6]Sheet1!A3</f>
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8">
+        <f>+[6]Sheet1!A4</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8">
+        <f>+[6]Sheet1!A5</f>
+        <v>-1E-3</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <f>+[6]Sheet1!A6</f>
+        <v>0.189</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <f>+[6]Sheet1!A7</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <f>+[6]Sheet1!A8</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8">
+        <f>+[6]Sheet1!A9</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <f>+[6]Sheet1!A10</f>
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <f>+[6]Sheet1!A11</f>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8">
+        <f>+[6]Sheet1!A12</f>
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="8">
+        <v>-0.16300000000000001</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5">
+        <f>+[6]Sheet1!$A$2</f>
+        <v>660.12599999999998</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A21:C21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B6:C6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E742D563-C828-467C-B6A5-B75ED254EEE6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5868,16 +6436,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="44"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="45"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -5885,10 +6453,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="45"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5896,10 +6464,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5907,7 +6475,7 @@
       </c>
       <c r="B7" s="8">
         <f>+[6]Sheet1!A3</f>
-        <v>7.1999999999999995E-2</v>
+        <v>-0.16300000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5916,7 +6484,7 @@
       </c>
       <c r="B8" s="8">
         <f>+[6]Sheet1!A4</f>
-        <v>-1E-3</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5925,7 +6493,7 @@
       </c>
       <c r="B9" s="8">
         <f>+[6]Sheet1!A5</f>
-        <v>-0.13600000000000001</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5934,7 +6502,7 @@
       </c>
       <c r="B10" s="8">
         <f>+[6]Sheet1!A6</f>
-        <v>1.2999999999999999E-2</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5943,7 +6511,7 @@
       </c>
       <c r="B11" s="8">
         <f>+[6]Sheet1!A7</f>
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5952,14 +6520,14 @@
       </c>
       <c r="B12" s="5">
         <f>+[6]Sheet1!A2</f>
-        <v>2150.3969999999999</v>
+        <v>660.12599999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36"/>
+      <c r="B13" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5974,12 +6542,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:G9"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5987,36 +6555,41 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="C3" s="47"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
@@ -6024,177 +6597,189 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>+[7]Sheet1!B9</f>
-        <v>-0.136***</v>
+        <v>-0.142***</v>
       </c>
       <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="str">
-        <f>+G9</f>
-        <v>(0.012)</v>
+        <f>+H9</f>
+        <v>(0.011)</v>
       </c>
       <c r="C9" s="8"/>
-      <c r="D9" s="29" t="str">
+      <c r="D9" s="8"/>
+      <c r="E9" s="29" t="str">
         <f>+MID([7]Sheet1!B10,2,5)</f>
-        <v>0.012</v>
-      </c>
-      <c r="E9" t="s">
+        <v>0.011</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" t="str">
-        <f>+E9&amp;D9&amp;F9</f>
-        <v>(0.012)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f>+F9&amp;E9&amp;G9</f>
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>+[7]Sheet1!B11</f>
-        <v>0.050***</v>
+        <v>0.042***</v>
       </c>
       <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="str">
-        <f>+G11</f>
+        <f>+H11</f>
         <v>(0.003)</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="29" t="str">
+      <c r="D11" s="8"/>
+      <c r="E11" s="29" t="str">
         <f>+MID([7]Sheet1!B12,2,5)</f>
         <v>0.003</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
         <v>113</v>
       </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" t="str">
-        <f>+E11&amp;D11&amp;F11</f>
+      <c r="H11" t="str">
+        <f>+F11&amp;E11&amp;G11</f>
         <v>(0.003)</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>+[7]Sheet1!B13</f>
-        <v>-0.0005***</v>
+        <v>-0.0004***</v>
       </c>
       <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="str">
-        <f>+G13</f>
+        <f>+H13</f>
         <v>(0.000)</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="29" t="str">
+      <c r="D13" s="8"/>
+      <c r="E13" s="29" t="str">
         <f>+MID([7]Sheet1!B14,2,5)</f>
         <v>0.000</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="str">
-        <f>+E13&amp;D13&amp;F13</f>
+      <c r="H13" t="str">
+        <f>+F13&amp;E13&amp;G13</f>
         <v>(0.000)</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>+[7]Sheet1!B15</f>
-        <v>0.247***</v>
+        <v>0.147***</v>
       </c>
       <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="str">
-        <f>+G15</f>
+        <f>+H15</f>
         <v>(0.006)</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="29" t="str">
+      <c r="D15" s="8"/>
+      <c r="E15" s="29" t="str">
         <f>+MID([7]Sheet1!B16,2,5)</f>
         <v>0.006</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
         <v>113</v>
       </c>
-      <c r="F15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" t="str">
-        <f>+E15&amp;D15&amp;F15</f>
+      <c r="H15" t="str">
+        <f>+F15&amp;E15&amp;G15</f>
         <v>(0.006)</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>+[7]Sheet1!B17</f>
-        <v>0.016***</v>
+        <v>0.012***</v>
       </c>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="str">
-        <f>+G17</f>
+        <f>+H17</f>
         <v>(0.001)</v>
       </c>
       <c r="C17" s="8"/>
-      <c r="D17" s="29" t="str">
+      <c r="D17" s="8"/>
+      <c r="E17" s="29" t="str">
         <f>+MID([7]Sheet1!B18,2,5)</f>
         <v>0.001</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
         <v>113</v>
       </c>
-      <c r="F17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" t="str">
-        <f>+E17&amp;D17&amp;F17</f>
+      <c r="H17" t="str">
+        <f>+F17&amp;E17&amp;G17</f>
         <v>(0.001)</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6203,60 +6788,64 @@
         <v>-0.0002***</v>
       </c>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="str">
-        <f>+G19</f>
+        <f>+H19</f>
         <v>(0.000)</v>
       </c>
       <c r="C19" s="8"/>
-      <c r="D19" s="29" t="str">
+      <c r="D19" s="8"/>
+      <c r="E19" s="29" t="str">
         <f>+MID([7]Sheet1!B20,2,5)</f>
         <v>0.000</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="F19" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" t="str">
-        <f>+E19&amp;D19&amp;F19</f>
+      <c r="H19" t="str">
+        <f>+F19&amp;E19&amp;G19</f>
         <v>(0.000)</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>+[7]Sheet1!B21</f>
-        <v>0.063***</v>
+        <v>0.053***</v>
       </c>
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="str">
-        <f>+G21</f>
+        <f>+H21</f>
         <v>(0.002)</v>
       </c>
       <c r="C21" s="8"/>
-      <c r="D21" s="29" t="str">
+      <c r="D21" s="8"/>
+      <c r="E21" s="29" t="str">
         <f>+MID([7]Sheet1!B22,2,5)</f>
         <v>0.002</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
         <v>113</v>
       </c>
-      <c r="F21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" t="str">
-        <f>+E21&amp;D21&amp;F21</f>
+      <c r="H21" t="str">
+        <f>+F21&amp;E21&amp;G21</f>
         <v>(0.002)</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6265,429 +6854,247 @@
         <v>-0.014***</v>
       </c>
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="str">
-        <f>+G23</f>
-        <v>(0.001)</v>
+        <f>+H23</f>
+        <v>(0.000)</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="29" t="str">
+      <c r="D23" s="8"/>
+      <c r="E23" s="29" t="str">
         <f>+MID([7]Sheet1!B24,2,5)</f>
-        <v>0.001</v>
-      </c>
-      <c r="E23" t="s">
+        <v>0.000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
         <v>113</v>
       </c>
-      <c r="F23" t="s">
-        <v>114</v>
-      </c>
-      <c r="G23" t="str">
-        <f>+E23&amp;D23&amp;F23</f>
-        <v>(0.001)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <f>+F23&amp;E23&amp;G23</f>
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="str">
-        <f>+[7]Sheet1!C25</f>
-        <v>-0.136***</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8" t="str">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>+[7]Sheet1!B25</f>
+        <v>0.151***</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="str">
         <f>+H25</f>
-        <v>(0.012)</v>
-      </c>
+        <v>(0.016)</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="29" t="str">
-        <f>+MID([5]Sheet1!C26,2,5)</f>
-        <v>0.012</v>
+        <f>+MID([7]Sheet1!B26,2,5)</f>
+        <v>0.016</v>
       </c>
       <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
         <v>113</v>
-      </c>
-      <c r="G25" t="s">
-        <v>114</v>
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
-        <v>(0.012)</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>(0.016)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B26" s="8" t="str">
         <f>+[7]Sheet1!B27</f>
-        <v>6.139***</v>
-      </c>
-      <c r="C26" s="8">
-        <f>+[7]Sheet1!C27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
-        <f>+[7]Sheet1!B28</f>
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="C27" s="8" t="str">
+        <v>0.277***</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="str">
         <f>+H27</f>
         <v>(0.006)</v>
       </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="29" t="str">
-        <f>+MID([5]Sheet1!C28,2,5)</f>
+        <f>+MID([7]Sheet1!B28,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
         <v>113</v>
-      </c>
-      <c r="G27" t="s">
-        <v>114</v>
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
         <v>(0.006)</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="str">
+        <f>+[7]Sheet1!C29</f>
+        <v>-0.142***</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="str">
+        <f>+I29</f>
+        <v>(0.011)</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="F29" s="29" t="str">
+        <f>+MID([7]Sheet1!C30,2,5)</f>
+        <v>0.011</v>
+      </c>
+      <c r="G29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+      <c r="I29" t="str">
+        <f>+G29&amp;F29&amp;H29</f>
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>+[7]Sheet1!B31</f>
+        <v>6.277***</v>
+      </c>
+      <c r="C30" s="8">
+        <f>+[7]Sheet1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="str">
+        <f>+I31</f>
+        <v>(0.065)</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>+N31</f>
+        <v>(0.005)</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="F31" s="29" t="str">
+        <f>+MID([7]Sheet1!B32,2,5)</f>
+        <v>0.065</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31" t="str">
+        <f>+G31&amp;F31&amp;H31</f>
+        <v>(0.065)</v>
+      </c>
+      <c r="K31" s="29" t="str">
+        <f>+MID([7]Sheet1!C32,2,5)</f>
+        <v>0.005</v>
+      </c>
+      <c r="L31" t="s">
+        <v>112</v>
+      </c>
+      <c r="M31" t="s">
+        <v>113</v>
+      </c>
+      <c r="N31" t="str">
+        <f>+L31&amp;K31&amp;M31</f>
+        <v>(0.005)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="4">
-        <f>+[7]Sheet1!B30</f>
+      <c r="B33" s="4">
+        <f>+[7]Sheet1!B34</f>
         <v>9785</v>
       </c>
-      <c r="C29" s="4">
-        <f>+[7]Sheet1!C30</f>
+      <c r="C33" s="4">
+        <f>+[7]Sheet1!C34</f>
         <v>9785</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="22">
-        <f>+[7]Sheet1!B31</f>
-        <v>0.372</v>
-      </c>
-      <c r="C30" s="22">
-        <f>+[7]Sheet1!C31</f>
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B34" s="22">
+        <f>+[7]Sheet1!B35</f>
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="C34" s="22">
+        <f>+[7]Sheet1!C35</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B6:C6" numberStoredAsText="1"/>
-    <ignoredError sqref="B10:D27" formula="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="34"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8" t="str">
-        <f>+[8]Sheet1!B8</f>
-        <v>0.062***</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="str">
-        <f>+G8</f>
-        <v>(0.005)</v>
-      </c>
-      <c r="D8" s="29" t="str">
-        <f>+MID([8]Sheet1!B9,2,5)</f>
-        <v>0.005</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" t="str">
-        <f>+E8&amp;D8&amp;F8</f>
-        <v>(0.005)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8" t="str">
-        <f>+[8]Sheet1!B10</f>
-        <v>-0.001***</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="str">
-        <f>+G10</f>
-        <v>(0.000)</v>
-      </c>
-      <c r="D10" s="29" t="str">
-        <f>+MID([8]Sheet1!B11,2,5)</f>
-        <v>0.000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="str">
-        <f>+E10&amp;D10&amp;F10</f>
-        <v>(0.000)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8">
-        <f>+[8]Sheet1!B12</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="str">
-        <f>+G12</f>
-        <v>(0.139)</v>
-      </c>
-      <c r="D12" s="29" t="str">
-        <f>+MID([8]Sheet1!B13,2,5)</f>
-        <v>0.139</v>
-      </c>
-      <c r="E12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" t="str">
-        <f>+E12&amp;D12&amp;F12</f>
-        <v>(0.139)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8">
-        <f>+[8]Sheet1!B14</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="str">
-        <f>+G14</f>
-        <v>(0.007)</v>
-      </c>
-      <c r="D14" s="29" t="str">
-        <f>+MID([8]Sheet1!B15,2,5)</f>
-        <v>0.007</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" t="s">
-        <v>114</v>
-      </c>
-      <c r="G14" t="str">
-        <f>+E14&amp;D14&amp;F14</f>
-        <v>(0.007)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f>+[8]Sheet1!B16</f>
-        <v>-0.0002*</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="str">
-        <f>+G16</f>
-        <v>(0.000)</v>
-      </c>
-      <c r="D16" s="29" t="str">
-        <f>+MID([8]Sheet1!B17,2,5)</f>
-        <v>0.000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" t="str">
-        <f>+E16&amp;D16&amp;F16</f>
-        <v>(0.000)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8" t="str">
-        <f>+[8]Sheet1!B18</f>
-        <v>7.324***</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="str">
-        <f>+G18</f>
-        <v>(0.095)</v>
-      </c>
-      <c r="D18" s="29" t="str">
-        <f>+MID([8]Sheet1!B19,2,5)</f>
-        <v>0.095</v>
-      </c>
-      <c r="E18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" t="str">
-        <f>+E18&amp;D18&amp;F18</f>
-        <v>(0.095)</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4">
-        <f>+[8]Sheet1!B21</f>
-        <v>9785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <f>+[8]Sheet1!B22</f>
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="B9:B17" formula="1"/>
+    <ignoredError sqref="E28:E31 E10 E12 C11 E14 C13 E16 C15 E18 C17 E20 C19 E22 C21 C23 C22 C20 C18 C16 C14 C12 C10 B10:B26" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D5E222-B2A8-4BF7-8DF1-E9119F62B2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A454EAF-5B99-454F-A40D-2AC62DA2843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="118">
   <si>
     <t>============================================</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Edad^2:Mujer</t>
   </si>
   <si>
-    <t>Tabla 4: Regresión 4</t>
-  </si>
-  <si>
     <t>-----------------------------------------------</t>
   </si>
   <si>
@@ -310,84 +307,18 @@
     <t>Mod_Comparativos</t>
   </si>
   <si>
-    <t>lw_hora_Resid</t>
-  </si>
-  <si>
     <t>(3)</t>
   </si>
   <si>
     <t>(4)</t>
   </si>
   <si>
-    <t>-0.122***</t>
-  </si>
-  <si>
-    <t>-0.136***</t>
-  </si>
-  <si>
-    <t>0.046***</t>
-  </si>
-  <si>
-    <t>0.050***</t>
-  </si>
-  <si>
-    <t>Edad2</t>
-  </si>
-  <si>
-    <t>-0.0004***</t>
-  </si>
-  <si>
-    <t>-0.0005***</t>
-  </si>
-  <si>
-    <t>0.238***</t>
-  </si>
-  <si>
-    <t>0.247***</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>0.016***</t>
-  </si>
-  <si>
-    <t>exp2</t>
-  </si>
-  <si>
-    <t>-0.0002***</t>
-  </si>
-  <si>
-    <t>Tamaño_empresa</t>
-  </si>
-  <si>
-    <t>0.063***</t>
-  </si>
-  <si>
-    <t>-0.013***</t>
-  </si>
-  <si>
-    <t>-0.014***</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
-    <t>6.186***</t>
-  </si>
-  <si>
-    <t>9,785           9,785</t>
-  </si>
-  <si>
-    <t>0.372           0.013</t>
-  </si>
-  <si>
     <t>Nota 2: (1) y (2) con muestra única y (3) y (4) con Bootstrap</t>
   </si>
   <si>
-    <t xml:space="preserve">6.139***        </t>
-  </si>
-  <si>
     <t>---------------------------------------------------------------------------------------------------------</t>
   </si>
   <si>
@@ -482,6 +413,15 @@
   </si>
   <si>
     <t>---------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t>log(w_hora_Resid)</t>
+  </si>
+  <si>
+    <t>Horas trabajadas</t>
+  </si>
+  <si>
+    <t>Tabla 4: Regresión 5</t>
   </si>
 </sst>
 </file>
@@ -655,7 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +634,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1752,7 +1694,240 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>-0.139***</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>-0.142***</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+          <cell r="D10">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>0.041***</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>0.042***</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>-3.0000000000000001E-3</v>
+          </cell>
+          <cell r="D12">
+            <v>-3.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>-0.0004***</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>-0.0004***</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>-3.0000000000000001E-5</v>
+          </cell>
+          <cell r="D14">
+            <v>-3.0000000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>0.140***</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>0.147***</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D16">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>0.012***</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>0.012***</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>-1E-3</v>
+          </cell>
+          <cell r="D18">
+            <v>-1E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>-0.0002***</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>-0.0002***</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>-2.0000000000000002E-5</v>
+          </cell>
+          <cell r="D20">
+            <v>-2.0000000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>0.053***</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>0.053***</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>-2E-3</v>
+          </cell>
+          <cell r="D22">
+            <v>-2E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>-0.013***</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>-0.014***</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>-5.0000000000000001E-4</v>
+          </cell>
+          <cell r="D24">
+            <v>-5.0000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>0.150***</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>0.151***</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>-1.6E-2</v>
+          </cell>
+          <cell r="D26">
+            <v>-1.6E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>0.284***</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>0.277***</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+          <cell r="D28">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>-0.139***</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>-0.142***</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+          <cell r="E30">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>6.269***</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>6.277***</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>-6.5000000000000002E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+          <cell r="D32">
+            <v>-6.5000000000000002E-2</v>
+          </cell>
+          <cell r="E32">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>9785</v>
+          </cell>
+          <cell r="C34">
+            <v>9785</v>
+          </cell>
+          <cell r="D34">
+            <v>9785</v>
+          </cell>
+          <cell r="E34">
+            <v>9785</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.49199999999999999</v>
+          </cell>
+          <cell r="C35">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>0.49299999999999999</v>
+          </cell>
+          <cell r="E35">
+            <v>1.7999999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1871,142 +2046,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>-0.139***</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>-1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>0.041***</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>-0.0004***</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>-3.0000000000000001E-5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>0.140***</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>0.012***</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>-1E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>-0.0002***</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-2.0000000000000002E-5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>0.053***</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>-2E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>-0.013***</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>-5.0000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>0.150***</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>-1.6E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>0.284***</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>-0.139***</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>-1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>-6.5000000000000002E-2</v>
-          </cell>
-          <cell r="C32">
-            <v>-5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>9785</v>
-          </cell>
-          <cell r="C34">
-            <v>9785</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0.49199999999999999</v>
-          </cell>
-          <cell r="C35">
-            <v>1.7000000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2088,150 +2128,7 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>-0.142***</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>-1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>0.042***</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>-3.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>-0.0004***</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>-3.0000000000000001E-5</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>0.147***</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>0.012***</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>-1E-3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>-0.0002***</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>-2.0000000000000002E-5</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>0.053***</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>-2E-3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>-0.014***</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>-5.0000000000000001E-4</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>0.151***</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>-1.6E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>0.277***</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>-6.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>-0.142***</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>-1.0999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>6.277***</v>
-          </cell>
-          <cell r="C31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>-6.5000000000000002E-2</v>
-          </cell>
-          <cell r="C32">
-            <v>-5.0000000000000001E-3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>9785</v>
-          </cell>
-          <cell r="C34">
-            <v>9785</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0.49299999999999999</v>
-          </cell>
-          <cell r="C35">
-            <v>1.7999999999999999E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2244,7 +2141,78 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>0.062***</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>-0.001***</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>-1E-4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>8.9999999999999993E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>-0.13900000000000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>4.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>-7.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>-0.0002*</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>-1E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>7.324***</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>-9.5000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>9785</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>4.3999999999999997E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2644,15 +2612,15 @@
         <f>+G8</f>
         <v>(0.006)</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="28" t="str">
         <f>+MID([1]Sheet1!B9,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -2673,22 +2641,22 @@
         <f>+G10</f>
         <v>(0.001)</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="28" t="str">
         <f>+MID([1]Sheet1!B11,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
         <v>(0.001)</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="L10">
         <v>8</v>
@@ -2709,7 +2677,7 @@
         <v>-0.0002***</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="L11">
         <v>8</v>
@@ -2726,22 +2694,22 @@
         <f>+G12</f>
         <v>(0.000)</v>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="28" t="str">
         <f>+MID([1]Sheet1!B13,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
         <v>(0.000)</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -2762,7 +2730,7 @@
         <v>0.132***</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -2779,22 +2747,22 @@
         <f>+G14</f>
         <v>(0.011)</v>
       </c>
-      <c r="D14" s="29" t="str">
+      <c r="D14" s="28" t="str">
         <f>+MID([1]Sheet1!B15,2,5)</f>
         <v>0.011</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G14" t="str">
         <f>+E14&amp;D14&amp;F14</f>
         <v>(0.011)</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -2815,7 +2783,7 @@
         <v>0.008***</v>
       </c>
       <c r="K15" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="L15">
         <v>8</v>
@@ -2832,15 +2800,15 @@
         <f>+G16</f>
         <v>(0.001)</v>
       </c>
-      <c r="D16" s="29" t="str">
+      <c r="D16" s="28" t="str">
         <f>+MID([1]Sheet1!B17,2,5)</f>
         <v>0.001</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G16" t="str">
         <f>+E16&amp;D16&amp;F16</f>
@@ -2861,15 +2829,15 @@
         <f>+G18</f>
         <v>(0.000)</v>
       </c>
-      <c r="D18" s="29" t="str">
+      <c r="D18" s="28" t="str">
         <f>+MID([1]Sheet1!B19,2,5)</f>
         <v>0.000</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G18" t="str">
         <f>+E18&amp;D18&amp;F18</f>
@@ -2890,15 +2858,15 @@
         <f>+G20</f>
         <v>(0.002)</v>
       </c>
-      <c r="D20" s="29" t="str">
+      <c r="D20" s="28" t="str">
         <f>+MID([1]Sheet1!B21,2,5)</f>
         <v>0.002</v>
       </c>
       <c r="E20" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G20" t="str">
         <f>+E20&amp;D20&amp;F20</f>
@@ -2919,15 +2887,15 @@
         <f>+G22</f>
         <v>(0.016)</v>
       </c>
-      <c r="D22" s="29" t="str">
+      <c r="D22" s="28" t="str">
         <f>+MID([1]Sheet1!B23,2,5)</f>
         <v>0.016</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G22" t="str">
         <f>+E22&amp;D22&amp;F22</f>
@@ -2948,15 +2916,15 @@
         <f>+G24</f>
         <v>(0.006)</v>
       </c>
-      <c r="D24" s="29" t="str">
+      <c r="D24" s="28" t="str">
         <f>+MID([1]Sheet1!B25,2,5)</f>
         <v>0.006</v>
       </c>
       <c r="E24" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G24" t="str">
         <f>+E24&amp;D24&amp;F24</f>
@@ -2977,15 +2945,15 @@
         <f>+G26</f>
         <v>(0.049)</v>
       </c>
-      <c r="D26" s="29" t="str">
+      <c r="D26" s="28" t="str">
         <f>+MID([1]Sheet1!B27,2,5)</f>
         <v>0.049</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G26" t="str">
         <f>+E26&amp;D26&amp;F26</f>
@@ -3048,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,7 +3028,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B1" s="44"/>
     </row>
@@ -3088,7 +3056,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6"/>
     </row>
@@ -3096,58 +3064,58 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="8" t="str">
         <f>+[8]Sheet1!B8</f>
-        <v>0</v>
+        <v>0.062***</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="str">
         <f>+G8</f>
-        <v>()</v>
-      </c>
-      <c r="D8" s="29" t="str">
+        <v>(0.005)</v>
+      </c>
+      <c r="D8" s="28" t="str">
         <f>+MID([8]Sheet1!B9,2,5)</f>
-        <v/>
+        <v>0.005</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
-        <v>()</v>
+        <v>(0.005)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="8" t="str">
         <f>+[8]Sheet1!B10</f>
-        <v>0</v>
+        <v>-0.001***</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="str">
         <f>+G10</f>
-        <v>()</v>
-      </c>
-      <c r="D10" s="29" t="str">
+        <v>(0.000)</v>
+      </c>
+      <c r="D10" s="28" t="str">
         <f>+MID([8]Sheet1!B11,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3156,27 +3124,27 @@
       </c>
       <c r="B11" s="8">
         <f>+[8]Sheet1!B12</f>
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="str">
         <f>+G12</f>
-        <v>()</v>
-      </c>
-      <c r="D12" s="29" t="str">
+        <v>(0.139)</v>
+      </c>
+      <c r="D12" s="28" t="str">
         <f>+MID([8]Sheet1!B13,2,5)</f>
-        <v/>
+        <v>0.139</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
-        <v>()</v>
+        <v>(0.139)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3185,85 +3153,85 @@
       </c>
       <c r="B13" s="8">
         <f>+[8]Sheet1!B14</f>
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="str">
         <f>+G14</f>
-        <v>()</v>
-      </c>
-      <c r="D14" s="29" t="str">
+        <v>(0.007)</v>
+      </c>
+      <c r="D14" s="28" t="str">
         <f>+MID([8]Sheet1!B15,2,5)</f>
-        <v/>
+        <v>0.007</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G14" t="str">
         <f>+E14&amp;D14&amp;F14</f>
-        <v>()</v>
+        <v>(0.007)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="8" t="str">
         <f>+[8]Sheet1!B16</f>
-        <v>0</v>
+        <v>-0.0002*</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="str">
         <f>+G16</f>
-        <v>()</v>
-      </c>
-      <c r="D16" s="29" t="str">
+        <v>(0.000)</v>
+      </c>
+      <c r="D16" s="28" t="str">
         <f>+MID([8]Sheet1!B17,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G16" t="str">
         <f>+E16&amp;D16&amp;F16</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="8" t="str">
         <f>+[8]Sheet1!B18</f>
-        <v>0</v>
+        <v>7.324***</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="str">
         <f>+G18</f>
-        <v>()</v>
-      </c>
-      <c r="D18" s="29" t="str">
+        <v>(0.095)</v>
+      </c>
+      <c r="D18" s="28" t="str">
         <f>+MID([8]Sheet1!B19,2,5)</f>
-        <v/>
+        <v>0.095</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G18" t="str">
         <f>+E18&amp;D18&amp;F18</f>
-        <v>()</v>
+        <v>(0.095)</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3278,7 +3246,7 @@
       </c>
       <c r="B20" s="4">
         <f>+[8]Sheet1!B21</f>
-        <v>0</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
@@ -3287,12 +3255,12 @@
       </c>
       <c r="B21" s="8">
         <f>+[8]Sheet1!B22</f>
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22"/>
     </row>
@@ -3341,7 +3309,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -3349,7 +3317,7 @@
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
       <c r="H2" s="50" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="I2" s="50"/>
       <c r="J2" s="50"/>
@@ -3359,7 +3327,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3367,7 +3335,7 @@
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
       <c r="H3" s="51" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
@@ -3377,45 +3345,45 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
@@ -3423,7 +3391,7 @@
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
       <c r="H5" s="51" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
@@ -3433,7 +3401,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>9785</v>
@@ -3451,7 +3419,7 @@
         <v>72</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="19">
         <v>9785</v>
@@ -3493,7 +3461,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="I7" s="19">
         <v>9785</v>
@@ -3535,7 +3503,7 @@
         <v>86</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="I8" s="19">
         <v>9771</v>
@@ -3577,7 +3545,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="19">
         <v>9785</v>
@@ -3601,7 +3569,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="4">
         <v>9785</v>
@@ -3619,7 +3587,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="I10" s="19">
         <v>9740</v>
@@ -3661,7 +3629,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I11" s="19">
         <v>9767</v>
@@ -3685,7 +3653,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -3693,21 +3661,21 @@
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
       <c r="H12" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="31">
+        <v>101</v>
+      </c>
+      <c r="I12" s="30">
         <v>9785</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="30">
         <v>7984.3</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="30">
         <v>11629.4</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <v>151.9</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <v>291666.7</v>
       </c>
       <c r="N12">
@@ -3717,21 +3685,21 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="31">
+        <v>102</v>
+      </c>
+      <c r="I13" s="30">
         <v>9785</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="30">
         <v>1757077</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="30">
         <v>2413729</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>30000</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <v>60100000</v>
       </c>
       <c r="N13">
@@ -3741,27 +3709,27 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
       <c r="H14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I14" s="31">
+        <v>103</v>
+      </c>
+      <c r="I14" s="30">
         <v>9785</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="30">
         <v>8868.2000000000007</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="30">
         <v>12917.1</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>326.7</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <v>350583.3</v>
       </c>
       <c r="N14">
@@ -3771,7 +3739,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -3779,7 +3747,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="H15" s="51" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="I15" s="51"/>
       <c r="J15" s="51"/>
@@ -3789,21 +3757,21 @@
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5">
         <v>0.19053439999999999</v>
@@ -3817,7 +3785,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="5">
         <v>3.6648645000000002</v>
@@ -3831,7 +3799,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="5">
         <v>1.6223208</v>
@@ -3845,7 +3813,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5">
         <v>19.405860000000001</v>
@@ -3859,7 +3827,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5">
         <v>4.8064391999999998</v>
@@ -3873,7 +3841,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="23">
         <v>70.309981100000002</v>
@@ -3887,7 +3855,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="50"/>
       <c r="C24" s="50"/>
@@ -3895,13 +3863,13 @@
       <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
+      <c r="A25" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3909,24 +3877,24 @@
         <v>2</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="D26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>135</v>
+        <v>48</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="17">
         <v>8178.3837007790617</v>
@@ -3940,7 +3908,7 @@
       <c r="E27" s="17">
         <v>1845881.765029914</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <v>4910</v>
       </c>
     </row>
@@ -3960,13 +3928,13 @@
       <c r="E28" s="18">
         <v>1667633.6329799681</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>4875</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30" s="50"/>
       <c r="C30" s="50"/>
@@ -3978,7 +3946,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -3989,34 +3957,34 @@
       <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>62</v>
-      </c>
       <c r="F32" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="17">
         <v>5020.2669999999998</v>
@@ -4039,11 +4007,11 @@
       <c r="H33" s="19">
         <v>22.1</v>
       </c>
-      <c r="I33" s="33"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B34" s="19">
         <v>6975.5259999999998</v>
@@ -4066,12 +4034,12 @@
       <c r="H34" s="19">
         <v>18.399999999999999</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="29"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="28"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="19">
         <v>8772.84</v>
@@ -4094,12 +4062,12 @@
       <c r="H35" s="19">
         <v>27.2</v>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="29"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="19">
         <v>9575.7459999999992</v>
@@ -4122,12 +4090,12 @@
       <c r="H36" s="19">
         <v>16.899999999999999</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="29"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="28"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="19">
         <v>9742.3430000000008</v>
@@ -4150,12 +4118,12 @@
       <c r="H37" s="19">
         <v>11.9</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="29"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="28"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="18">
         <v>10437.092000000001</v>
@@ -4178,8 +4146,8 @@
       <c r="H38" s="18">
         <v>3.5</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="29"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4218,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="44"/>
     </row>
@@ -4241,7 +4209,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4264,15 +4232,15 @@
         <f>+G8</f>
         <v>()</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="28" t="str">
         <f>+MID([9]Sheet1!B9,2,5)</f>
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -4293,15 +4261,15 @@
         <f>+G10</f>
         <v>()</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="28" t="str">
         <f>+MID([9]Sheet1!B11,2,5)</f>
         <v/>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
@@ -4363,33 +4331,34 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+        <v>78</v>
+      </c>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
@@ -4406,24 +4375,24 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="46" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>80</v>
+        <v>115</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -4434,15 +4403,15 @@
         <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45"/>
@@ -4453,649 +4422,693 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>83</v>
+      <c r="B9" s="3" t="str">
+        <f>+[10]Sheet1!B9</f>
+        <v>-0.139***</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>84</v>
+      <c r="D9" s="3" t="str">
+        <f>+[10]Sheet1!D9</f>
+        <v>-0.142***</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="str">
         <f>+J10</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="str">
         <f>+P10</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="G10" s="29" t="str">
+      <c r="G10" s="28" t="str">
         <f>+MID([10]Sheet1!B10,2,5)</f>
-        <v/>
+        <v>0.011</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J10" t="str">
         <f>+H10&amp;G10&amp;I10</f>
-        <v>()</v>
-      </c>
-      <c r="M10" s="29" t="str">
+        <v>(0.011)</v>
+      </c>
+      <c r="M10" s="28" t="str">
         <f>+MID([10]Sheet1!D10,2,5)</f>
-        <v/>
+        <v>0.011</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P10" t="str">
         <f>+N10&amp;M10&amp;O10</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>85</v>
+      <c r="B11" s="3" t="str">
+        <f>+[10]Sheet1!B11</f>
+        <v>0.041***</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>86</v>
+      <c r="D11" s="3" t="str">
+        <f>+[10]Sheet1!D11</f>
+        <v>0.042***</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
         <f>+J12</f>
-        <v>()</v>
+        <v>(0.003)</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="str">
         <f>+P12</f>
-        <v>()</v>
+        <v>(0.003)</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="G12" s="29" t="str">
+      <c r="G12" s="28" t="str">
         <f>+MID([10]Sheet1!B12,2,5)</f>
-        <v/>
+        <v>0.003</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J12" t="str">
         <f>+H12&amp;G12&amp;I12</f>
-        <v>()</v>
-      </c>
-      <c r="M12" s="29" t="str">
+        <v>(0.003)</v>
+      </c>
+      <c r="M12" s="28" t="str">
         <f>+MID([10]Sheet1!D12,2,5)</f>
-        <v/>
+        <v>0.003</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P12" t="str">
         <f>+N12&amp;M12&amp;O12</f>
-        <v>()</v>
+        <v>(0.003)</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>+[10]Sheet1!B13</f>
+        <v>-0.0004***</v>
       </c>
       <c r="C13" s="3"/>
-      <c r="D13" s="3" t="s">
-        <v>89</v>
+      <c r="D13" s="3" t="str">
+        <f>+[10]Sheet1!D13</f>
+        <v>-0.0004***</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="str">
         <f>+J14</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="str">
         <f>+P14</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="G14" s="29" t="str">
+      <c r="G14" s="28" t="str">
         <f>+MID([10]Sheet1!B14,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J14" t="str">
         <f>+H14&amp;G14&amp;I14</f>
-        <v>()</v>
-      </c>
-      <c r="M14" s="29" t="str">
+        <v>(0.000)</v>
+      </c>
+      <c r="M14" s="28" t="str">
         <f>+MID([10]Sheet1!D14,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="N14" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O14" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P14" t="str">
         <f>+N14&amp;M14&amp;O14</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>90</v>
+      <c r="B15" s="3" t="str">
+        <f>+[10]Sheet1!B15</f>
+        <v>0.140***</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
+      <c r="D15" s="3" t="str">
+        <f>+[10]Sheet1!D15</f>
+        <v>0.147***</v>
       </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
         <f>+J16</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="str">
         <f>+P16</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="G16" s="29" t="str">
+      <c r="G16" s="28" t="str">
         <f>+MID([10]Sheet1!B16,2,5)</f>
-        <v/>
+        <v>0.006</v>
       </c>
       <c r="H16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J16" t="str">
         <f>+H16&amp;G16&amp;I16</f>
-        <v>()</v>
-      </c>
-      <c r="M16" s="29" t="str">
+        <v>(0.006)</v>
+      </c>
+      <c r="M16" s="28" t="str">
         <f>+MID([10]Sheet1!D16,2,5)</f>
-        <v/>
+        <v>0.006</v>
       </c>
       <c r="N16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P16" t="str">
         <f>+N16&amp;M16&amp;O16</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>+[10]Sheet1!B17</f>
+        <v>0.012***</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>93</v>
+      <c r="D17" s="3" t="str">
+        <f>+[10]Sheet1!D17</f>
+        <v>0.012***</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
         <f>+J18</f>
-        <v>()</v>
+        <v>(0.001)</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="str">
         <f>+P18</f>
-        <v>()</v>
+        <v>(0.001)</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="G18" s="29" t="str">
+      <c r="G18" s="28" t="str">
         <f>+MID([10]Sheet1!B18,2,5)</f>
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J18" t="str">
         <f>+H18&amp;G18&amp;I18</f>
-        <v>()</v>
-      </c>
-      <c r="M18" s="29" t="str">
+        <v>(0.001)</v>
+      </c>
+      <c r="M18" s="28" t="str">
         <f>+MID([10]Sheet1!D18,2,5)</f>
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="N18" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P18" t="str">
         <f>+N18&amp;M18&amp;O18</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.001)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>+[10]Sheet1!B19</f>
+        <v>-0.0002***</v>
       </c>
       <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>95</v>
+      <c r="D19" s="3" t="str">
+        <f>+[10]Sheet1!D19</f>
+        <v>-0.0002***</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="str">
         <f>+J20</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="str">
         <f>+P20</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="G20" s="29" t="str">
+      <c r="G20" s="28" t="str">
         <f>+MID([10]Sheet1!B20,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="H20" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J20" t="str">
         <f>+H20&amp;G20&amp;I20</f>
-        <v>()</v>
-      </c>
-      <c r="M20" s="29" t="str">
+        <v>(0.000)</v>
+      </c>
+      <c r="M20" s="28" t="str">
         <f>+MID([10]Sheet1!D20,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P20" t="str">
         <f>+N20&amp;M20&amp;O20</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>+[10]Sheet1!B21</f>
+        <v>0.053***</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>97</v>
+      <c r="D21" s="3" t="str">
+        <f>+[10]Sheet1!D21</f>
+        <v>0.053***</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="str">
         <f>+J22</f>
-        <v>()</v>
+        <v>(0.002)</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="str">
         <f>+P22</f>
-        <v>()</v>
+        <v>(0.002)</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="G22" s="29" t="str">
+      <c r="G22" s="28" t="str">
         <f>+MID([10]Sheet1!B22,2,5)</f>
-        <v/>
+        <v>0.002</v>
       </c>
       <c r="H22" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J22" t="str">
         <f>+H22&amp;G22&amp;I22</f>
-        <v>()</v>
-      </c>
-      <c r="M22" s="29" t="str">
+        <v>(0.002)</v>
+      </c>
+      <c r="M22" s="28" t="str">
         <f>+MID([10]Sheet1!D22,2,5)</f>
-        <v/>
+        <v>0.002</v>
       </c>
       <c r="N22" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P22" t="str">
         <f>+N22&amp;M22&amp;O22</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.002)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="B23" s="3" t="str">
+        <f>+[10]Sheet1!B23</f>
+        <v>-0.013***</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>99</v>
+      <c r="D23" s="3" t="str">
+        <f>+[10]Sheet1!D23</f>
+        <v>-0.014***</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="str">
         <f>+J24</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="str">
         <f>+P24</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="G24" s="29" t="str">
+      <c r="G24" s="28" t="str">
         <f>+MID([10]Sheet1!B24,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J24" t="str">
         <f>+H24&amp;G24&amp;I24</f>
-        <v>()</v>
-      </c>
-      <c r="M24" s="29" t="str">
+        <v>(0.000)</v>
+      </c>
+      <c r="M24" s="28" t="str">
         <f>+MID([10]Sheet1!D24,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="N24" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P24" t="str">
         <f>+N24&amp;M24&amp;O24</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.000)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>98</v>
+      <c r="B25" s="3" t="str">
+        <f>+[10]Sheet1!B25</f>
+        <v>0.150***</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>99</v>
+      <c r="D25" s="3" t="str">
+        <f>+[10]Sheet1!D25</f>
+        <v>0.151***</v>
       </c>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="str">
         <f>+J26</f>
-        <v>()</v>
+        <v>(0.016)</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="str">
         <f>+P26</f>
-        <v>()</v>
+        <v>(0.016)</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="G26" s="29" t="str">
+      <c r="G26" s="28" t="str">
         <f>+MID([10]Sheet1!B26,2,5)</f>
-        <v/>
+        <v>0.016</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J26" t="str">
         <f>+H26&amp;G26&amp;I26</f>
-        <v>()</v>
-      </c>
-      <c r="M26" s="29" t="str">
+        <v>(0.016)</v>
+      </c>
+      <c r="M26" s="28" t="str">
         <f>+MID([10]Sheet1!D26,2,5)</f>
-        <v/>
+        <v>0.016</v>
       </c>
       <c r="N26" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O26" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P26" t="str">
         <f>+N26&amp;M26&amp;O26</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.016)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>98</v>
+      <c r="B27" s="3" t="str">
+        <f>+[10]Sheet1!B27</f>
+        <v>0.284***</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>99</v>
+      <c r="D27" s="3" t="str">
+        <f>+[10]Sheet1!D27</f>
+        <v>0.277***</v>
       </c>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
         <f>+J28</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="str">
         <f>+P28</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="G28" s="29" t="str">
+      <c r="G28" s="28" t="str">
         <f>+MID([10]Sheet1!B28,2,5)</f>
-        <v/>
+        <v>0.006</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="J28" t="str">
         <f>+H28&amp;G28&amp;I28</f>
-        <v>()</v>
-      </c>
-      <c r="M28" s="29" t="str">
+        <v>(0.006)</v>
+      </c>
+      <c r="M28" s="28" t="str">
         <f>+MID([10]Sheet1!D28,2,5)</f>
-        <v/>
+        <v>0.006</v>
       </c>
       <c r="N28" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="P28" t="str">
         <f>+N28&amp;M28&amp;O28</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.006)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>83</v>
+      <c r="C29" s="3" t="str">
+        <f>+[10]Sheet1!C29</f>
+        <v>-0.139***</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="str">
+        <f>+[10]Sheet1!E29</f>
+        <v>-0.142***</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="str">
         <f>+K30</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="str">
         <f>+Q30</f>
-        <v>()</v>
-      </c>
-      <c r="H30" s="29" t="str">
-        <f>+MID([10]Sheet1!C26,2,5)</f>
-        <v/>
+        <v>(0.011)</v>
+      </c>
+      <c r="H30" s="28" t="str">
+        <f>+MID([10]Sheet1!C30,2,5)</f>
+        <v>0.011</v>
       </c>
       <c r="I30" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J30" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K30" t="str">
         <f>+I30&amp;H30&amp;J30</f>
-        <v>()</v>
-      </c>
-      <c r="N30" s="29" t="str">
-        <f>+MID([10]Sheet1!E26,2,5)</f>
-        <v/>
+        <v>(0.011)</v>
+      </c>
+      <c r="N30" s="28" t="str">
+        <f>+MID([10]Sheet1!E30,2,5)</f>
+        <v>0.011</v>
       </c>
       <c r="O30" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="Q30" t="str">
         <f>+O30&amp;N30&amp;P30</f>
-        <v>()</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <v>(0.011)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="B31" s="3" t="str">
+        <f>+[10]Sheet1!B31</f>
+        <v>6.269***</v>
       </c>
       <c r="C31" s="8">
+        <f>+[10]Sheet1!C31</f>
         <v>0</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>105</v>
+      <c r="D31" s="3" t="str">
+        <f>+[10]Sheet1!D31</f>
+        <v>6.277***</v>
       </c>
       <c r="E31" s="8">
+        <f>+[10]Sheet1!E31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <v>-7.1999999999999995E-2</v>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="str">
+        <f>+K32</f>
+        <v>(0.065)</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>+K32</f>
-        <v>()</v>
-      </c>
-      <c r="D32" s="3">
-        <v>-7.0999999999999994E-2</v>
+        <f>+L32</f>
+        <v>(0.005)</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f>+Q32</f>
+        <v>(0.065)</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f>+Q32</f>
-        <v>()</v>
-      </c>
-      <c r="H32" s="29" t="str">
-        <f>+MID([10]Sheet1!C28,2,5)</f>
-        <v/>
+        <f>+R32</f>
+        <v>(0.005)</v>
+      </c>
+      <c r="G32" s="28" t="str">
+        <f>+MID([10]Sheet1!B32,2,5)</f>
+        <v>0.065</v>
+      </c>
+      <c r="H32" s="28" t="str">
+        <f>+MID([10]Sheet1!C32,2,5)</f>
+        <v>0.005</v>
       </c>
       <c r="I32" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="K32" t="str">
+        <f>+I32&amp;G32&amp;J32</f>
+        <v>(0.065)</v>
+      </c>
+      <c r="L32" t="str">
         <f>+I32&amp;H32&amp;J32</f>
-        <v>()</v>
-      </c>
-      <c r="N32" s="29" t="str">
-        <f>+MID([10]Sheet1!E28,2,5)</f>
-        <v/>
+        <v>(0.005)</v>
+      </c>
+      <c r="M32" s="28" t="str">
+        <f>+MID([10]Sheet1!D32,2,5)</f>
+        <v>0.065</v>
+      </c>
+      <c r="N32" s="28" t="str">
+        <f>+MID([10]Sheet1!E32,2,5)</f>
+        <v>0.005</v>
       </c>
       <c r="O32" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="str">
+        <f>+O32&amp;M32&amp;P32</f>
+        <v>(0.065)</v>
+      </c>
+      <c r="R32" t="str">
         <f>+O32&amp;N32&amp;P32</f>
-        <v>()</v>
+        <v>(0.005)</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="45"/>
@@ -5106,33 +5119,47 @@
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="4">
+        <f>+[10]Sheet1!B34</f>
         <v>9785</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="4">
+        <f>+[10]Sheet1!C34</f>
         <v>9785</v>
       </c>
-      <c r="D34" t="s">
-        <v>102</v>
+      <c r="D34" s="4">
+        <f>+[10]Sheet1!D34</f>
+        <v>9785</v>
+      </c>
+      <c r="E34" s="4">
+        <f>+[10]Sheet1!E34</f>
+        <v>9785</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
-      <c r="B35">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="C35">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
+      <c r="B35" s="22">
+        <f>+[10]Sheet1!B35</f>
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C35" s="22">
+        <f>+[10]Sheet1!C35</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <f>+[10]Sheet1!D35</f>
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="E35" s="22">
+        <f>+[10]Sheet1!E35</f>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
@@ -5141,7 +5168,7 @@
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -5150,7 +5177,7 @@
     </row>
     <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -5171,6 +5198,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="B7:E7" numberStoredAsText="1"/>
+    <ignoredError sqref="B11:E32" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5383,7 +5411,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5406,15 +5434,15 @@
         <f>+G8</f>
         <v>()</v>
       </c>
-      <c r="D8" s="29" t="str">
+      <c r="D8" s="28" t="str">
         <f>+MID([3]Sheet1!B9,2,5)</f>
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G8" t="str">
         <f>+E8&amp;D8&amp;F8</f>
@@ -5435,15 +5463,15 @@
         <f>+G10</f>
         <v>()</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="28" t="str">
         <f>+MID([3]Sheet1!B11,2,5)</f>
         <v/>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G10" t="str">
         <f>+E10&amp;D10&amp;F10</f>
@@ -5464,15 +5492,15 @@
         <f>+G12</f>
         <v>()</v>
       </c>
-      <c r="D12" s="29" t="str">
+      <c r="D12" s="28" t="str">
         <f>+MID([3]Sheet1!B13,2,5)</f>
         <v/>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G12" t="str">
         <f>+E12&amp;D12&amp;F12</f>
@@ -5651,7 +5679,7 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -5659,14 +5687,14 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
-      <c r="D2" s="40"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -5674,7 +5702,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5705,9 +5733,9 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="5">
         <f>+[5]Sheet1!B9</f>
-        <v>-0.139***</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5715,32 +5743,32 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
         <f>+H9</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="28" t="str">
         <f>+MID([5]Sheet1!B10,2,5)</f>
-        <v>0.011</v>
+        <v/>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H9" t="str">
         <f>+F9&amp;E9&amp;G9</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="5">
         <f>+[5]Sheet1!B11</f>
-        <v>0.041***</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5748,32 +5776,32 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
         <f>+H11</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="28" t="str">
         <f>+MID([5]Sheet1!B12,2,5)</f>
-        <v>0.003</v>
+        <v/>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H11" t="str">
         <f>+F11&amp;E11&amp;G11</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="5">
         <f>+[5]Sheet1!B13</f>
-        <v>-0.0004***</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5781,32 +5809,32 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="str">
         <f>+H13</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>+MID([5]Sheet1!B14,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H13" t="str">
         <f>+F13&amp;E13&amp;G13</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="5">
         <f>+[5]Sheet1!B15</f>
-        <v>0.140***</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5814,32 +5842,32 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="str">
         <f>+H15</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="28" t="str">
         <f>+MID([5]Sheet1!B16,2,5)</f>
-        <v>0.006</v>
+        <v/>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H15" t="str">
         <f>+F15&amp;E15&amp;G15</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="5">
         <f>+[5]Sheet1!B17</f>
-        <v>0.012***</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5847,32 +5875,32 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
         <f>+H17</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="28" t="str">
         <f>+MID([5]Sheet1!B18,2,5)</f>
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H17" t="str">
         <f>+F17&amp;E17&amp;G17</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="5">
         <f>+[5]Sheet1!B19</f>
-        <v>-0.0002***</v>
+        <v>0</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5880,32 +5908,32 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
         <f>+H19</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="28" t="str">
         <f>+MID([5]Sheet1!B20,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H19" t="str">
         <f>+F19&amp;E19&amp;G19</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="5">
         <f>+[5]Sheet1!B21</f>
-        <v>0.053***</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5913,32 +5941,32 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="str">
         <f>+H21</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="28" t="str">
         <f>+MID([5]Sheet1!B22,2,5)</f>
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H21" t="str">
         <f>+F21&amp;E21&amp;G21</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="5">
         <f>+[5]Sheet1!B23</f>
-        <v>-0.013***</v>
+        <v>0</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -5946,32 +5974,32 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="str">
         <f>+H23</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="28" t="str">
         <f>+MID([5]Sheet1!B24,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H23" t="str">
         <f>+F23&amp;E23&amp;G23</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="5">
         <f>+[5]Sheet1!B25</f>
-        <v>0.150***</v>
+        <v>0</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -5979,32 +6007,32 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="str">
         <f>+H25</f>
-        <v>(0.016)</v>
+        <v>()</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="28" t="str">
         <f>+MID([5]Sheet1!B26,2,5)</f>
-        <v>0.016</v>
+        <v/>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
-        <v>(0.016)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="5">
         <f>+[5]Sheet1!B27</f>
-        <v>0.284***</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6012,23 +6040,23 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="str">
         <f>+H27</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="29" t="str">
+      <c r="E27" s="28" t="str">
         <f>+MID([5]Sheet1!B28,2,5)</f>
-        <v>0.006</v>
+        <v/>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6036,9 +6064,9 @@
         <v>25</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5" t="str">
+      <c r="C28" s="5">
         <f>+[5]Sheet1!C29</f>
-        <v>-0.139***</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -6046,31 +6074,31 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="str">
         <f>+I29</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
       <c r="D29" s="5"/>
-      <c r="F29" s="29" t="str">
+      <c r="F29" s="28" t="str">
         <f>+MID([5]Sheet1!C30,2,5)</f>
-        <v>0.011</v>
+        <v/>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I29" t="str">
         <f>+G29&amp;F29&amp;H29</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="5">
         <f>+[5]Sheet1!B27</f>
-        <v>0.284***</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5">
         <f>+[5]Sheet1!C27</f>
@@ -6081,40 +6109,40 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="str">
         <f>+I31</f>
-        <v>(0.065)</v>
+        <v>()</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>+N31</f>
-        <v>(0.005)</v>
+        <v>()</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="F31" s="29" t="str">
+      <c r="F31" s="28" t="str">
         <f>+MID([5]Sheet1!B32,2,5)</f>
-        <v>0.065</v>
+        <v/>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I31" t="str">
         <f>+G31&amp;F31&amp;H31</f>
-        <v>(0.065)</v>
-      </c>
-      <c r="K31" s="29" t="str">
+        <v>()</v>
+      </c>
+      <c r="K31" s="28" t="str">
         <f>+MID([5]Sheet1!C32,2,5)</f>
-        <v>0.005</v>
+        <v/>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="N31" t="str">
         <f>+L31&amp;K31&amp;M31</f>
-        <v>(0.005)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -6123,7 +6151,7 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="42"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -6131,11 +6159,11 @@
       </c>
       <c r="B33" s="4">
         <f>+[5]Sheet1!B34</f>
-        <v>9785</v>
+        <v>0</v>
       </c>
       <c r="C33" s="4">
         <f>+[5]Sheet1!C34</f>
-        <v>9785</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -6145,11 +6173,11 @@
       </c>
       <c r="B34" s="22">
         <f>+[5]Sheet1!B35</f>
-        <v>0.49199999999999999</v>
+        <v>0</v>
       </c>
       <c r="C34" s="22">
         <f>+[5]Sheet1!C35</f>
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="22"/>
     </row>
@@ -6167,7 +6195,7 @@
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="38"/>
+      <c r="D36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6202,7 +6230,7 @@
     <col min="4" max="4" width="8.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
@@ -6215,29 +6243,29 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
-      <c r="D2" s="40"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,7 +6279,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -6404,7 +6432,7 @@
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
-      <c r="D21" s="38"/>
+      <c r="D21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6507,7 +6535,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="8">
         <f>+[6]Sheet1!A7</f>
@@ -6546,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6564,7 +6592,7 @@
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
-      <c r="D1" s="39"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
@@ -6572,14 +6600,14 @@
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
-      <c r="D2" s="40"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="47"/>
-      <c r="D3" s="41"/>
+      <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="48" t="s">
@@ -6587,7 +6615,7 @@
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="42"/>
+      <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -6618,9 +6646,9 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="8">
         <f>+[7]Sheet1!B9</f>
-        <v>-0.142***</v>
+        <v>0</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -6628,32 +6656,32 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="str">
         <f>+H9</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="29" t="str">
+      <c r="E9" s="28" t="str">
         <f>+MID([7]Sheet1!B10,2,5)</f>
-        <v>0.011</v>
+        <v/>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H9" t="str">
         <f>+F9&amp;E9&amp;G9</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="8">
         <f>+[7]Sheet1!B11</f>
-        <v>0.042***</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6661,32 +6689,32 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="str">
         <f>+H11</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="29" t="str">
+      <c r="E11" s="28" t="str">
         <f>+MID([7]Sheet1!B12,2,5)</f>
-        <v>0.003</v>
+        <v/>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H11" t="str">
         <f>+F11&amp;E11&amp;G11</f>
-        <v>(0.003)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="8">
         <f>+[7]Sheet1!B13</f>
-        <v>-0.0004***</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -6694,32 +6722,32 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="str">
         <f>+H13</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="29" t="str">
+      <c r="E13" s="28" t="str">
         <f>+MID([7]Sheet1!B14,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H13" t="str">
         <f>+F13&amp;E13&amp;G13</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="8">
         <f>+[7]Sheet1!B15</f>
-        <v>0.147***</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -6727,32 +6755,32 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="str">
         <f>+H15</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="29" t="str">
+      <c r="E15" s="28" t="str">
         <f>+MID([7]Sheet1!B16,2,5)</f>
-        <v>0.006</v>
+        <v/>
       </c>
       <c r="F15" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H15" t="str">
         <f>+F15&amp;E15&amp;G15</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="8">
         <f>+[7]Sheet1!B17</f>
-        <v>0.012***</v>
+        <v>0</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -6760,32 +6788,32 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="str">
         <f>+H17</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="29" t="str">
+      <c r="E17" s="28" t="str">
         <f>+MID([7]Sheet1!B18,2,5)</f>
-        <v>0.001</v>
+        <v/>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H17" t="str">
         <f>+F17&amp;E17&amp;G17</f>
-        <v>(0.001)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="8">
         <f>+[7]Sheet1!B19</f>
-        <v>-0.0002***</v>
+        <v>0</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6793,32 +6821,32 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="str">
         <f>+H19</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="29" t="str">
+      <c r="E19" s="28" t="str">
         <f>+MID([7]Sheet1!B20,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H19" t="str">
         <f>+F19&amp;E19&amp;G19</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="8">
         <f>+[7]Sheet1!B21</f>
-        <v>0.053***</v>
+        <v>0</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -6826,32 +6854,32 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="str">
         <f>+H21</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="29" t="str">
+      <c r="E21" s="28" t="str">
         <f>+MID([7]Sheet1!B22,2,5)</f>
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H21" t="str">
         <f>+F21&amp;E21&amp;G21</f>
-        <v>(0.002)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="8">
         <f>+[7]Sheet1!B23</f>
-        <v>-0.014***</v>
+        <v>0</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -6859,32 +6887,32 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="str">
         <f>+H23</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="29" t="str">
+      <c r="E23" s="28" t="str">
         <f>+MID([7]Sheet1!B24,2,5)</f>
-        <v>0.000</v>
+        <v/>
       </c>
       <c r="F23" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H23" t="str">
         <f>+F23&amp;E23&amp;G23</f>
-        <v>(0.000)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="8">
         <f>+[7]Sheet1!B25</f>
-        <v>0.151***</v>
+        <v>0</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6892,32 +6920,32 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="str">
         <f>+H25</f>
-        <v>(0.016)</v>
+        <v>()</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="29" t="str">
+      <c r="E25" s="28" t="str">
         <f>+MID([7]Sheet1!B26,2,5)</f>
-        <v>0.016</v>
+        <v/>
       </c>
       <c r="F25" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
-        <v>(0.016)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="8">
         <f>+[7]Sheet1!B27</f>
-        <v>0.277***</v>
+        <v>0</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -6925,23 +6953,23 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="str">
         <f>+H27</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="29" t="str">
+      <c r="E27" s="28" t="str">
         <f>+MID([7]Sheet1!B28,2,5)</f>
-        <v>0.006</v>
+        <v/>
       </c>
       <c r="F27" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
-        <v>(0.006)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6949,9 +6977,9 @@
         <v>25</v>
       </c>
       <c r="B28" s="8"/>
-      <c r="C28" s="8" t="str">
+      <c r="C28" s="8">
         <f>+[7]Sheet1!C29</f>
-        <v>-0.142***</v>
+        <v>0</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -6959,31 +6987,31 @@
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="str">
         <f>+I29</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="F29" s="29" t="str">
+      <c r="F29" s="28" t="str">
         <f>+MID([7]Sheet1!C30,2,5)</f>
-        <v>0.011</v>
+        <v/>
       </c>
       <c r="G29" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I29" t="str">
         <f>+G29&amp;F29&amp;H29</f>
-        <v>(0.011)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="8">
         <f>+[7]Sheet1!B31</f>
-        <v>6.277***</v>
+        <v>0</v>
       </c>
       <c r="C30" s="8">
         <f>+[7]Sheet1!C31</f>
@@ -6994,40 +7022,40 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="str">
         <f>+I31</f>
-        <v>(0.065)</v>
+        <v>()</v>
       </c>
       <c r="C31" s="8" t="str">
         <f>+N31</f>
-        <v>(0.005)</v>
+        <v>()</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="F31" s="29" t="str">
+      <c r="F31" s="28" t="str">
         <f>+MID([7]Sheet1!B32,2,5)</f>
-        <v>0.065</v>
+        <v/>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="I31" t="str">
         <f>+G31&amp;F31&amp;H31</f>
-        <v>(0.065)</v>
-      </c>
-      <c r="K31" s="29" t="str">
+        <v>()</v>
+      </c>
+      <c r="K31" s="28" t="str">
         <f>+MID([7]Sheet1!C32,2,5)</f>
-        <v>0.005</v>
+        <v/>
       </c>
       <c r="L31" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="N31" t="str">
         <f>+L31&amp;K31&amp;M31</f>
-        <v>(0.005)</v>
+        <v>()</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -7036,7 +7064,7 @@
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="42"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7044,11 +7072,11 @@
       </c>
       <c r="B33" s="4">
         <f>+[7]Sheet1!B34</f>
-        <v>9785</v>
+        <v>0</v>
       </c>
       <c r="C33" s="4">
         <f>+[7]Sheet1!C34</f>
-        <v>9785</v>
+        <v>0</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -7058,11 +7086,11 @@
       </c>
       <c r="B34" s="22">
         <f>+[7]Sheet1!B35</f>
-        <v>0.49299999999999999</v>
+        <v>0</v>
       </c>
       <c r="C34" s="22">
         <f>+[7]Sheet1!C35</f>
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="D34" s="22"/>
     </row>
@@ -7080,7 +7108,7 @@
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
-      <c r="D36" s="38"/>
+      <c r="D36" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A454EAF-5B99-454F-A40D-2AC62DA2843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7DFB27-F157-465C-AAD0-B5AB3CCF6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="119">
   <si>
     <t>============================================</t>
   </si>
@@ -423,6 +423,9 @@
   <si>
     <t>Tabla 4: Regresión 5</t>
   </si>
+  <si>
+    <t>Tabla 1: Regresión 4</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +437,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +469,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,6 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2046,7 +2057,142 @@
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>-0.139***</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>0.041***</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>-3.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>-0.0004***</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>-3.0000000000000001E-5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>0.140***</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>0.012***</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>-1E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>-0.0002***</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>-2.0000000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>0.053***</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>-2E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>-0.013***</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>-5.0000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>0.150***</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>-1.6E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>0.284***</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>-6.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29" t="str">
+            <v>-0.139***</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>-1.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>-6.5000000000000002E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>-5.0000000000000001E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>9785</v>
+          </cell>
+          <cell r="C34">
+            <v>9785</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.49199999999999999</v>
+          </cell>
+          <cell r="C35">
+            <v>1.7000000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3017,7 +3163,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,7 +4480,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E38"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5106,7 +5252,7 @@
         <v>(0.005)</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>83</v>
       </c>
@@ -5115,7 +5261,7 @@
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -5136,7 +5282,7 @@
         <v>9785</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -5157,7 +5303,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="46" t="s">
         <v>84</v>
       </c>
@@ -5165,8 +5311,11 @@
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J36" s="54">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>85</v>
       </c>
@@ -5174,8 +5323,26 @@
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="54">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K37">
+        <f>+J36-J37</f>
+        <v>4.1600000000000005E-2</v>
+      </c>
+      <c r="L37">
+        <f>+(EXP(K37)-1)*100</f>
+        <v>4.2477404379698047</v>
+      </c>
+      <c r="M37">
+        <v>7984.26</v>
+      </c>
+      <c r="N37">
+        <f>+L37/M37*100</f>
+        <v>5.3201429286744227E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
         <v>82</v>
       </c>
@@ -5662,7 +5829,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5733,9 +5900,9 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="5" t="str">
         <f>+[5]Sheet1!B9</f>
-        <v>0</v>
+        <v>-0.139***</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5743,13 +5910,13 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="str">
         <f>+H9</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="28" t="str">
         <f>+MID([5]Sheet1!B10,2,5)</f>
-        <v/>
+        <v>0.011</v>
       </c>
       <c r="F9" t="s">
         <v>89</v>
@@ -5759,16 +5926,16 @@
       </c>
       <c r="H9" t="str">
         <f>+F9&amp;E9&amp;G9</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="5" t="str">
         <f>+[5]Sheet1!B11</f>
-        <v>0</v>
+        <v>0.041***</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -5776,13 +5943,13 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
         <f>+H11</f>
-        <v>()</v>
+        <v>(0.003)</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="28" t="str">
         <f>+MID([5]Sheet1!B12,2,5)</f>
-        <v/>
+        <v>0.003</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
@@ -5792,16 +5959,16 @@
       </c>
       <c r="H11" t="str">
         <f>+F11&amp;E11&amp;G11</f>
-        <v>()</v>
+        <v>(0.003)</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="5" t="str">
         <f>+[5]Sheet1!B13</f>
-        <v>0</v>
+        <v>-0.0004***</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -5809,13 +5976,13 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="str">
         <f>+H13</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="28" t="str">
         <f>+MID([5]Sheet1!B14,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="F13" t="s">
         <v>89</v>
@@ -5825,16 +5992,16 @@
       </c>
       <c r="H13" t="str">
         <f>+F13&amp;E13&amp;G13</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="5" t="str">
         <f>+[5]Sheet1!B15</f>
-        <v>0</v>
+        <v>0.140***</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -5842,13 +6009,13 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="str">
         <f>+H15</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="28" t="str">
         <f>+MID([5]Sheet1!B16,2,5)</f>
-        <v/>
+        <v>0.006</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
@@ -5858,16 +6025,16 @@
       </c>
       <c r="H15" t="str">
         <f>+F15&amp;E15&amp;G15</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="5" t="str">
         <f>+[5]Sheet1!B17</f>
-        <v>0</v>
+        <v>0.012***</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -5875,13 +6042,13 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
         <f>+H17</f>
-        <v>()</v>
+        <v>(0.001)</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="28" t="str">
         <f>+MID([5]Sheet1!B18,2,5)</f>
-        <v/>
+        <v>0.001</v>
       </c>
       <c r="F17" t="s">
         <v>89</v>
@@ -5891,16 +6058,16 @@
       </c>
       <c r="H17" t="str">
         <f>+F17&amp;E17&amp;G17</f>
-        <v>()</v>
+        <v>(0.001)</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="5" t="str">
         <f>+[5]Sheet1!B19</f>
-        <v>0</v>
+        <v>-0.0002***</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -5908,13 +6075,13 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="str">
         <f>+H19</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="28" t="str">
         <f>+MID([5]Sheet1!B20,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
@@ -5924,16 +6091,16 @@
       </c>
       <c r="H19" t="str">
         <f>+F19&amp;E19&amp;G19</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="5" t="str">
         <f>+[5]Sheet1!B21</f>
-        <v>0</v>
+        <v>0.053***</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -5941,13 +6108,13 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="str">
         <f>+H21</f>
-        <v>()</v>
+        <v>(0.002)</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="28" t="str">
         <f>+MID([5]Sheet1!B22,2,5)</f>
-        <v/>
+        <v>0.002</v>
       </c>
       <c r="F21" t="s">
         <v>89</v>
@@ -5957,16 +6124,16 @@
       </c>
       <c r="H21" t="str">
         <f>+F21&amp;E21&amp;G21</f>
-        <v>()</v>
+        <v>(0.002)</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="5" t="str">
         <f>+[5]Sheet1!B23</f>
-        <v>0</v>
+        <v>-0.013***</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -5974,13 +6141,13 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="str">
         <f>+H23</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="28" t="str">
         <f>+MID([5]Sheet1!B24,2,5)</f>
-        <v/>
+        <v>0.000</v>
       </c>
       <c r="F23" t="s">
         <v>89</v>
@@ -5990,16 +6157,16 @@
       </c>
       <c r="H23" t="str">
         <f>+F23&amp;E23&amp;G23</f>
-        <v>()</v>
+        <v>(0.000)</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="5" t="str">
         <f>+[5]Sheet1!B25</f>
-        <v>0</v>
+        <v>0.150***</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -6007,13 +6174,13 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="str">
         <f>+H25</f>
-        <v>()</v>
+        <v>(0.016)</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="28" t="str">
         <f>+MID([5]Sheet1!B26,2,5)</f>
-        <v/>
+        <v>0.016</v>
       </c>
       <c r="F25" t="s">
         <v>89</v>
@@ -6023,16 +6190,16 @@
       </c>
       <c r="H25" t="str">
         <f>+F25&amp;E25&amp;G25</f>
-        <v>()</v>
+        <v>(0.016)</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="5" t="str">
         <f>+[5]Sheet1!B27</f>
-        <v>0</v>
+        <v>0.284***</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -6040,13 +6207,13 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="str">
         <f>+H27</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="28" t="str">
         <f>+MID([5]Sheet1!B28,2,5)</f>
-        <v/>
+        <v>0.006</v>
       </c>
       <c r="F27" t="s">
         <v>89</v>
@@ -6056,7 +6223,7 @@
       </c>
       <c r="H27" t="str">
         <f>+F27&amp;E27&amp;G27</f>
-        <v>()</v>
+        <v>(0.006)</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6064,9 +6231,9 @@
         <v>25</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="C28" s="5">
+      <c r="C28" s="5" t="str">
         <f>+[5]Sheet1!C29</f>
-        <v>0</v>
+        <v>-0.139***</v>
       </c>
       <c r="D28" s="5"/>
     </row>
@@ -6074,12 +6241,12 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5" t="str">
         <f>+I29</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="28" t="str">
         <f>+MID([5]Sheet1!C30,2,5)</f>
-        <v/>
+        <v>0.011</v>
       </c>
       <c r="G29" t="s">
         <v>89</v>
@@ -6089,16 +6256,16 @@
       </c>
       <c r="I29" t="str">
         <f>+G29&amp;F29&amp;H29</f>
-        <v>()</v>
+        <v>(0.011)</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="5" t="str">
         <f>+[5]Sheet1!B27</f>
-        <v>0</v>
+        <v>0.284***</v>
       </c>
       <c r="C30" s="5">
         <f>+[5]Sheet1!C27</f>
@@ -6109,16 +6276,16 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="str">
         <f>+I31</f>
-        <v>()</v>
+        <v>(0.065)</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>+N31</f>
-        <v>()</v>
+        <v>(0.005)</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="28" t="str">
         <f>+MID([5]Sheet1!B32,2,5)</f>
-        <v/>
+        <v>0.065</v>
       </c>
       <c r="G31" t="s">
         <v>89</v>
@@ -6128,11 +6295,11 @@
       </c>
       <c r="I31" t="str">
         <f>+G31&amp;F31&amp;H31</f>
-        <v>()</v>
+        <v>(0.065)</v>
       </c>
       <c r="K31" s="28" t="str">
         <f>+MID([5]Sheet1!C32,2,5)</f>
-        <v/>
+        <v>0.005</v>
       </c>
       <c r="L31" t="s">
         <v>89</v>
@@ -6142,7 +6309,7 @@
       </c>
       <c r="N31" t="str">
         <f>+L31&amp;K31&amp;M31</f>
-        <v>()</v>
+        <v>(0.005)</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -6159,11 +6326,11 @@
       </c>
       <c r="B33" s="4">
         <f>+[5]Sheet1!B34</f>
-        <v>0</v>
+        <v>9785</v>
       </c>
       <c r="C33" s="4">
         <f>+[5]Sheet1!C34</f>
-        <v>0</v>
+        <v>9785</v>
       </c>
       <c r="D33" s="4"/>
     </row>
@@ -6173,11 +6340,11 @@
       </c>
       <c r="B34" s="22">
         <f>+[5]Sheet1!B35</f>
-        <v>0</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="C34" s="22">
         <f>+[5]Sheet1!C35</f>
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="D34" s="22"/>
     </row>
@@ -6219,7 +6386,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6574,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACE0881-F04F-43E2-81A7-A8F8E5348B61}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6588,7 +6755,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>

--- a/Tablas Taller_1.xlsx
+++ b/Tablas Taller_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Output R\Taller_1\Taller_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7DFB27-F157-465C-AAD0-B5AB3CCF6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3024A3C6-4D69-43C5-A431-48A6CBA3C1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reg1" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="T4" sheetId="8" r:id="rId8"/>
     <sheet name="Reg4" sheetId="10" r:id="rId9"/>
     <sheet name="Reg5" sheetId="7" r:id="rId10"/>
-    <sheet name="Tablas Stat" sheetId="9" r:id="rId11"/>
-    <sheet name="Reg6" sheetId="11" r:id="rId12"/>
-    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId13"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId11"/>
+    <sheet name="Tablas Stat" sheetId="9" r:id="rId12"/>
+    <sheet name="Reg6" sheetId="11" r:id="rId13"/>
+    <sheet name="Reg_Comparativa" sheetId="12" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
@@ -38,6 +38,7 @@
     <externalReference r:id="rId21"/>
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
+    <externalReference r:id="rId24"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="121">
   <si>
     <t>============================================</t>
   </si>
@@ -426,16 +427,23 @@
   <si>
     <t>Tabla 1: Regresión 4</t>
   </si>
+  <si>
+    <t>Modelos</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -528,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,6 +656,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -681,7 +693,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2711,16 +2728,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2728,10 +2745,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -2739,10 +2756,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3107,10 +3124,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -3129,16 +3146,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="47"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3162,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8127A630-0B15-474C-9EF0-21F734385AC4}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3173,16 +3190,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -3190,10 +3207,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3381,10 +3398,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="50"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -3411,10 +3428,10 @@
       <c r="B22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3432,6 +3449,194 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E6AFD5-A845-4867-81B2-692C5CAE8C57}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="47"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="57">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56">
+        <v>0.68287347022721512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="57">
+        <v>2</v>
+      </c>
+      <c r="B5" s="56">
+        <v>0.69597080858733518</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <f>+A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="56">
+        <v>0.6829147095320236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
+        <f t="shared" ref="A7:A19" si="0">+A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="56">
+        <v>0.67093977229902446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="56">
+        <v>0.58989816952723362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="56">
+        <v>0.54865922211728502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="56">
+        <v>0.52951949159451017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="57">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="56">
+        <v>0.51492525684592161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="56">
+        <v>0.51309849788958362</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="56">
+        <v>0.51773706591766577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="56">
+        <v>0.51239426695415313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="56">
+        <v>0.51185416673358008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="56">
+        <v>0.51244915488646092</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="56">
+        <v>0.45988759600921397</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="56">
+        <v>0.45913494261473681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="57">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="56">
+        <v>0.45692443382729919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0026F-8BC2-4ACC-8A10-6EEA70149009}">
   <dimension ref="A2:N38"/>
   <sheetViews>
@@ -3454,40 +3659,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="H2" s="50" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="H2" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="H3" s="51" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="H3" s="53" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -3528,22 +3733,22 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="H5" s="51" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="H5" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3798,14 +4003,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="H12" t="s">
         <v>101</v>
       </c>
@@ -3854,12 +4059,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
       <c r="H14" t="s">
         <v>103</v>
       </c>
@@ -3884,22 +4089,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
@@ -4000,13 +4205,13 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -4079,28 +4284,28 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
@@ -4316,12 +4521,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839A8D81-4B18-435C-9BD5-ECA2C1190472}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4331,16 +4536,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4348,10 +4553,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -4359,10 +4564,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4423,10 +4628,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4447,16 +4652,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4475,7 +4680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7827ECF9-4AFC-437C-BB8E-2CE27F458F8E}">
   <dimension ref="A1:R38"/>
   <sheetViews>
@@ -4503,29 +4708,29 @@
       <c r="Q1" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
@@ -4556,13 +4761,13 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5253,13 +5458,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -5304,26 +5509,26 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="J36" s="54">
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="J36" s="44">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="J37" s="54">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="J37" s="44">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="K37">
@@ -5343,13 +5548,13 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5397,16 +5602,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -5414,10 +5619,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5425,10 +5630,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5521,10 +5726,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5554,16 +5759,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -5571,10 +5776,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5582,10 +5787,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5675,10 +5880,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5697,16 +5902,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="47"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5740,16 +5945,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -5757,10 +5962,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -5768,10 +5973,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5801,10 +6006,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -5841,34 +6046,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6313,11 +6518,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6357,11 +6562,11 @@
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="37"/>
     </row>
   </sheetData>
@@ -6398,33 +6603,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6594,11 +6799,11 @@
       <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="37"/>
     </row>
   </sheetData>
@@ -6631,16 +6836,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="46"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
+      <c r="B2" s="47"/>
     </row>
     <row r="3" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -6648,10 +6853,10 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -6659,10 +6864,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6719,10 +6924,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="46"/>
+      <c r="B13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6754,34 +6959,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7226,11 +7431,11 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="41"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7270,11 +7475,11 @@
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="37"/>
     </row>
   </sheetData>
